--- a/data-raw/abs/6202.0/6202011a.xlsx
+++ b/data-raw/abs/6202.0/6202011a.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\LFS\HSF\M2112\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA899E1-AE6F-4FDB-A69B-843C8B229D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14355" windowHeight="10560"/>
+    <workbookView xWindow="8445" yWindow="3585" windowWidth="28155" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -12,83 +18,83 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$536</definedName>
-    <definedName name="A84423195R_Data">Data1!$C$11:$C$536</definedName>
-    <definedName name="A84423195R_Latest">Data1!$C$536</definedName>
-    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$536</definedName>
-    <definedName name="A84423196T_Data">Data1!$L$11:$L$536</definedName>
-    <definedName name="A84423196T_Latest">Data1!$L$536</definedName>
-    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$536</definedName>
-    <definedName name="A84423197V_Data">Data1!$R$11:$R$536</definedName>
-    <definedName name="A84423197V_Latest">Data1!$R$536</definedName>
-    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$536</definedName>
-    <definedName name="A84423200W_Data">Data1!$O$11:$O$536</definedName>
-    <definedName name="A84423200W_Latest">Data1!$O$536</definedName>
-    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$536</definedName>
-    <definedName name="A84423201X_Data">Data1!$U$11:$U$536</definedName>
-    <definedName name="A84423201X_Latest">Data1!$U$536</definedName>
-    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$536</definedName>
-    <definedName name="A84423202A_Data">Data1!$I$11:$I$536</definedName>
-    <definedName name="A84423202A_Latest">Data1!$I$536</definedName>
-    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$536</definedName>
-    <definedName name="A84423203C_Data">Data1!$F$11:$F$536</definedName>
-    <definedName name="A84423203C_Latest">Data1!$F$536</definedName>
-    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$536</definedName>
-    <definedName name="A84423307W_Data">Data1!$B$11:$B$536</definedName>
-    <definedName name="A84423307W_Latest">Data1!$B$536</definedName>
-    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$536</definedName>
-    <definedName name="A84423308X_Data">Data1!$K$11:$K$536</definedName>
-    <definedName name="A84423308X_Latest">Data1!$K$536</definedName>
-    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$536</definedName>
-    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$536</definedName>
-    <definedName name="A84423309A_Latest">Data1!$Q$536</definedName>
-    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$536</definedName>
-    <definedName name="A84423312R_Data">Data1!$N$11:$N$536</definedName>
-    <definedName name="A84423312R_Latest">Data1!$N$536</definedName>
-    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$536</definedName>
-    <definedName name="A84423313T_Data">Data1!$T$11:$T$536</definedName>
-    <definedName name="A84423313T_Latest">Data1!$T$536</definedName>
-    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$536</definedName>
-    <definedName name="A84423314V_Data">Data1!$H$11:$H$536</definedName>
-    <definedName name="A84423314V_Latest">Data1!$H$536</definedName>
-    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$536</definedName>
-    <definedName name="A84423315W_Data">Data1!$E$11:$E$536</definedName>
-    <definedName name="A84423315W_Latest">Data1!$E$536</definedName>
-    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$536</definedName>
-    <definedName name="A84423419R_Data">Data1!$D$11:$D$536</definedName>
-    <definedName name="A84423419R_Latest">Data1!$D$536</definedName>
-    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$536</definedName>
-    <definedName name="A84423420X_Data">Data1!$M$11:$M$536</definedName>
-    <definedName name="A84423420X_Latest">Data1!$M$536</definedName>
-    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$536</definedName>
-    <definedName name="A84423421A_Data">Data1!$S$11:$S$536</definedName>
-    <definedName name="A84423421A_Latest">Data1!$S$536</definedName>
-    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$536</definedName>
-    <definedName name="A84423424J_Data">Data1!$P$11:$P$536</definedName>
-    <definedName name="A84423424J_Latest">Data1!$P$536</definedName>
-    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$536</definedName>
-    <definedName name="A84423425K_Data">Data1!$V$11:$V$536</definedName>
-    <definedName name="A84423425K_Latest">Data1!$V$536</definedName>
-    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$536</definedName>
-    <definedName name="A84423426L_Data">Data1!$J$11:$J$536</definedName>
-    <definedName name="A84423426L_Latest">Data1!$J$536</definedName>
-    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$536</definedName>
-    <definedName name="A84423427R_Data">Data1!$G$11:$G$536</definedName>
-    <definedName name="A84423427R_Latest">Data1!$G$536</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$536</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$536</definedName>
+    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$537</definedName>
+    <definedName name="A84423195R_Data">Data1!$C$11:$C$537</definedName>
+    <definedName name="A84423195R_Latest">Data1!$C$537</definedName>
+    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$537</definedName>
+    <definedName name="A84423196T_Data">Data1!$L$11:$L$537</definedName>
+    <definedName name="A84423196T_Latest">Data1!$L$537</definedName>
+    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$537</definedName>
+    <definedName name="A84423197V_Data">Data1!$R$11:$R$537</definedName>
+    <definedName name="A84423197V_Latest">Data1!$R$537</definedName>
+    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$537</definedName>
+    <definedName name="A84423200W_Data">Data1!$O$11:$O$537</definedName>
+    <definedName name="A84423200W_Latest">Data1!$O$537</definedName>
+    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$537</definedName>
+    <definedName name="A84423201X_Data">Data1!$U$11:$U$537</definedName>
+    <definedName name="A84423201X_Latest">Data1!$U$537</definedName>
+    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$537</definedName>
+    <definedName name="A84423202A_Data">Data1!$I$11:$I$537</definedName>
+    <definedName name="A84423202A_Latest">Data1!$I$537</definedName>
+    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$537</definedName>
+    <definedName name="A84423203C_Data">Data1!$F$11:$F$537</definedName>
+    <definedName name="A84423203C_Latest">Data1!$F$537</definedName>
+    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$537</definedName>
+    <definedName name="A84423307W_Data">Data1!$B$11:$B$537</definedName>
+    <definedName name="A84423307W_Latest">Data1!$B$537</definedName>
+    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$537</definedName>
+    <definedName name="A84423308X_Data">Data1!$K$11:$K$537</definedName>
+    <definedName name="A84423308X_Latest">Data1!$K$537</definedName>
+    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$537</definedName>
+    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$537</definedName>
+    <definedName name="A84423309A_Latest">Data1!$Q$537</definedName>
+    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$537</definedName>
+    <definedName name="A84423312R_Data">Data1!$N$11:$N$537</definedName>
+    <definedName name="A84423312R_Latest">Data1!$N$537</definedName>
+    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$537</definedName>
+    <definedName name="A84423313T_Data">Data1!$T$11:$T$537</definedName>
+    <definedName name="A84423313T_Latest">Data1!$T$537</definedName>
+    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$537</definedName>
+    <definedName name="A84423314V_Data">Data1!$H$11:$H$537</definedName>
+    <definedName name="A84423314V_Latest">Data1!$H$537</definedName>
+    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$537</definedName>
+    <definedName name="A84423315W_Data">Data1!$E$11:$E$537</definedName>
+    <definedName name="A84423315W_Latest">Data1!$E$537</definedName>
+    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$537</definedName>
+    <definedName name="A84423419R_Data">Data1!$D$11:$D$537</definedName>
+    <definedName name="A84423419R_Latest">Data1!$D$537</definedName>
+    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$537</definedName>
+    <definedName name="A84423420X_Data">Data1!$M$11:$M$537</definedName>
+    <definedName name="A84423420X_Latest">Data1!$M$537</definedName>
+    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$537</definedName>
+    <definedName name="A84423421A_Data">Data1!$S$11:$S$537</definedName>
+    <definedName name="A84423421A_Latest">Data1!$S$537</definedName>
+    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$537</definedName>
+    <definedName name="A84423424J_Data">Data1!$P$11:$P$537</definedName>
+    <definedName name="A84423424J_Latest">Data1!$P$537</definedName>
+    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$537</definedName>
+    <definedName name="A84423425K_Data">Data1!$V$11:$V$537</definedName>
+    <definedName name="A84423425K_Latest">Data1!$V$537</definedName>
+    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$537</definedName>
+    <definedName name="A84423426L_Data">Data1!$J$11:$J$537</definedName>
+    <definedName name="A84423426L_Latest">Data1!$J$537</definedName>
+    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$537</definedName>
+    <definedName name="A84423427R_Data">Data1!$G$11:$G$537</definedName>
+    <definedName name="A84423427R_Latest">Data1!$G$537</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$537</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$537</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,12 +113,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -331,13 +337,13 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0;@"/>
@@ -477,9 +483,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -498,6 +501,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,6 +514,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -530,7 +539,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -579,7 +594,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -654,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,9 +708,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,6 +760,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -969,57 +1024,57 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1030,19 +1085,19 @@
       <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="10">
         <v>28522</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H12" s="11">
-        <v>526</v>
-      </c>
-      <c r="I12" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="11" t="s">
@@ -1062,19 +1117,19 @@
       <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10">
         <v>28522</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H13" s="11">
-        <v>526</v>
-      </c>
-      <c r="I13" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="11" t="s">
@@ -1094,19 +1149,19 @@
       <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="10">
         <v>28522</v>
       </c>
       <c r="G14" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H14" s="11">
-        <v>526</v>
-      </c>
-      <c r="I14" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -1126,19 +1181,19 @@
       <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="10">
         <v>28522</v>
       </c>
       <c r="G15" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H15" s="11">
-        <v>526</v>
-      </c>
-      <c r="I15" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I15" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -1158,19 +1213,19 @@
       <c r="D16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="10">
         <v>28522</v>
       </c>
       <c r="G16" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H16" s="11">
-        <v>526</v>
-      </c>
-      <c r="I16" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -1190,19 +1245,19 @@
       <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="10">
         <v>28522</v>
       </c>
       <c r="G17" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H17" s="11">
-        <v>526</v>
-      </c>
-      <c r="I17" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -1222,17 +1277,17 @@
       <c r="D18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="10">
         <v>28522</v>
       </c>
       <c r="G18" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H18" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>40</v>
@@ -1254,17 +1309,17 @@
       <c r="D19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="10">
         <v>28522</v>
       </c>
       <c r="G19" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H19" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>40</v>
@@ -1286,17 +1341,17 @@
       <c r="D20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="10">
         <v>28522</v>
       </c>
       <c r="G20" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H20" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>40</v>
@@ -1318,19 +1373,19 @@
       <c r="D21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="10">
         <v>28522</v>
       </c>
       <c r="G21" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H21" s="11">
-        <v>526</v>
-      </c>
-      <c r="I21" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="11" t="s">
@@ -1350,19 +1405,19 @@
       <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="10">
         <v>28522</v>
       </c>
       <c r="G22" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H22" s="11">
-        <v>526</v>
-      </c>
-      <c r="I22" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I22" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="11" t="s">
@@ -1382,19 +1437,19 @@
       <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="10">
         <v>28522</v>
       </c>
       <c r="G23" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H23" s="11">
-        <v>526</v>
-      </c>
-      <c r="I23" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="11" t="s">
@@ -1414,17 +1469,17 @@
       <c r="D24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="10">
         <v>28522</v>
       </c>
       <c r="G24" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H24" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -1446,17 +1501,17 @@
       <c r="D25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="10">
         <v>28522</v>
       </c>
       <c r="G25" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H25" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -1478,17 +1533,17 @@
       <c r="D26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="10">
         <v>28522</v>
       </c>
       <c r="G26" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H26" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -1510,19 +1565,19 @@
       <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="10">
         <v>28522</v>
       </c>
       <c r="G27" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H27" s="11">
-        <v>526</v>
-      </c>
-      <c r="I27" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I27" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J27" s="11" t="s">
@@ -1542,19 +1597,19 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="10">
         <v>28522</v>
       </c>
       <c r="G28" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H28" s="11">
-        <v>526</v>
-      </c>
-      <c r="I28" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I28" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="11" t="s">
@@ -1574,19 +1629,19 @@
       <c r="D29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="10">
         <v>28522</v>
       </c>
       <c r="G29" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H29" s="11">
-        <v>526</v>
-      </c>
-      <c r="I29" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I29" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="11" t="s">
@@ -1606,17 +1661,17 @@
       <c r="D30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="10">
         <v>28522</v>
       </c>
       <c r="G30" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H30" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -1638,17 +1693,17 @@
       <c r="D31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="10">
         <v>28522</v>
       </c>
       <c r="G31" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H31" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -1670,17 +1725,17 @@
       <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="10">
         <v>28522</v>
       </c>
       <c r="G32" s="10">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H32" s="11">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -1705,28 +1760,28 @@
     <mergeCell ref="B6:L6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries"/>
-    <hyperlink ref="E12" location="A84423307W" display="A84423307W"/>
-    <hyperlink ref="E13" location="A84423195R" display="A84423195R"/>
-    <hyperlink ref="E14" location="A84423419R" display="A84423419R"/>
-    <hyperlink ref="E15" location="A84423315W" display="A84423315W"/>
-    <hyperlink ref="E16" location="A84423203C" display="A84423203C"/>
-    <hyperlink ref="E17" location="A84423427R" display="A84423427R"/>
-    <hyperlink ref="E18" location="A84423314V" display="A84423314V"/>
-    <hyperlink ref="E19" location="A84423202A" display="A84423202A"/>
-    <hyperlink ref="E20" location="A84423426L" display="A84423426L"/>
-    <hyperlink ref="E21" location="A84423308X" display="A84423308X"/>
-    <hyperlink ref="E22" location="A84423196T" display="A84423196T"/>
-    <hyperlink ref="E23" location="A84423420X" display="A84423420X"/>
-    <hyperlink ref="E24" location="A84423312R" display="A84423312R"/>
-    <hyperlink ref="E25" location="A84423200W" display="A84423200W"/>
-    <hyperlink ref="E26" location="A84423424J" display="A84423424J"/>
-    <hyperlink ref="E27" location="A84423309A" display="A84423309A"/>
-    <hyperlink ref="E28" location="A84423197V" display="A84423197V"/>
-    <hyperlink ref="E29" location="A84423421A" display="A84423421A"/>
-    <hyperlink ref="E30" location="A84423313T" display="A84423313T"/>
-    <hyperlink ref="E31" location="A84423201X" display="A84423201X"/>
-    <hyperlink ref="E32" location="A84423425K" display="A84423425K"/>
+    <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E12" location="A84423307W" display="A84423307W" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E13" location="A84423195R" display="A84423195R" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E14" location="A84423419R" display="A84423419R" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E15" location="A84423315W" display="A84423315W" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E16" location="A84423203C" display="A84423203C" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E17" location="A84423427R" display="A84423427R" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E18" location="A84423314V" display="A84423314V" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E19" location="A84423202A" display="A84423202A" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E20" location="A84423426L" display="A84423426L" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E21" location="A84423308X" display="A84423308X" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E22" location="A84423196T" display="A84423196T" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E23" location="A84423420X" display="A84423420X" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E24" location="A84423312R" display="A84423312R" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E25" location="A84423200W" display="A84423200W" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E26" location="A84423424J" display="A84423424J" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E27" location="A84423309A" display="A84423309A" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E28" location="A84423197V" display="A84423197V" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E29" location="A84423421A" display="A84423421A" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E30" location="A84423313T" display="A84423313T" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E31" location="A84423201X" display="A84423201X" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E32" location="A84423425K" display="A84423425K" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1735,8 +1790,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2228,67 +2283,67 @@
         <v>27</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="P8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="Q8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="R8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="S8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="T8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="U8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="V8" s="6">
-        <v>44501</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2296,67 +2351,67 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="R9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="S9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="T9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="U9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="V9" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -38193,6 +38248,74 @@
       </c>
       <c r="V536" s="9">
         <v>65.228308299999995</v>
+      </c>
+    </row>
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A537" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B537" s="9">
+        <v>227.14990779999999</v>
+      </c>
+      <c r="C537" s="9">
+        <v>116.75172139999999</v>
+      </c>
+      <c r="D537" s="9">
+        <v>110.39818630000001</v>
+      </c>
+      <c r="E537" s="9">
+        <v>169.426761</v>
+      </c>
+      <c r="F537" s="9">
+        <v>93.996330499999999</v>
+      </c>
+      <c r="G537" s="9">
+        <v>75.430430400000006</v>
+      </c>
+      <c r="H537" s="9">
+        <v>66.086509699999993</v>
+      </c>
+      <c r="I537" s="9">
+        <v>70.344651400000004</v>
+      </c>
+      <c r="J537" s="9">
+        <v>62.110431400000003</v>
+      </c>
+      <c r="K537" s="9">
+        <v>10.677144800000001</v>
+      </c>
+      <c r="L537" s="9">
+        <v>5.1715619999999998</v>
+      </c>
+      <c r="M537" s="9">
+        <v>5.5055828</v>
+      </c>
+      <c r="N537" s="9">
+        <v>4.4894575999999997</v>
+      </c>
+      <c r="O537" s="9">
+        <v>4.2416524999999998</v>
+      </c>
+      <c r="P537" s="9">
+        <v>4.7501327</v>
+      </c>
+      <c r="Q537" s="9">
+        <v>237.82705250000001</v>
+      </c>
+      <c r="R537" s="9">
+        <v>121.9232835</v>
+      </c>
+      <c r="S537" s="9">
+        <v>115.90376910000001</v>
+      </c>
+      <c r="T537" s="9">
+        <v>69.192895500000006</v>
+      </c>
+      <c r="U537" s="9">
+        <v>73.460594599999993</v>
+      </c>
+      <c r="V537" s="9">
+        <v>65.207892799999996</v>
       </c>
     </row>
   </sheetData>
@@ -38202,7 +38325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -38276,22 +38399,22 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="10" spans="2:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>60</v>
       </c>
     </row>

--- a/data-raw/abs/6202.0/6202011a.xlsx
+++ b/data-raw/abs/6202.0/6202011a.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\LFS\HSF\M2112\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA899E1-AE6F-4FDB-A69B-843C8B229D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="3585" windowWidth="28155" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14355" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -18,83 +12,83 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$537</definedName>
-    <definedName name="A84423195R_Data">Data1!$C$11:$C$537</definedName>
-    <definedName name="A84423195R_Latest">Data1!$C$537</definedName>
-    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$537</definedName>
-    <definedName name="A84423196T_Data">Data1!$L$11:$L$537</definedName>
-    <definedName name="A84423196T_Latest">Data1!$L$537</definedName>
-    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$537</definedName>
-    <definedName name="A84423197V_Data">Data1!$R$11:$R$537</definedName>
-    <definedName name="A84423197V_Latest">Data1!$R$537</definedName>
-    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$537</definedName>
-    <definedName name="A84423200W_Data">Data1!$O$11:$O$537</definedName>
-    <definedName name="A84423200W_Latest">Data1!$O$537</definedName>
-    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$537</definedName>
-    <definedName name="A84423201X_Data">Data1!$U$11:$U$537</definedName>
-    <definedName name="A84423201X_Latest">Data1!$U$537</definedName>
-    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$537</definedName>
-    <definedName name="A84423202A_Data">Data1!$I$11:$I$537</definedName>
-    <definedName name="A84423202A_Latest">Data1!$I$537</definedName>
-    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$537</definedName>
-    <definedName name="A84423203C_Data">Data1!$F$11:$F$537</definedName>
-    <definedName name="A84423203C_Latest">Data1!$F$537</definedName>
-    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$537</definedName>
-    <definedName name="A84423307W_Data">Data1!$B$11:$B$537</definedName>
-    <definedName name="A84423307W_Latest">Data1!$B$537</definedName>
-    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$537</definedName>
-    <definedName name="A84423308X_Data">Data1!$K$11:$K$537</definedName>
-    <definedName name="A84423308X_Latest">Data1!$K$537</definedName>
-    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$537</definedName>
-    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$537</definedName>
-    <definedName name="A84423309A_Latest">Data1!$Q$537</definedName>
-    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$537</definedName>
-    <definedName name="A84423312R_Data">Data1!$N$11:$N$537</definedName>
-    <definedName name="A84423312R_Latest">Data1!$N$537</definedName>
-    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$537</definedName>
-    <definedName name="A84423313T_Data">Data1!$T$11:$T$537</definedName>
-    <definedName name="A84423313T_Latest">Data1!$T$537</definedName>
-    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$537</definedName>
-    <definedName name="A84423314V_Data">Data1!$H$11:$H$537</definedName>
-    <definedName name="A84423314V_Latest">Data1!$H$537</definedName>
-    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$537</definedName>
-    <definedName name="A84423315W_Data">Data1!$E$11:$E$537</definedName>
-    <definedName name="A84423315W_Latest">Data1!$E$537</definedName>
-    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$537</definedName>
-    <definedName name="A84423419R_Data">Data1!$D$11:$D$537</definedName>
-    <definedName name="A84423419R_Latest">Data1!$D$537</definedName>
-    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$537</definedName>
-    <definedName name="A84423420X_Data">Data1!$M$11:$M$537</definedName>
-    <definedName name="A84423420X_Latest">Data1!$M$537</definedName>
-    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$537</definedName>
-    <definedName name="A84423421A_Data">Data1!$S$11:$S$537</definedName>
-    <definedName name="A84423421A_Latest">Data1!$S$537</definedName>
-    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$537</definedName>
-    <definedName name="A84423424J_Data">Data1!$P$11:$P$537</definedName>
-    <definedName name="A84423424J_Latest">Data1!$P$537</definedName>
-    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$537</definedName>
-    <definedName name="A84423425K_Data">Data1!$V$11:$V$537</definedName>
-    <definedName name="A84423425K_Latest">Data1!$V$537</definedName>
-    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$537</definedName>
-    <definedName name="A84423426L_Data">Data1!$J$11:$J$537</definedName>
-    <definedName name="A84423426L_Latest">Data1!$J$537</definedName>
-    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$537</definedName>
-    <definedName name="A84423427R_Data">Data1!$G$11:$G$537</definedName>
-    <definedName name="A84423427R_Latest">Data1!$G$537</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$537</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$537</definedName>
+    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$538</definedName>
+    <definedName name="A84423195R_Data">Data1!$C$11:$C$538</definedName>
+    <definedName name="A84423195R_Latest">Data1!$C$538</definedName>
+    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$538</definedName>
+    <definedName name="A84423196T_Data">Data1!$L$11:$L$538</definedName>
+    <definedName name="A84423196T_Latest">Data1!$L$538</definedName>
+    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$538</definedName>
+    <definedName name="A84423197V_Data">Data1!$R$11:$R$538</definedName>
+    <definedName name="A84423197V_Latest">Data1!$R$538</definedName>
+    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$538</definedName>
+    <definedName name="A84423200W_Data">Data1!$O$11:$O$538</definedName>
+    <definedName name="A84423200W_Latest">Data1!$O$538</definedName>
+    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$538</definedName>
+    <definedName name="A84423201X_Data">Data1!$U$11:$U$538</definedName>
+    <definedName name="A84423201X_Latest">Data1!$U$538</definedName>
+    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$538</definedName>
+    <definedName name="A84423202A_Data">Data1!$I$11:$I$538</definedName>
+    <definedName name="A84423202A_Latest">Data1!$I$538</definedName>
+    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$538</definedName>
+    <definedName name="A84423203C_Data">Data1!$F$11:$F$538</definedName>
+    <definedName name="A84423203C_Latest">Data1!$F$538</definedName>
+    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$538</definedName>
+    <definedName name="A84423307W_Data">Data1!$B$11:$B$538</definedName>
+    <definedName name="A84423307W_Latest">Data1!$B$538</definedName>
+    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$538</definedName>
+    <definedName name="A84423308X_Data">Data1!$K$11:$K$538</definedName>
+    <definedName name="A84423308X_Latest">Data1!$K$538</definedName>
+    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$538</definedName>
+    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$538</definedName>
+    <definedName name="A84423309A_Latest">Data1!$Q$538</definedName>
+    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$538</definedName>
+    <definedName name="A84423312R_Data">Data1!$N$11:$N$538</definedName>
+    <definedName name="A84423312R_Latest">Data1!$N$538</definedName>
+    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$538</definedName>
+    <definedName name="A84423313T_Data">Data1!$T$11:$T$538</definedName>
+    <definedName name="A84423313T_Latest">Data1!$T$538</definedName>
+    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$538</definedName>
+    <definedName name="A84423314V_Data">Data1!$H$11:$H$538</definedName>
+    <definedName name="A84423314V_Latest">Data1!$H$538</definedName>
+    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$538</definedName>
+    <definedName name="A84423315W_Data">Data1!$E$11:$E$538</definedName>
+    <definedName name="A84423315W_Latest">Data1!$E$538</definedName>
+    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$538</definedName>
+    <definedName name="A84423419R_Data">Data1!$D$11:$D$538</definedName>
+    <definedName name="A84423419R_Latest">Data1!$D$538</definedName>
+    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$538</definedName>
+    <definedName name="A84423420X_Data">Data1!$M$11:$M$538</definedName>
+    <definedName name="A84423420X_Latest">Data1!$M$538</definedName>
+    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$538</definedName>
+    <definedName name="A84423421A_Data">Data1!$S$11:$S$538</definedName>
+    <definedName name="A84423421A_Latest">Data1!$S$538</definedName>
+    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$538</definedName>
+    <definedName name="A84423424J_Data">Data1!$P$11:$P$538</definedName>
+    <definedName name="A84423424J_Latest">Data1!$P$538</definedName>
+    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$538</definedName>
+    <definedName name="A84423425K_Data">Data1!$V$11:$V$538</definedName>
+    <definedName name="A84423425K_Latest">Data1!$V$538</definedName>
+    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$538</definedName>
+    <definedName name="A84423426L_Data">Data1!$J$11:$J$538</definedName>
+    <definedName name="A84423426L_Latest">Data1!$J$538</definedName>
+    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$538</definedName>
+    <definedName name="A84423427R_Data">Data1!$G$11:$G$538</definedName>
+    <definedName name="A84423427R_Latest">Data1!$G$538</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$538</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$538</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="L10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,12 +107,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +337,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0;@"/>
@@ -483,6 +477,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -501,9 +498,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,9 +508,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -539,13 +530,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -594,13 +579,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -675,7 +654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,26 +687,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,23 +722,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -952,7 +897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1024,57 +969,57 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1085,19 +1030,19 @@
       <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="10">
         <v>28522</v>
       </c>
       <c r="G12" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>527</v>
-      </c>
-      <c r="I12" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="11" t="s">
@@ -1117,19 +1062,19 @@
       <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10">
         <v>28522</v>
       </c>
       <c r="G13" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>527</v>
-      </c>
-      <c r="I13" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="11" t="s">
@@ -1149,19 +1094,19 @@
       <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="10">
         <v>28522</v>
       </c>
       <c r="G14" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="11">
-        <v>527</v>
-      </c>
-      <c r="I14" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -1181,19 +1126,19 @@
       <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="10">
         <v>28522</v>
       </c>
       <c r="G15" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="11">
-        <v>527</v>
-      </c>
-      <c r="I15" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -1213,19 +1158,19 @@
       <c r="D16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="10">
         <v>28522</v>
       </c>
       <c r="G16" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="11">
-        <v>527</v>
-      </c>
-      <c r="I16" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -1245,19 +1190,19 @@
       <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="10">
         <v>28522</v>
       </c>
       <c r="G17" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="11">
-        <v>527</v>
-      </c>
-      <c r="I17" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -1277,17 +1222,17 @@
       <c r="D18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="20" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="10">
         <v>28522</v>
       </c>
       <c r="G18" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>40</v>
@@ -1309,17 +1254,17 @@
       <c r="D19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="20" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="10">
         <v>28522</v>
       </c>
       <c r="G19" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>40</v>
@@ -1341,17 +1286,17 @@
       <c r="D20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="10">
         <v>28522</v>
       </c>
       <c r="G20" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>40</v>
@@ -1373,19 +1318,19 @@
       <c r="D21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="10">
         <v>28522</v>
       </c>
       <c r="G21" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="11">
-        <v>527</v>
-      </c>
-      <c r="I21" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="11" t="s">
@@ -1405,19 +1350,19 @@
       <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="10">
         <v>28522</v>
       </c>
       <c r="G22" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="11">
-        <v>527</v>
-      </c>
-      <c r="I22" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="11" t="s">
@@ -1437,19 +1382,19 @@
       <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="10">
         <v>28522</v>
       </c>
       <c r="G23" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="11">
-        <v>527</v>
-      </c>
-      <c r="I23" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="11" t="s">
@@ -1469,17 +1414,17 @@
       <c r="D24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="10">
         <v>28522</v>
       </c>
       <c r="G24" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -1501,17 +1446,17 @@
       <c r="D25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="10">
         <v>28522</v>
       </c>
       <c r="G25" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -1533,17 +1478,17 @@
       <c r="D26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="20" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="10">
         <v>28522</v>
       </c>
       <c r="G26" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H26" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -1565,19 +1510,19 @@
       <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="10">
         <v>28522</v>
       </c>
       <c r="G27" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H27" s="11">
-        <v>527</v>
-      </c>
-      <c r="I27" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J27" s="11" t="s">
@@ -1597,19 +1542,19 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="10">
         <v>28522</v>
       </c>
       <c r="G28" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H28" s="11">
-        <v>527</v>
-      </c>
-      <c r="I28" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="11" t="s">
@@ -1629,19 +1574,19 @@
       <c r="D29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="20" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="10">
         <v>28522</v>
       </c>
       <c r="G29" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H29" s="11">
-        <v>527</v>
-      </c>
-      <c r="I29" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="11" t="s">
@@ -1661,17 +1606,17 @@
       <c r="D30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="10">
         <v>28522</v>
       </c>
       <c r="G30" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H30" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -1693,17 +1638,17 @@
       <c r="D31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="10">
         <v>28522</v>
       </c>
       <c r="G31" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H31" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -1725,17 +1670,17 @@
       <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="10">
         <v>28522</v>
       </c>
       <c r="G32" s="10">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H32" s="11">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -1760,28 +1705,28 @@
     <mergeCell ref="B6:L6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E12" location="A84423307W" display="A84423307W" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E13" location="A84423195R" display="A84423195R" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E14" location="A84423419R" display="A84423419R" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E15" location="A84423315W" display="A84423315W" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E16" location="A84423203C" display="A84423203C" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E17" location="A84423427R" display="A84423427R" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E18" location="A84423314V" display="A84423314V" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E19" location="A84423202A" display="A84423202A" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E20" location="A84423426L" display="A84423426L" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E21" location="A84423308X" display="A84423308X" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E22" location="A84423196T" display="A84423196T" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E23" location="A84423420X" display="A84423420X" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E24" location="A84423312R" display="A84423312R" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E25" location="A84423200W" display="A84423200W" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E26" location="A84423424J" display="A84423424J" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E27" location="A84423309A" display="A84423309A" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E28" location="A84423197V" display="A84423197V" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E29" location="A84423421A" display="A84423421A" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E30" location="A84423313T" display="A84423313T" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E31" location="A84423201X" display="A84423201X" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E32" location="A84423425K" display="A84423425K" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries"/>
+    <hyperlink ref="E12" location="A84423307W" display="A84423307W"/>
+    <hyperlink ref="E13" location="A84423195R" display="A84423195R"/>
+    <hyperlink ref="E14" location="A84423419R" display="A84423419R"/>
+    <hyperlink ref="E15" location="A84423315W" display="A84423315W"/>
+    <hyperlink ref="E16" location="A84423203C" display="A84423203C"/>
+    <hyperlink ref="E17" location="A84423427R" display="A84423427R"/>
+    <hyperlink ref="E18" location="A84423314V" display="A84423314V"/>
+    <hyperlink ref="E19" location="A84423202A" display="A84423202A"/>
+    <hyperlink ref="E20" location="A84423426L" display="A84423426L"/>
+    <hyperlink ref="E21" location="A84423308X" display="A84423308X"/>
+    <hyperlink ref="E22" location="A84423196T" display="A84423196T"/>
+    <hyperlink ref="E23" location="A84423420X" display="A84423420X"/>
+    <hyperlink ref="E24" location="A84423312R" display="A84423312R"/>
+    <hyperlink ref="E25" location="A84423200W" display="A84423200W"/>
+    <hyperlink ref="E26" location="A84423424J" display="A84423424J"/>
+    <hyperlink ref="E27" location="A84423309A" display="A84423309A"/>
+    <hyperlink ref="E28" location="A84423197V" display="A84423197V"/>
+    <hyperlink ref="E29" location="A84423421A" display="A84423421A"/>
+    <hyperlink ref="E30" location="A84423313T" display="A84423313T"/>
+    <hyperlink ref="E31" location="A84423201X" display="A84423201X"/>
+    <hyperlink ref="E32" location="A84423425K" display="A84423425K"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1790,8 +1735,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V537"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2283,67 +2228,67 @@
         <v>27</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2351,67 +2296,67 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="R9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="S9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="U9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V9" s="1">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -38316,6 +38261,74 @@
       </c>
       <c r="V537" s="9">
         <v>65.207892799999996</v>
+      </c>
+    </row>
+    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A538" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B538" s="9">
+        <v>231.88414030000001</v>
+      </c>
+      <c r="C538" s="9">
+        <v>117.0578828</v>
+      </c>
+      <c r="D538" s="9">
+        <v>114.8262575</v>
+      </c>
+      <c r="E538" s="9">
+        <v>169.5514561</v>
+      </c>
+      <c r="F538" s="9">
+        <v>94.5767168</v>
+      </c>
+      <c r="G538" s="9">
+        <v>74.974739299999996</v>
+      </c>
+      <c r="H538" s="9">
+        <v>67.472514599999997</v>
+      </c>
+      <c r="I538" s="9">
+        <v>70.529968100000005</v>
+      </c>
+      <c r="J538" s="9">
+        <v>64.616949399999996</v>
+      </c>
+      <c r="K538" s="9">
+        <v>7.6091002999999997</v>
+      </c>
+      <c r="L538" s="9">
+        <v>3.9580557999999999</v>
+      </c>
+      <c r="M538" s="9">
+        <v>3.6510444999999998</v>
+      </c>
+      <c r="N538" s="9">
+        <v>3.1771669999999999</v>
+      </c>
+      <c r="O538" s="9">
+        <v>3.2706897000000001</v>
+      </c>
+      <c r="P538" s="9">
+        <v>3.0816404999999998</v>
+      </c>
+      <c r="Q538" s="9">
+        <v>239.49324060000001</v>
+      </c>
+      <c r="R538" s="9">
+        <v>121.0159386</v>
+      </c>
+      <c r="S538" s="9">
+        <v>118.4773021</v>
+      </c>
+      <c r="T538" s="9">
+        <v>69.6865734</v>
+      </c>
+      <c r="U538" s="9">
+        <v>72.914784400000002</v>
+      </c>
+      <c r="V538" s="9">
+        <v>66.671526099999994</v>
       </c>
     </row>
   </sheetData>
@@ -38325,7 +38338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -38399,22 +38412,22 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="10" spans="2:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="16" t="s">
         <v>60</v>
       </c>
     </row>

--- a/data-raw/abs/6202.0/6202011a.xlsx
+++ b/data-raw/abs/6202.0/6202011a.xlsx
@@ -12,71 +12,71 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$538</definedName>
-    <definedName name="A84423195R_Data">Data1!$C$11:$C$538</definedName>
-    <definedName name="A84423195R_Latest">Data1!$C$538</definedName>
-    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$538</definedName>
-    <definedName name="A84423196T_Data">Data1!$L$11:$L$538</definedName>
-    <definedName name="A84423196T_Latest">Data1!$L$538</definedName>
-    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$538</definedName>
-    <definedName name="A84423197V_Data">Data1!$R$11:$R$538</definedName>
-    <definedName name="A84423197V_Latest">Data1!$R$538</definedName>
-    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$538</definedName>
-    <definedName name="A84423200W_Data">Data1!$O$11:$O$538</definedName>
-    <definedName name="A84423200W_Latest">Data1!$O$538</definedName>
-    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$538</definedName>
-    <definedName name="A84423201X_Data">Data1!$U$11:$U$538</definedName>
-    <definedName name="A84423201X_Latest">Data1!$U$538</definedName>
-    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$538</definedName>
-    <definedName name="A84423202A_Data">Data1!$I$11:$I$538</definedName>
-    <definedName name="A84423202A_Latest">Data1!$I$538</definedName>
-    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$538</definedName>
-    <definedName name="A84423203C_Data">Data1!$F$11:$F$538</definedName>
-    <definedName name="A84423203C_Latest">Data1!$F$538</definedName>
-    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$538</definedName>
-    <definedName name="A84423307W_Data">Data1!$B$11:$B$538</definedName>
-    <definedName name="A84423307W_Latest">Data1!$B$538</definedName>
-    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$538</definedName>
-    <definedName name="A84423308X_Data">Data1!$K$11:$K$538</definedName>
-    <definedName name="A84423308X_Latest">Data1!$K$538</definedName>
-    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$538</definedName>
-    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$538</definedName>
-    <definedName name="A84423309A_Latest">Data1!$Q$538</definedName>
-    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$538</definedName>
-    <definedName name="A84423312R_Data">Data1!$N$11:$N$538</definedName>
-    <definedName name="A84423312R_Latest">Data1!$N$538</definedName>
-    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$538</definedName>
-    <definedName name="A84423313T_Data">Data1!$T$11:$T$538</definedName>
-    <definedName name="A84423313T_Latest">Data1!$T$538</definedName>
-    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$538</definedName>
-    <definedName name="A84423314V_Data">Data1!$H$11:$H$538</definedName>
-    <definedName name="A84423314V_Latest">Data1!$H$538</definedName>
-    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$538</definedName>
-    <definedName name="A84423315W_Data">Data1!$E$11:$E$538</definedName>
-    <definedName name="A84423315W_Latest">Data1!$E$538</definedName>
-    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$538</definedName>
-    <definedName name="A84423419R_Data">Data1!$D$11:$D$538</definedName>
-    <definedName name="A84423419R_Latest">Data1!$D$538</definedName>
-    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$538</definedName>
-    <definedName name="A84423420X_Data">Data1!$M$11:$M$538</definedName>
-    <definedName name="A84423420X_Latest">Data1!$M$538</definedName>
-    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$538</definedName>
-    <definedName name="A84423421A_Data">Data1!$S$11:$S$538</definedName>
-    <definedName name="A84423421A_Latest">Data1!$S$538</definedName>
-    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$538</definedName>
-    <definedName name="A84423424J_Data">Data1!$P$11:$P$538</definedName>
-    <definedName name="A84423424J_Latest">Data1!$P$538</definedName>
-    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$538</definedName>
-    <definedName name="A84423425K_Data">Data1!$V$11:$V$538</definedName>
-    <definedName name="A84423425K_Latest">Data1!$V$538</definedName>
-    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$538</definedName>
-    <definedName name="A84423426L_Data">Data1!$J$11:$J$538</definedName>
-    <definedName name="A84423426L_Latest">Data1!$J$538</definedName>
-    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$538</definedName>
-    <definedName name="A84423427R_Data">Data1!$G$11:$G$538</definedName>
-    <definedName name="A84423427R_Latest">Data1!$G$538</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$538</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$538</definedName>
+    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$539</definedName>
+    <definedName name="A84423195R_Data">Data1!$C$11:$C$539</definedName>
+    <definedName name="A84423195R_Latest">Data1!$C$539</definedName>
+    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$539</definedName>
+    <definedName name="A84423196T_Data">Data1!$L$11:$L$539</definedName>
+    <definedName name="A84423196T_Latest">Data1!$L$539</definedName>
+    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$539</definedName>
+    <definedName name="A84423197V_Data">Data1!$R$11:$R$539</definedName>
+    <definedName name="A84423197V_Latest">Data1!$R$539</definedName>
+    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$539</definedName>
+    <definedName name="A84423200W_Data">Data1!$O$11:$O$539</definedName>
+    <definedName name="A84423200W_Latest">Data1!$O$539</definedName>
+    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$539</definedName>
+    <definedName name="A84423201X_Data">Data1!$U$11:$U$539</definedName>
+    <definedName name="A84423201X_Latest">Data1!$U$539</definedName>
+    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$539</definedName>
+    <definedName name="A84423202A_Data">Data1!$I$11:$I$539</definedName>
+    <definedName name="A84423202A_Latest">Data1!$I$539</definedName>
+    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$539</definedName>
+    <definedName name="A84423203C_Data">Data1!$F$11:$F$539</definedName>
+    <definedName name="A84423203C_Latest">Data1!$F$539</definedName>
+    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$539</definedName>
+    <definedName name="A84423307W_Data">Data1!$B$11:$B$539</definedName>
+    <definedName name="A84423307W_Latest">Data1!$B$539</definedName>
+    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$539</definedName>
+    <definedName name="A84423308X_Data">Data1!$K$11:$K$539</definedName>
+    <definedName name="A84423308X_Latest">Data1!$K$539</definedName>
+    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$539</definedName>
+    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$539</definedName>
+    <definedName name="A84423309A_Latest">Data1!$Q$539</definedName>
+    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$539</definedName>
+    <definedName name="A84423312R_Data">Data1!$N$11:$N$539</definedName>
+    <definedName name="A84423312R_Latest">Data1!$N$539</definedName>
+    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$539</definedName>
+    <definedName name="A84423313T_Data">Data1!$T$11:$T$539</definedName>
+    <definedName name="A84423313T_Latest">Data1!$T$539</definedName>
+    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$539</definedName>
+    <definedName name="A84423314V_Data">Data1!$H$11:$H$539</definedName>
+    <definedName name="A84423314V_Latest">Data1!$H$539</definedName>
+    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$539</definedName>
+    <definedName name="A84423315W_Data">Data1!$E$11:$E$539</definedName>
+    <definedName name="A84423315W_Latest">Data1!$E$539</definedName>
+    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$539</definedName>
+    <definedName name="A84423419R_Data">Data1!$D$11:$D$539</definedName>
+    <definedName name="A84423419R_Latest">Data1!$D$539</definedName>
+    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$539</definedName>
+    <definedName name="A84423420X_Data">Data1!$M$11:$M$539</definedName>
+    <definedName name="A84423420X_Latest">Data1!$M$539</definedName>
+    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$539</definedName>
+    <definedName name="A84423421A_Data">Data1!$S$11:$S$539</definedName>
+    <definedName name="A84423421A_Latest">Data1!$S$539</definedName>
+    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$539</definedName>
+    <definedName name="A84423424J_Data">Data1!$P$11:$P$539</definedName>
+    <definedName name="A84423424J_Latest">Data1!$P$539</definedName>
+    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$539</definedName>
+    <definedName name="A84423425K_Data">Data1!$V$11:$V$539</definedName>
+    <definedName name="A84423425K_Latest">Data1!$V$539</definedName>
+    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$539</definedName>
+    <definedName name="A84423426L_Data">Data1!$J$11:$J$539</definedName>
+    <definedName name="A84423426L_Latest">Data1!$J$539</definedName>
+    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$539</definedName>
+    <definedName name="A84423427R_Data">Data1!$G$11:$G$539</definedName>
+    <definedName name="A84423427R_Latest">Data1!$G$539</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$539</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$539</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1037,10 +1037,10 @@
         <v>28522</v>
       </c>
       <c r="G12" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H12" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>30</v>
@@ -1069,10 +1069,10 @@
         <v>28522</v>
       </c>
       <c r="G13" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H13" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>30</v>
@@ -1101,10 +1101,10 @@
         <v>28522</v>
       </c>
       <c r="G14" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H14" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>30</v>
@@ -1133,10 +1133,10 @@
         <v>28522</v>
       </c>
       <c r="G15" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H15" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>30</v>
@@ -1165,10 +1165,10 @@
         <v>28522</v>
       </c>
       <c r="G16" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H16" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>30</v>
@@ -1197,10 +1197,10 @@
         <v>28522</v>
       </c>
       <c r="G17" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H17" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>30</v>
@@ -1229,10 +1229,10 @@
         <v>28522</v>
       </c>
       <c r="G18" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H18" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>40</v>
@@ -1261,10 +1261,10 @@
         <v>28522</v>
       </c>
       <c r="G19" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H19" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>40</v>
@@ -1293,10 +1293,10 @@
         <v>28522</v>
       </c>
       <c r="G20" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H20" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>40</v>
@@ -1325,10 +1325,10 @@
         <v>28522</v>
       </c>
       <c r="G21" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H21" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>30</v>
@@ -1357,10 +1357,10 @@
         <v>28522</v>
       </c>
       <c r="G22" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H22" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>30</v>
@@ -1389,10 +1389,10 @@
         <v>28522</v>
       </c>
       <c r="G23" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H23" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>30</v>
@@ -1421,10 +1421,10 @@
         <v>28522</v>
       </c>
       <c r="G24" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H24" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -1453,10 +1453,10 @@
         <v>28522</v>
       </c>
       <c r="G25" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H25" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -1485,10 +1485,10 @@
         <v>28522</v>
       </c>
       <c r="G26" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H26" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -1517,10 +1517,10 @@
         <v>28522</v>
       </c>
       <c r="G27" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H27" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>30</v>
@@ -1549,10 +1549,10 @@
         <v>28522</v>
       </c>
       <c r="G28" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H28" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>30</v>
@@ -1581,10 +1581,10 @@
         <v>28522</v>
       </c>
       <c r="G29" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H29" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>30</v>
@@ -1613,10 +1613,10 @@
         <v>28522</v>
       </c>
       <c r="G30" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H30" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -1645,10 +1645,10 @@
         <v>28522</v>
       </c>
       <c r="G31" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H31" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -1677,10 +1677,10 @@
         <v>28522</v>
       </c>
       <c r="G32" s="10">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H32" s="11">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -1736,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V538"/>
+  <dimension ref="A1:V539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2228,67 +2228,67 @@
         <v>27</v>
       </c>
       <c r="B8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="C8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="D8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="E8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="F8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="G8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="H8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="I8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="J8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="K8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="L8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="M8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="N8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="O8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="P8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="Q8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="R8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="S8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="T8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="U8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="V8" s="6">
-        <v>44562</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2296,67 +2296,67 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="R9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="T9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="U9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="V9" s="1">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -37044,67 +37044,67 @@
         <v>44013</v>
       </c>
       <c r="B520" s="9">
-        <v>234.3736533</v>
+        <v>234.37487429999999</v>
       </c>
       <c r="C520" s="9">
-        <v>118.441148</v>
+        <v>118.44099249999999</v>
       </c>
       <c r="D520" s="9">
-        <v>115.9325053</v>
+        <v>115.93388179999999</v>
       </c>
       <c r="E520" s="9">
-        <v>172.48674199999999</v>
+        <v>172.4890364</v>
       </c>
       <c r="F520" s="9">
-        <v>99.033318100000002</v>
+        <v>99.033463499999996</v>
       </c>
       <c r="G520" s="9">
-        <v>73.453423900000004</v>
+        <v>73.455572900000007</v>
       </c>
       <c r="H520" s="9">
-        <v>68.307609200000002</v>
+        <v>68.307766000000001</v>
       </c>
       <c r="I520" s="9">
-        <v>71.343212699999995</v>
+        <v>71.343548799999994</v>
       </c>
       <c r="J520" s="9">
-        <v>65.461976300000003</v>
+        <v>65.462014199999999</v>
       </c>
       <c r="K520" s="9">
-        <v>11.2914859</v>
+        <v>11.2910571</v>
       </c>
       <c r="L520" s="9">
-        <v>6.7432980999999996</v>
+        <v>6.7432676999999996</v>
       </c>
       <c r="M520" s="9">
-        <v>4.5481878</v>
+        <v>4.5477894000000001</v>
       </c>
       <c r="N520" s="9">
-        <v>4.5962915000000004</v>
+        <v>4.5961021000000004</v>
       </c>
       <c r="O520" s="9">
-        <v>5.3866901</v>
+        <v>5.3866737999999996</v>
       </c>
       <c r="P520" s="9">
-        <v>3.7750346000000001</v>
+        <v>3.7746732999999999</v>
       </c>
       <c r="Q520" s="9">
-        <v>245.66513929999999</v>
+        <v>245.6659315</v>
       </c>
       <c r="R520" s="9">
-        <v>125.1844461</v>
+        <v>125.1842602</v>
       </c>
       <c r="S520" s="9">
-        <v>120.4806932</v>
+        <v>120.48167119999999</v>
       </c>
       <c r="T520" s="9">
-        <v>71.598484299999996</v>
+        <v>71.598506499999999</v>
       </c>
       <c r="U520" s="9">
-        <v>75.405049000000005</v>
+        <v>75.405391199999997</v>
       </c>
       <c r="V520" s="9">
-        <v>68.030137499999995</v>
+        <v>68.0299215</v>
       </c>
     </row>
     <row r="521" spans="1:22" x14ac:dyDescent="0.2">
@@ -37112,67 +37112,67 @@
         <v>44044</v>
       </c>
       <c r="B521" s="9">
-        <v>239.5295275</v>
+        <v>239.53749149999999</v>
       </c>
       <c r="C521" s="9">
-        <v>118.93501310000001</v>
+        <v>118.93864170000001</v>
       </c>
       <c r="D521" s="9">
-        <v>120.59451439999999</v>
+        <v>120.5988498</v>
       </c>
       <c r="E521" s="9">
-        <v>178.07140559999999</v>
+        <v>178.07974680000001</v>
       </c>
       <c r="F521" s="9">
-        <v>99.730479200000005</v>
+        <v>99.734978499999997</v>
       </c>
       <c r="G521" s="9">
-        <v>78.340926400000001</v>
+        <v>78.344768299999998</v>
       </c>
       <c r="H521" s="9">
-        <v>69.836328300000005</v>
+        <v>69.8382431</v>
       </c>
       <c r="I521" s="9">
-        <v>71.664003300000005</v>
+        <v>71.667053300000006</v>
       </c>
       <c r="J521" s="9">
-        <v>68.122872200000003</v>
+        <v>68.123781899999997</v>
       </c>
       <c r="K521" s="9">
-        <v>10.046187700000001</v>
+        <v>10.046477100000001</v>
       </c>
       <c r="L521" s="9">
-        <v>5.4668862000000003</v>
+        <v>5.4670836999999999</v>
       </c>
       <c r="M521" s="9">
-        <v>4.5793014000000003</v>
+        <v>4.5793933999999998</v>
       </c>
       <c r="N521" s="9">
-        <v>4.0253066000000004</v>
+        <v>4.0252894000000001</v>
       </c>
       <c r="O521" s="9">
-        <v>4.3945360000000004</v>
+        <v>4.3945596</v>
       </c>
       <c r="P521" s="9">
-        <v>3.6583540999999999</v>
+        <v>3.6582981999999999</v>
       </c>
       <c r="Q521" s="9">
-        <v>249.57571519999999</v>
+        <v>249.58396859999999</v>
       </c>
       <c r="R521" s="9">
-        <v>124.4018993</v>
+        <v>124.40572539999999</v>
       </c>
       <c r="S521" s="9">
-        <v>125.17381589999999</v>
+        <v>125.1782431</v>
       </c>
       <c r="T521" s="9">
-        <v>72.765356999999995</v>
+        <v>72.767339100000001</v>
       </c>
       <c r="U521" s="9">
-        <v>74.958062299999995</v>
+        <v>74.961270999999996</v>
       </c>
       <c r="V521" s="9">
-        <v>70.709682700000002</v>
+        <v>70.710585899999998</v>
       </c>
     </row>
     <row r="522" spans="1:22" x14ac:dyDescent="0.2">
@@ -37180,67 +37180,67 @@
         <v>44075</v>
       </c>
       <c r="B522" s="9">
-        <v>237.62266940000001</v>
+        <v>237.63184680000001</v>
       </c>
       <c r="C522" s="9">
-        <v>119.1819438</v>
+        <v>119.1864088</v>
       </c>
       <c r="D522" s="9">
-        <v>118.4407257</v>
+        <v>118.445438</v>
       </c>
       <c r="E522" s="9">
-        <v>169.75145689999999</v>
+        <v>169.7610689</v>
       </c>
       <c r="F522" s="9">
-        <v>96.465077600000001</v>
+        <v>96.470709499999998</v>
       </c>
       <c r="G522" s="9">
-        <v>73.286379299999993</v>
+        <v>73.2903594</v>
       </c>
       <c r="H522" s="9">
-        <v>69.305630100000002</v>
+        <v>69.307498199999998</v>
       </c>
       <c r="I522" s="9">
-        <v>71.836164499999995</v>
+        <v>71.839721699999998</v>
       </c>
       <c r="J522" s="9">
-        <v>66.933059299999996</v>
+        <v>66.933452799999998</v>
       </c>
       <c r="K522" s="9">
-        <v>9.6301264</v>
+        <v>9.6302097</v>
       </c>
       <c r="L522" s="9">
-        <v>5.1752453000000003</v>
+        <v>5.1751519999999998</v>
       </c>
       <c r="M522" s="9">
-        <v>4.4548810999999997</v>
+        <v>4.4550577999999996</v>
       </c>
       <c r="N522" s="9">
-        <v>3.8948502999999999</v>
+        <v>3.8947381999999999</v>
       </c>
       <c r="O522" s="9">
-        <v>4.1615972000000001</v>
+        <v>4.1613759000000003</v>
       </c>
       <c r="P522" s="9">
-        <v>3.6249311</v>
+        <v>3.6249307000000002</v>
       </c>
       <c r="Q522" s="9">
-        <v>247.2527958</v>
+        <v>247.2620565</v>
       </c>
       <c r="R522" s="9">
-        <v>124.3571891</v>
+        <v>124.36156080000001</v>
       </c>
       <c r="S522" s="9">
-        <v>122.8956068</v>
+        <v>122.9004958</v>
       </c>
       <c r="T522" s="9">
-        <v>72.114377200000007</v>
+        <v>72.116236799999996</v>
       </c>
       <c r="U522" s="9">
-        <v>74.955510899999993</v>
+        <v>74.9590496</v>
       </c>
       <c r="V522" s="9">
-        <v>69.450595500000006</v>
+        <v>69.451003499999999</v>
       </c>
     </row>
     <row r="523" spans="1:22" x14ac:dyDescent="0.2">
@@ -37248,67 +37248,67 @@
         <v>44105</v>
       </c>
       <c r="B523" s="9">
-        <v>246.1285417</v>
+        <v>246.08986150000001</v>
       </c>
       <c r="C523" s="9">
-        <v>122.8322872</v>
+        <v>122.8266</v>
       </c>
       <c r="D523" s="9">
-        <v>123.2962545</v>
+        <v>123.2632615</v>
       </c>
       <c r="E523" s="9">
-        <v>178.29023340000001</v>
+        <v>178.27999299999999</v>
       </c>
       <c r="F523" s="9">
-        <v>101.41439099999999</v>
+        <v>101.4162834</v>
       </c>
       <c r="G523" s="9">
-        <v>76.875842399999996</v>
+        <v>76.863709700000001</v>
       </c>
       <c r="H523" s="9">
-        <v>71.763450599999999</v>
+        <v>71.766401500000001</v>
       </c>
       <c r="I523" s="9">
-        <v>74.034154799999996</v>
+        <v>74.040544699999998</v>
       </c>
       <c r="J523" s="9">
-        <v>69.635688999999999</v>
+        <v>69.635146300000002</v>
       </c>
       <c r="K523" s="9">
-        <v>10.083665699999999</v>
+        <v>10.079557299999999</v>
       </c>
       <c r="L523" s="9">
-        <v>4.8953623000000004</v>
+        <v>4.8948318999999998</v>
       </c>
       <c r="M523" s="9">
-        <v>5.1883033999999997</v>
+        <v>5.1847253999999996</v>
       </c>
       <c r="N523" s="9">
-        <v>3.9356694999999999</v>
+        <v>3.9347230999999998</v>
       </c>
       <c r="O523" s="9">
-        <v>3.8326566999999998</v>
+        <v>3.8324280000000002</v>
       </c>
       <c r="P523" s="9">
-        <v>4.0380754000000003</v>
+        <v>4.0364395999999996</v>
       </c>
       <c r="Q523" s="9">
-        <v>256.21220740000001</v>
+        <v>256.16941880000002</v>
       </c>
       <c r="R523" s="9">
-        <v>127.7276495</v>
+        <v>127.7214319</v>
       </c>
       <c r="S523" s="9">
-        <v>128.4845579</v>
+        <v>128.44798689999999</v>
       </c>
       <c r="T523" s="9">
-        <v>74.7035348</v>
+        <v>74.705870700000006</v>
       </c>
       <c r="U523" s="9">
-        <v>76.984714600000004</v>
+        <v>76.991176100000004</v>
       </c>
       <c r="V523" s="9">
-        <v>72.565957100000006</v>
+        <v>72.564154500000001</v>
       </c>
     </row>
     <row r="524" spans="1:22" x14ac:dyDescent="0.2">
@@ -37316,67 +37316,67 @@
         <v>44136</v>
       </c>
       <c r="B524" s="9">
-        <v>241.09797280000001</v>
+        <v>241.00553930000001</v>
       </c>
       <c r="C524" s="9">
-        <v>121.7145537</v>
+        <v>121.69166010000001</v>
       </c>
       <c r="D524" s="9">
-        <v>119.3834191</v>
+        <v>119.3138792</v>
       </c>
       <c r="E524" s="9">
-        <v>177.23957530000001</v>
+        <v>177.20548529999999</v>
       </c>
       <c r="F524" s="9">
-        <v>100.5597381</v>
+        <v>100.5529329</v>
       </c>
       <c r="G524" s="9">
-        <v>76.679837199999994</v>
+        <v>76.652552400000005</v>
       </c>
       <c r="H524" s="9">
-        <v>70.274768399999999</v>
+        <v>70.276093900000006</v>
       </c>
       <c r="I524" s="9">
-        <v>73.359141800000003</v>
+        <v>73.364799399999995</v>
       </c>
       <c r="J524" s="9">
-        <v>67.386203199999997</v>
+        <v>67.382703500000005</v>
       </c>
       <c r="K524" s="9">
-        <v>10.0765999</v>
+        <v>10.067947500000001</v>
       </c>
       <c r="L524" s="9">
-        <v>5.0513196999999996</v>
+        <v>5.0493497999999999</v>
       </c>
       <c r="M524" s="9">
-        <v>5.0252802000000001</v>
+        <v>5.0185976999999999</v>
       </c>
       <c r="N524" s="9">
-        <v>4.0117913999999999</v>
+        <v>4.0099603999999998</v>
       </c>
       <c r="O524" s="9">
-        <v>3.9847630000000001</v>
+        <v>3.9839905</v>
       </c>
       <c r="P524" s="9">
-        <v>4.0393318000000002</v>
+        <v>4.0364335000000002</v>
       </c>
       <c r="Q524" s="9">
-        <v>251.1745727</v>
+        <v>251.07348680000001</v>
       </c>
       <c r="R524" s="9">
-        <v>126.7658734</v>
+        <v>126.74100989999999</v>
       </c>
       <c r="S524" s="9">
-        <v>124.4086994</v>
+        <v>124.3324769</v>
       </c>
       <c r="T524" s="9">
-        <v>73.211876200000006</v>
+        <v>73.211860599999994</v>
       </c>
       <c r="U524" s="9">
-        <v>76.403645999999995</v>
+        <v>76.408923700000003</v>
       </c>
       <c r="V524" s="9">
-        <v>70.222732399999998</v>
+        <v>70.216964500000003</v>
       </c>
     </row>
     <row r="525" spans="1:22" x14ac:dyDescent="0.2">
@@ -37384,67 +37384,67 @@
         <v>44166</v>
       </c>
       <c r="B525" s="9">
-        <v>237.82456139999999</v>
+        <v>237.69233109999999</v>
       </c>
       <c r="C525" s="9">
-        <v>118.6843319</v>
+        <v>118.654742</v>
       </c>
       <c r="D525" s="9">
-        <v>119.1402295</v>
+        <v>119.03758910000001</v>
       </c>
       <c r="E525" s="9">
-        <v>176.68640790000001</v>
+        <v>176.63039019999999</v>
       </c>
       <c r="F525" s="9">
-        <v>99.6067544</v>
+        <v>99.595416799999995</v>
       </c>
       <c r="G525" s="9">
-        <v>77.079653500000006</v>
+        <v>77.034973399999998</v>
       </c>
       <c r="H525" s="9">
-        <v>69.298422000000002</v>
+        <v>69.302298699999994</v>
       </c>
       <c r="I525" s="9">
-        <v>71.530627199999998</v>
+        <v>71.540819799999994</v>
       </c>
       <c r="J525" s="9">
-        <v>67.209101200000006</v>
+        <v>67.206172600000002</v>
       </c>
       <c r="K525" s="9">
-        <v>9.3350468000000006</v>
+        <v>9.3208909999999996</v>
       </c>
       <c r="L525" s="9">
-        <v>4.4079718000000003</v>
+        <v>4.4034700000000004</v>
       </c>
       <c r="M525" s="9">
-        <v>4.9270750999999997</v>
+        <v>4.917421</v>
       </c>
       <c r="N525" s="9">
-        <v>3.7769306</v>
+        <v>3.7734380999999999</v>
       </c>
       <c r="O525" s="9">
-        <v>3.5810295000000001</v>
+        <v>3.5783634000000002</v>
       </c>
       <c r="P525" s="9">
-        <v>3.9712920999999999</v>
+        <v>3.9671013999999998</v>
       </c>
       <c r="Q525" s="9">
-        <v>247.15960820000001</v>
+        <v>247.0132222</v>
       </c>
       <c r="R525" s="9">
-        <v>123.0923037</v>
+        <v>123.05821210000001</v>
       </c>
       <c r="S525" s="9">
-        <v>124.06730450000001</v>
+        <v>123.9550101</v>
       </c>
       <c r="T525" s="9">
-        <v>72.018511200000006</v>
+        <v>72.019925999999998</v>
       </c>
       <c r="U525" s="9">
-        <v>74.187296200000006</v>
+        <v>74.195815699999997</v>
       </c>
       <c r="V525" s="9">
-        <v>69.988551000000001</v>
+        <v>69.982447300000004</v>
       </c>
     </row>
     <row r="526" spans="1:22" x14ac:dyDescent="0.2">
@@ -37452,67 +37452,67 @@
         <v>44197</v>
       </c>
       <c r="B526" s="9">
-        <v>234.64776230000001</v>
+        <v>234.46421100000001</v>
       </c>
       <c r="C526" s="9">
-        <v>117.8191923</v>
+        <v>117.7680446</v>
       </c>
       <c r="D526" s="9">
-        <v>116.82857</v>
+        <v>116.6961664</v>
       </c>
       <c r="E526" s="9">
-        <v>174.12363590000001</v>
+        <v>174.0447341</v>
       </c>
       <c r="F526" s="9">
-        <v>98.148020399999993</v>
+        <v>98.122027399999993</v>
       </c>
       <c r="G526" s="9">
-        <v>75.975615500000004</v>
+        <v>75.922706700000006</v>
       </c>
       <c r="H526" s="9">
-        <v>68.380123800000007</v>
+        <v>68.379440200000005</v>
       </c>
       <c r="I526" s="9">
-        <v>71.028902700000003</v>
+        <v>71.036181999999997</v>
       </c>
       <c r="J526" s="9">
-        <v>65.901707500000001</v>
+        <v>65.892437900000004</v>
       </c>
       <c r="K526" s="9">
-        <v>10.5420385</v>
+        <v>10.529574200000001</v>
       </c>
       <c r="L526" s="9">
-        <v>5.3376207000000004</v>
+        <v>5.3344151000000002</v>
       </c>
       <c r="M526" s="9">
-        <v>5.2044177999999999</v>
+        <v>5.1951590999999997</v>
       </c>
       <c r="N526" s="9">
-        <v>4.2995419999999998</v>
+        <v>4.2978943999999997</v>
       </c>
       <c r="O526" s="9">
-        <v>4.3340036</v>
+        <v>4.3333132000000001</v>
       </c>
       <c r="P526" s="9">
-        <v>4.2647630999999997</v>
+        <v>4.2621237000000001</v>
       </c>
       <c r="Q526" s="9">
-        <v>245.1898008</v>
+        <v>244.99378530000001</v>
       </c>
       <c r="R526" s="9">
-        <v>123.156813</v>
+        <v>123.1024597</v>
       </c>
       <c r="S526" s="9">
-        <v>122.0329878</v>
+        <v>121.89132549999999</v>
       </c>
       <c r="T526" s="9">
-        <v>71.452242999999996</v>
+        <v>71.450298599999996</v>
       </c>
       <c r="U526" s="9">
-        <v>74.246759900000001</v>
+        <v>74.253833099999994</v>
       </c>
       <c r="V526" s="9">
-        <v>68.837462200000004</v>
+        <v>68.825882100000001</v>
       </c>
     </row>
     <row r="527" spans="1:22" x14ac:dyDescent="0.2">
@@ -37520,67 +37520,67 @@
         <v>44228</v>
       </c>
       <c r="B527" s="9">
-        <v>235.8085834</v>
+        <v>235.60425040000001</v>
       </c>
       <c r="C527" s="9">
-        <v>118.8084101</v>
+        <v>118.75004319999999</v>
       </c>
       <c r="D527" s="9">
-        <v>117.0001733</v>
+        <v>116.8542072</v>
       </c>
       <c r="E527" s="9">
-        <v>174.9399568</v>
+        <v>174.8523557</v>
       </c>
       <c r="F527" s="9">
-        <v>98.169352399999994</v>
+        <v>98.141371399999997</v>
       </c>
       <c r="G527" s="9">
-        <v>76.770604399999996</v>
+        <v>76.710984300000007</v>
       </c>
       <c r="H527" s="9">
-        <v>68.726416900000004</v>
+        <v>68.729762300000004</v>
       </c>
       <c r="I527" s="9">
-        <v>71.645134499999998</v>
+        <v>71.657037900000006</v>
       </c>
       <c r="J527" s="9">
-        <v>65.996273400000007</v>
+        <v>65.990245700000003</v>
       </c>
       <c r="K527" s="9">
-        <v>10.228756000000001</v>
+        <v>10.208434799999999</v>
       </c>
       <c r="L527" s="9">
-        <v>5.0235814000000003</v>
+        <v>5.0182399000000002</v>
       </c>
       <c r="M527" s="9">
-        <v>5.2051746000000003</v>
+        <v>5.1901948999999998</v>
       </c>
       <c r="N527" s="9">
-        <v>4.1573998000000003</v>
+        <v>4.1529325000000004</v>
       </c>
       <c r="O527" s="9">
-        <v>4.0567717999999999</v>
+        <v>4.0545442999999999</v>
       </c>
       <c r="P527" s="9">
-        <v>4.2593673000000001</v>
+        <v>4.2527103999999998</v>
       </c>
       <c r="Q527" s="9">
-        <v>246.03733940000001</v>
+        <v>245.8126853</v>
       </c>
       <c r="R527" s="9">
-        <v>123.8319915</v>
+        <v>123.7682831</v>
       </c>
       <c r="S527" s="9">
-        <v>122.20534790000001</v>
+        <v>122.04440219999999</v>
       </c>
       <c r="T527" s="9">
-        <v>71.707588000000001</v>
+        <v>71.707736100000005</v>
       </c>
       <c r="U527" s="9">
-        <v>74.674509</v>
+        <v>74.685181700000001</v>
       </c>
       <c r="V527" s="9">
-        <v>68.932355599999994</v>
+        <v>68.921267599999993</v>
       </c>
     </row>
     <row r="528" spans="1:22" x14ac:dyDescent="0.2">
@@ -37588,67 +37588,67 @@
         <v>44256</v>
       </c>
       <c r="B528" s="9">
-        <v>234.75115220000001</v>
+        <v>234.49175210000001</v>
       </c>
       <c r="C528" s="9">
-        <v>119.337796</v>
+        <v>119.2576171</v>
       </c>
       <c r="D528" s="9">
-        <v>115.4133562</v>
+        <v>115.23413499999999</v>
       </c>
       <c r="E528" s="9">
-        <v>173.40325429999999</v>
+        <v>173.28112709999999</v>
       </c>
       <c r="F528" s="9">
-        <v>97.050870200000006</v>
+        <v>97.012849599999996</v>
       </c>
       <c r="G528" s="9">
-        <v>76.352384099999995</v>
+        <v>76.268277400000002</v>
       </c>
       <c r="H528" s="9">
-        <v>68.425806699999995</v>
+        <v>68.423591099999996</v>
       </c>
       <c r="I528" s="9">
-        <v>71.984338600000001</v>
+        <v>71.993297400000003</v>
       </c>
       <c r="J528" s="9">
-        <v>65.098260100000005</v>
+        <v>65.083807300000004</v>
       </c>
       <c r="K528" s="9">
-        <v>8.5384910000000005</v>
+        <v>8.5209443</v>
       </c>
       <c r="L528" s="9">
-        <v>4.1809000999999997</v>
+        <v>4.1758594000000002</v>
       </c>
       <c r="M528" s="9">
-        <v>4.3575908999999999</v>
+        <v>4.3450850000000001</v>
       </c>
       <c r="N528" s="9">
-        <v>3.5095990000000001</v>
+        <v>3.5063783000000002</v>
       </c>
       <c r="O528" s="9">
-        <v>3.3848318000000002</v>
+        <v>3.3830849000000001</v>
       </c>
       <c r="P528" s="9">
-        <v>3.6382704000000001</v>
+        <v>3.6336455000000001</v>
       </c>
       <c r="Q528" s="9">
-        <v>243.2896432</v>
+        <v>243.0126965</v>
       </c>
       <c r="R528" s="9">
-        <v>123.5186961</v>
+        <v>123.4334765</v>
       </c>
       <c r="S528" s="9">
-        <v>119.7709471</v>
+        <v>119.57922000000001</v>
       </c>
       <c r="T528" s="9">
-        <v>70.914625799999996</v>
+        <v>70.9099626</v>
       </c>
       <c r="U528" s="9">
-        <v>74.506249800000006</v>
+        <v>74.514175300000005</v>
       </c>
       <c r="V528" s="9">
-        <v>67.556134900000004</v>
+        <v>67.537895000000006</v>
       </c>
     </row>
     <row r="529" spans="1:22" x14ac:dyDescent="0.2">
@@ -37656,67 +37656,67 @@
         <v>44287</v>
       </c>
       <c r="B529" s="9">
-        <v>237.8741751</v>
+        <v>237.54245330000001</v>
       </c>
       <c r="C529" s="9">
-        <v>120.95124300000001</v>
+        <v>120.84122549999999</v>
       </c>
       <c r="D529" s="9">
-        <v>116.9229321</v>
+        <v>116.7012278</v>
       </c>
       <c r="E529" s="9">
-        <v>172.56202690000001</v>
+        <v>172.39490090000001</v>
       </c>
       <c r="F529" s="9">
-        <v>97.424221700000004</v>
+        <v>97.359386200000003</v>
       </c>
       <c r="G529" s="9">
-        <v>75.137805200000003</v>
+        <v>75.035514599999999</v>
       </c>
       <c r="H529" s="9">
-        <v>69.285623799999996</v>
+        <v>69.281021699999997</v>
       </c>
       <c r="I529" s="9">
-        <v>72.903477300000006</v>
+        <v>72.908355999999998</v>
       </c>
       <c r="J529" s="9">
-        <v>65.902519499999997</v>
+        <v>65.8867391</v>
       </c>
       <c r="K529" s="9">
-        <v>8.4903034999999996</v>
+        <v>8.4762883000000002</v>
       </c>
       <c r="L529" s="9">
-        <v>5.3001543</v>
+        <v>5.2925466999999999</v>
       </c>
       <c r="M529" s="9">
-        <v>3.1901492</v>
+        <v>3.1837415999999998</v>
       </c>
       <c r="N529" s="9">
-        <v>3.4462369000000002</v>
+        <v>3.4453832000000002</v>
       </c>
       <c r="O529" s="9">
-        <v>4.1980956000000003</v>
+        <v>4.1959790999999997</v>
       </c>
       <c r="P529" s="9">
-        <v>2.6559547999999999</v>
+        <v>2.6556636999999998</v>
       </c>
       <c r="Q529" s="9">
-        <v>246.36447849999999</v>
+        <v>246.01874169999999</v>
       </c>
       <c r="R529" s="9">
-        <v>126.25139729999999</v>
+        <v>126.1337723</v>
       </c>
       <c r="S529" s="9">
-        <v>120.1130813</v>
+        <v>119.8849694</v>
       </c>
       <c r="T529" s="9">
-        <v>71.758595</v>
+        <v>71.753194100000002</v>
       </c>
       <c r="U529" s="9">
-        <v>76.0981503</v>
+        <v>76.101561599999997</v>
       </c>
       <c r="V529" s="9">
-        <v>67.700617300000005</v>
+        <v>67.684203999999994</v>
       </c>
     </row>
     <row r="530" spans="1:22" x14ac:dyDescent="0.2">
@@ -37724,67 +37724,67 @@
         <v>44317</v>
       </c>
       <c r="B530" s="9">
-        <v>237.88863090000001</v>
+        <v>237.5067895</v>
       </c>
       <c r="C530" s="9">
-        <v>121.3688136</v>
+        <v>121.25275019999999</v>
       </c>
       <c r="D530" s="9">
-        <v>116.5198173</v>
+        <v>116.2540393</v>
       </c>
       <c r="E530" s="9">
-        <v>172.33881819999999</v>
+        <v>172.14872070000001</v>
       </c>
       <c r="F530" s="9">
-        <v>97.224093199999999</v>
+        <v>97.148202499999996</v>
       </c>
       <c r="G530" s="9">
-        <v>75.114725000000007</v>
+        <v>75.000518200000002</v>
       </c>
       <c r="H530" s="9">
-        <v>69.239214399999994</v>
+        <v>69.237906100000004</v>
       </c>
       <c r="I530" s="9">
-        <v>73.100532200000004</v>
+        <v>73.112533600000006</v>
       </c>
       <c r="J530" s="9">
-        <v>65.628329300000004</v>
+        <v>65.611300700000001</v>
       </c>
       <c r="K530" s="9">
-        <v>8.9433921999999999</v>
+        <v>8.9185636000000006</v>
       </c>
       <c r="L530" s="9">
-        <v>5.1596218</v>
+        <v>5.1401440000000003</v>
       </c>
       <c r="M530" s="9">
-        <v>3.7837703999999999</v>
+        <v>3.7784195999999999</v>
       </c>
       <c r="N530" s="9">
-        <v>3.6232706000000001</v>
+        <v>3.6191745000000002</v>
       </c>
       <c r="O530" s="9">
-        <v>4.0778357999999999</v>
+        <v>4.0667982</v>
       </c>
       <c r="P530" s="9">
-        <v>3.1451850000000001</v>
+        <v>3.1478316</v>
       </c>
       <c r="Q530" s="9">
-        <v>246.83202320000001</v>
+        <v>246.425353</v>
       </c>
       <c r="R530" s="9">
-        <v>126.52843540000001</v>
+        <v>126.39289410000001</v>
       </c>
       <c r="S530" s="9">
-        <v>120.3035878</v>
+        <v>120.03245889999999</v>
       </c>
       <c r="T530" s="9">
-        <v>71.842253700000001</v>
+        <v>71.837843100000001</v>
       </c>
       <c r="U530" s="9">
-        <v>76.208176499999993</v>
+        <v>76.211918499999996</v>
       </c>
       <c r="V530" s="9">
-        <v>67.759490700000001</v>
+        <v>67.743760199999997</v>
       </c>
     </row>
     <row r="531" spans="1:22" x14ac:dyDescent="0.2">
@@ -37792,67 +37792,67 @@
         <v>44348</v>
       </c>
       <c r="B531" s="9">
-        <v>231.78405799999999</v>
+        <v>231.33555129999999</v>
       </c>
       <c r="C531" s="9">
-        <v>119.1083071</v>
+        <v>118.9628068</v>
       </c>
       <c r="D531" s="9">
-        <v>112.6757509</v>
+        <v>112.3727445</v>
       </c>
       <c r="E531" s="9">
-        <v>170.23017239999999</v>
+        <v>169.9843621</v>
       </c>
       <c r="F531" s="9">
-        <v>95.897371399999997</v>
+        <v>95.804767200000001</v>
       </c>
       <c r="G531" s="9">
-        <v>74.332801000000003</v>
+        <v>74.179594899999998</v>
       </c>
       <c r="H531" s="9">
-        <v>67.413381200000003</v>
+        <v>67.407034899999999</v>
       </c>
       <c r="I531" s="9">
-        <v>71.686351700000003</v>
+        <v>71.691549699999996</v>
       </c>
       <c r="J531" s="9">
-        <v>63.417486500000003</v>
+        <v>63.396092899999999</v>
       </c>
       <c r="K531" s="9">
-        <v>11.9211001</v>
+        <v>11.892454499999999</v>
       </c>
       <c r="L531" s="9">
-        <v>7.0502199000000001</v>
+        <v>7.0332930999999999</v>
       </c>
       <c r="M531" s="9">
-        <v>4.8708802999999996</v>
+        <v>4.8591613999999996</v>
       </c>
       <c r="N531" s="9">
-        <v>4.8916076000000004</v>
+        <v>4.8894264999999999</v>
       </c>
       <c r="O531" s="9">
-        <v>5.5883815999999999</v>
+        <v>5.5821513999999999</v>
       </c>
       <c r="P531" s="9">
-        <v>4.1437854999999999</v>
+        <v>4.1449138000000003</v>
       </c>
       <c r="Q531" s="9">
-        <v>243.70515810000001</v>
+        <v>243.22800580000001</v>
       </c>
       <c r="R531" s="9">
-        <v>126.1585269</v>
+        <v>125.9960999</v>
       </c>
       <c r="S531" s="9">
-        <v>117.5466311</v>
+        <v>117.2319059</v>
       </c>
       <c r="T531" s="9">
-        <v>70.880581100000001</v>
+        <v>70.872283100000004</v>
       </c>
       <c r="U531" s="9">
-        <v>75.929586700000002</v>
+        <v>75.930081799999996</v>
       </c>
       <c r="V531" s="9">
-        <v>66.158972500000004</v>
+        <v>66.137432399999994</v>
       </c>
     </row>
     <row r="532" spans="1:22" x14ac:dyDescent="0.2">
@@ -37860,67 +37860,67 @@
         <v>44378</v>
       </c>
       <c r="B532" s="9">
-        <v>233.1094477</v>
+        <v>232.37304889999999</v>
       </c>
       <c r="C532" s="9">
-        <v>118.6612137</v>
+        <v>118.3739903</v>
       </c>
       <c r="D532" s="9">
-        <v>114.448234</v>
+        <v>113.9990586</v>
       </c>
       <c r="E532" s="9">
-        <v>168.40157809999999</v>
+        <v>167.96186280000001</v>
       </c>
       <c r="F532" s="9">
-        <v>94.066185899999994</v>
+        <v>93.872112200000004</v>
       </c>
       <c r="G532" s="9">
-        <v>74.335392200000001</v>
+        <v>74.089750600000002</v>
       </c>
       <c r="H532" s="9">
-        <v>67.7789547</v>
+        <v>67.773919399999997</v>
       </c>
       <c r="I532" s="9">
-        <v>71.393631799999994</v>
+        <v>71.404264900000001</v>
       </c>
       <c r="J532" s="9">
-        <v>64.398423399999999</v>
+        <v>64.375333100000006</v>
       </c>
       <c r="K532" s="9">
-        <v>10.458687599999999</v>
+        <v>10.423624999999999</v>
       </c>
       <c r="L532" s="9">
-        <v>5.9743518</v>
+        <v>5.9584858000000001</v>
       </c>
       <c r="M532" s="9">
-        <v>4.4843358000000002</v>
+        <v>4.4651392999999997</v>
       </c>
       <c r="N532" s="9">
-        <v>4.2939474000000004</v>
+        <v>4.2931499000000004</v>
       </c>
       <c r="O532" s="9">
-        <v>4.7934567000000001</v>
+        <v>4.7923808000000001</v>
       </c>
       <c r="P532" s="9">
-        <v>3.7704859000000002</v>
+        <v>3.7691887999999998</v>
       </c>
       <c r="Q532" s="9">
-        <v>243.56813529999999</v>
+        <v>242.7966739</v>
       </c>
       <c r="R532" s="9">
-        <v>124.6355655</v>
+        <v>124.332476</v>
       </c>
       <c r="S532" s="9">
-        <v>118.9325698</v>
+        <v>118.4641979</v>
       </c>
       <c r="T532" s="9">
-        <v>70.819924999999998</v>
+        <v>70.814073699999994</v>
       </c>
       <c r="U532" s="9">
-        <v>74.988156599999996</v>
+        <v>74.998477500000007</v>
       </c>
       <c r="V532" s="9">
-        <v>66.921696499999996</v>
+        <v>66.896799799999997</v>
       </c>
     </row>
     <row r="533" spans="1:22" x14ac:dyDescent="0.2">
@@ -37928,67 +37928,67 @@
         <v>44409</v>
       </c>
       <c r="B533" s="9">
-        <v>232.5763546</v>
+        <v>231.87567139999999</v>
       </c>
       <c r="C533" s="9">
-        <v>117.9539379</v>
+        <v>117.5927157</v>
       </c>
       <c r="D533" s="9">
-        <v>114.62241659999999</v>
+        <v>114.2829557</v>
       </c>
       <c r="E533" s="9">
-        <v>174.97679450000001</v>
+        <v>175.1571898</v>
       </c>
       <c r="F533" s="9">
-        <v>97.042796999999993</v>
+        <v>96.959509999999995</v>
       </c>
       <c r="G533" s="9">
-        <v>77.933997399999996</v>
+        <v>78.197679899999997</v>
       </c>
       <c r="H533" s="9">
-        <v>67.603706200000005</v>
+        <v>67.6938107</v>
       </c>
       <c r="I533" s="9">
-        <v>70.944189600000001</v>
+        <v>71.001090199999993</v>
       </c>
       <c r="J533" s="9">
-        <v>64.479381099999998</v>
+        <v>64.597663100000005</v>
       </c>
       <c r="K533" s="9">
-        <v>8.5386728999999999</v>
+        <v>8.2165686999999998</v>
       </c>
       <c r="L533" s="9">
-        <v>4.7592340999999996</v>
+        <v>4.5387805999999999</v>
       </c>
       <c r="M533" s="9">
-        <v>3.7794387999999999</v>
+        <v>3.6777880999999999</v>
       </c>
       <c r="N533" s="9">
-        <v>3.5413275</v>
+        <v>3.4222549999999998</v>
       </c>
       <c r="O533" s="9">
-        <v>3.8783401</v>
+        <v>3.7163064000000001</v>
       </c>
       <c r="P533" s="9">
-        <v>3.1920435</v>
+        <v>3.1178067999999999</v>
       </c>
       <c r="Q533" s="9">
-        <v>241.1150274</v>
+        <v>240.0922401</v>
       </c>
       <c r="R533" s="9">
-        <v>122.71317209999999</v>
+        <v>122.13149629999999</v>
       </c>
       <c r="S533" s="9">
-        <v>118.4018554</v>
+        <v>117.9607438</v>
       </c>
       <c r="T533" s="9">
-        <v>70.0856694</v>
+        <v>70.092556700000003</v>
       </c>
       <c r="U533" s="9">
-        <v>73.806663</v>
+        <v>73.741552299999995</v>
       </c>
       <c r="V533" s="9">
-        <v>66.6054563</v>
+        <v>66.676507799999996</v>
       </c>
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.2">
@@ -37996,67 +37996,67 @@
         <v>44440</v>
       </c>
       <c r="B534" s="9">
-        <v>225.10239300000001</v>
+        <v>223.8647871</v>
       </c>
       <c r="C534" s="9">
-        <v>114.247196</v>
+        <v>113.69732399999999</v>
       </c>
       <c r="D534" s="9">
-        <v>110.855197</v>
+        <v>110.16746310000001</v>
       </c>
       <c r="E534" s="9">
-        <v>171.60869450000001</v>
+        <v>170.748874</v>
       </c>
       <c r="F534" s="9">
-        <v>93.797489799999994</v>
+        <v>93.376650799999993</v>
       </c>
       <c r="G534" s="9">
-        <v>77.811204799999999</v>
+        <v>77.372223300000002</v>
       </c>
       <c r="H534" s="9">
-        <v>65.411832399999994</v>
+        <v>65.417562700000005</v>
       </c>
       <c r="I534" s="9">
-        <v>68.692021299999993</v>
+        <v>68.714236299999996</v>
       </c>
       <c r="J534" s="9">
-        <v>62.343696399999999</v>
+        <v>62.331303900000002</v>
       </c>
       <c r="K534" s="9">
-        <v>9.5791112999999992</v>
+        <v>9.5152079999999994</v>
       </c>
       <c r="L534" s="9">
-        <v>4.8641017</v>
+        <v>4.8376140999999997</v>
       </c>
       <c r="M534" s="9">
-        <v>4.7150096000000001</v>
+        <v>4.6775938999999997</v>
       </c>
       <c r="N534" s="9">
-        <v>4.0817496000000002</v>
+        <v>4.0771309000000002</v>
       </c>
       <c r="O534" s="9">
-        <v>4.0836610999999996</v>
+        <v>4.0811715</v>
       </c>
       <c r="P534" s="9">
-        <v>4.0797794999999999</v>
+        <v>4.0729606</v>
       </c>
       <c r="Q534" s="9">
-        <v>234.6815043</v>
+        <v>233.3799951</v>
       </c>
       <c r="R534" s="9">
-        <v>119.1112978</v>
+        <v>118.53493810000001</v>
       </c>
       <c r="S534" s="9">
-        <v>115.5702065</v>
+        <v>114.845057</v>
       </c>
       <c r="T534" s="9">
-        <v>68.195397799999995</v>
+        <v>68.198087999999998</v>
       </c>
       <c r="U534" s="9">
-        <v>71.616600599999998</v>
+        <v>71.637901999999997</v>
       </c>
       <c r="V534" s="9">
-        <v>64.995363999999995</v>
+        <v>64.977825100000004</v>
       </c>
     </row>
     <row r="535" spans="1:22" x14ac:dyDescent="0.2">
@@ -38064,67 +38064,67 @@
         <v>44470</v>
       </c>
       <c r="B535" s="9">
-        <v>219.93060349999999</v>
+        <v>218.73076</v>
       </c>
       <c r="C535" s="9">
-        <v>110.8195357</v>
+        <v>110.3158856</v>
       </c>
       <c r="D535" s="9">
-        <v>109.1110678</v>
+        <v>108.4148745</v>
       </c>
       <c r="E535" s="9">
-        <v>169.6395176</v>
+        <v>168.80888680000001</v>
       </c>
       <c r="F535" s="9">
-        <v>93.418271399999995</v>
+        <v>93.022492600000007</v>
       </c>
       <c r="G535" s="9">
-        <v>76.221246199999996</v>
+        <v>75.786394099999995</v>
       </c>
       <c r="H535" s="9">
-        <v>63.9344301</v>
+        <v>63.944583299999998</v>
       </c>
       <c r="I535" s="9">
-        <v>66.677217499999998</v>
+        <v>66.7133647</v>
       </c>
       <c r="J535" s="9">
-        <v>61.370411199999999</v>
+        <v>61.353597499999999</v>
       </c>
       <c r="K535" s="9">
-        <v>15.4510644</v>
+        <v>15.339128499999999</v>
       </c>
       <c r="L535" s="9">
-        <v>9.2844672999999993</v>
+        <v>9.2203116000000005</v>
       </c>
       <c r="M535" s="9">
-        <v>6.1665970000000003</v>
+        <v>6.118817</v>
       </c>
       <c r="N535" s="9">
-        <v>6.5642598999999997</v>
+        <v>6.5532259000000002</v>
       </c>
       <c r="O535" s="9">
-        <v>7.7303563000000004</v>
+        <v>7.7134055000000004</v>
       </c>
       <c r="P535" s="9">
-        <v>5.3493424000000003</v>
+        <v>5.3423730000000003</v>
       </c>
       <c r="Q535" s="9">
-        <v>235.3816679</v>
+        <v>234.06988860000001</v>
       </c>
       <c r="R535" s="9">
-        <v>120.10400300000001</v>
+        <v>119.5361971</v>
       </c>
       <c r="S535" s="9">
-        <v>115.2776649</v>
+        <v>114.5336914</v>
       </c>
       <c r="T535" s="9">
-        <v>68.426096900000005</v>
+        <v>68.428882599999994</v>
       </c>
       <c r="U535" s="9">
-        <v>72.263438699999995</v>
+        <v>72.289334100000005</v>
       </c>
       <c r="V535" s="9">
-        <v>64.838864099999995</v>
+        <v>64.8163275</v>
       </c>
     </row>
     <row r="536" spans="1:22" x14ac:dyDescent="0.2">
@@ -38132,67 +38132,67 @@
         <v>44501</v>
       </c>
       <c r="B536" s="9">
-        <v>227.90795199999999</v>
+        <v>226.63458869999999</v>
       </c>
       <c r="C536" s="9">
-        <v>116.4838269</v>
+        <v>115.9463157</v>
       </c>
       <c r="D536" s="9">
-        <v>111.4241251</v>
+        <v>110.6882731</v>
       </c>
       <c r="E536" s="9">
-        <v>173.74787929999999</v>
+        <v>172.92350020000001</v>
       </c>
       <c r="F536" s="9">
-        <v>96.027179000000004</v>
+        <v>95.640537499999994</v>
       </c>
       <c r="G536" s="9">
-        <v>77.720700300000004</v>
+        <v>77.282962699999999</v>
       </c>
       <c r="H536" s="9">
-        <v>66.280056799999997</v>
+        <v>66.283316099999993</v>
       </c>
       <c r="I536" s="9">
-        <v>70.133800699999995</v>
+        <v>70.162911199999996</v>
       </c>
       <c r="J536" s="9">
-        <v>62.679517699999998</v>
+        <v>62.654330600000002</v>
       </c>
       <c r="K536" s="9">
-        <v>9.0126205000000006</v>
+        <v>8.9257031999999992</v>
       </c>
       <c r="L536" s="9">
-        <v>4.4816864000000001</v>
+        <v>4.4397983999999999</v>
       </c>
       <c r="M536" s="9">
-        <v>4.5309340999999996</v>
+        <v>4.4859048000000001</v>
       </c>
       <c r="N536" s="9">
-        <v>3.8040683</v>
+        <v>3.7891374</v>
       </c>
       <c r="O536" s="9">
-        <v>3.7049289999999999</v>
+        <v>3.6879656000000001</v>
       </c>
       <c r="P536" s="9">
-        <v>3.9074914999999999</v>
+        <v>3.8948876000000001</v>
       </c>
       <c r="Q536" s="9">
-        <v>236.9205724</v>
+        <v>235.56029190000001</v>
       </c>
       <c r="R536" s="9">
-        <v>120.9655133</v>
+        <v>120.3861141</v>
       </c>
       <c r="S536" s="9">
-        <v>115.9550591</v>
+        <v>115.1741778</v>
       </c>
       <c r="T536" s="9">
-        <v>68.901101800000006</v>
+        <v>68.893796699999996</v>
       </c>
       <c r="U536" s="9">
-        <v>72.832181300000002</v>
+        <v>72.849578600000001</v>
       </c>
       <c r="V536" s="9">
-        <v>65.228308299999995</v>
+        <v>65.193545900000004</v>
       </c>
     </row>
     <row r="537" spans="1:22" x14ac:dyDescent="0.2">
@@ -38200,67 +38200,67 @@
         <v>44531</v>
       </c>
       <c r="B537" s="9">
-        <v>227.14990779999999</v>
+        <v>225.88765620000001</v>
       </c>
       <c r="C537" s="9">
-        <v>116.75172139999999</v>
+        <v>116.2226342</v>
       </c>
       <c r="D537" s="9">
-        <v>110.39818630000001</v>
+        <v>109.66502199999999</v>
       </c>
       <c r="E537" s="9">
-        <v>169.426761</v>
+        <v>168.6618034</v>
       </c>
       <c r="F537" s="9">
-        <v>93.996330499999999</v>
+        <v>93.649176900000001</v>
       </c>
       <c r="G537" s="9">
-        <v>75.430430400000006</v>
+        <v>75.012626499999996</v>
       </c>
       <c r="H537" s="9">
-        <v>66.086509699999993</v>
+        <v>66.093471100000002</v>
       </c>
       <c r="I537" s="9">
-        <v>70.344651400000004</v>
+        <v>70.375688299999993</v>
       </c>
       <c r="J537" s="9">
-        <v>62.110431400000003</v>
+        <v>62.089536000000003</v>
       </c>
       <c r="K537" s="9">
-        <v>10.677144800000001</v>
+        <v>10.573284599999999</v>
       </c>
       <c r="L537" s="9">
-        <v>5.1715619999999998</v>
+        <v>5.1236503999999998</v>
       </c>
       <c r="M537" s="9">
-        <v>5.5055828</v>
+        <v>5.4496342000000002</v>
       </c>
       <c r="N537" s="9">
-        <v>4.4894575999999997</v>
+        <v>4.4714719000000001</v>
       </c>
       <c r="O537" s="9">
-        <v>4.2416524999999998</v>
+        <v>4.2223381</v>
       </c>
       <c r="P537" s="9">
-        <v>4.7501327</v>
+        <v>4.7340923999999998</v>
       </c>
       <c r="Q537" s="9">
-        <v>237.82705250000001</v>
+        <v>236.4609408</v>
       </c>
       <c r="R537" s="9">
-        <v>121.9232835</v>
+        <v>121.3462845</v>
       </c>
       <c r="S537" s="9">
-        <v>115.90376910000001</v>
+        <v>115.1146562</v>
       </c>
       <c r="T537" s="9">
-        <v>69.192895500000006</v>
+        <v>69.187155300000001</v>
       </c>
       <c r="U537" s="9">
-        <v>73.460594599999993</v>
+        <v>73.478185699999997</v>
       </c>
       <c r="V537" s="9">
-        <v>65.207892799999996</v>
+        <v>65.174979800000003</v>
       </c>
     </row>
     <row r="538" spans="1:22" x14ac:dyDescent="0.2">
@@ -38268,67 +38268,135 @@
         <v>44562</v>
       </c>
       <c r="B538" s="9">
-        <v>231.88414030000001</v>
+        <v>230.92064260000001</v>
       </c>
       <c r="C538" s="9">
-        <v>117.0578828</v>
+        <v>116.758036</v>
       </c>
       <c r="D538" s="9">
-        <v>114.8262575</v>
+        <v>114.1626067</v>
       </c>
       <c r="E538" s="9">
-        <v>169.5514561</v>
+        <v>169.3175569</v>
       </c>
       <c r="F538" s="9">
-        <v>94.5767168</v>
+        <v>94.467152200000001</v>
       </c>
       <c r="G538" s="9">
-        <v>74.974739299999996</v>
+        <v>74.850404699999999</v>
       </c>
       <c r="H538" s="9">
-        <v>67.472514599999997</v>
+        <v>67.537638900000005</v>
       </c>
       <c r="I538" s="9">
-        <v>70.529968100000005</v>
+        <v>70.658813100000003</v>
       </c>
       <c r="J538" s="9">
-        <v>64.616949399999996</v>
+        <v>64.618392600000007</v>
       </c>
       <c r="K538" s="9">
-        <v>7.6091002999999997</v>
+        <v>7.5604344000000001</v>
       </c>
       <c r="L538" s="9">
-        <v>3.9580557999999999</v>
+        <v>3.9417127999999999</v>
       </c>
       <c r="M538" s="9">
-        <v>3.6510444999999998</v>
+        <v>3.6187216000000002</v>
       </c>
       <c r="N538" s="9">
-        <v>3.1771669999999999</v>
+        <v>3.170245</v>
       </c>
       <c r="O538" s="9">
-        <v>3.2706897000000001</v>
+        <v>3.2657175000000001</v>
       </c>
       <c r="P538" s="9">
-        <v>3.0816404999999998</v>
+        <v>3.0724068999999998</v>
       </c>
       <c r="Q538" s="9">
-        <v>239.49324060000001</v>
+        <v>238.481077</v>
       </c>
       <c r="R538" s="9">
-        <v>121.0159386</v>
+        <v>120.69974879999999</v>
       </c>
       <c r="S538" s="9">
-        <v>118.4773021</v>
+        <v>117.7813283</v>
       </c>
       <c r="T538" s="9">
-        <v>69.6865734</v>
+        <v>69.748848300000006</v>
       </c>
       <c r="U538" s="9">
-        <v>72.914784400000002</v>
+        <v>73.044231300000007</v>
       </c>
       <c r="V538" s="9">
-        <v>66.671526099999994</v>
+        <v>66.666663799999995</v>
+      </c>
+    </row>
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A539" s="10">
+        <v>44593</v>
+      </c>
+      <c r="B539" s="9">
+        <v>234.2622442</v>
+      </c>
+      <c r="C539" s="9">
+        <v>117.6827218</v>
+      </c>
+      <c r="D539" s="9">
+        <v>116.57952229999999</v>
+      </c>
+      <c r="E539" s="9">
+        <v>177.06351040000001</v>
+      </c>
+      <c r="F539" s="9">
+        <v>96.396356800000007</v>
+      </c>
+      <c r="G539" s="9">
+        <v>80.667153600000006</v>
+      </c>
+      <c r="H539" s="9">
+        <v>68.486718300000007</v>
+      </c>
+      <c r="I539" s="9">
+        <v>71.177487099999993</v>
+      </c>
+      <c r="J539" s="9">
+        <v>65.969240400000004</v>
+      </c>
+      <c r="K539" s="9">
+        <v>7.1343424000000004</v>
+      </c>
+      <c r="L539" s="9">
+        <v>4.7172801</v>
+      </c>
+      <c r="M539" s="9">
+        <v>2.4170623</v>
+      </c>
+      <c r="N539" s="9">
+        <v>2.9554445999999999</v>
+      </c>
+      <c r="O539" s="9">
+        <v>3.8539870000000001</v>
+      </c>
+      <c r="P539" s="9">
+        <v>2.0312030999999999</v>
+      </c>
+      <c r="Q539" s="9">
+        <v>241.39658660000001</v>
+      </c>
+      <c r="R539" s="9">
+        <v>122.400002</v>
+      </c>
+      <c r="S539" s="9">
+        <v>118.9965847</v>
+      </c>
+      <c r="T539" s="9">
+        <v>70.5724479</v>
+      </c>
+      <c r="U539" s="9">
+        <v>74.030617399999997</v>
+      </c>
+      <c r="V539" s="9">
+        <v>67.336991499999996</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/6202.0/6202011a.xlsx
+++ b/data-raw/abs/6202.0/6202011a.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\LFS\HSF\M2203\IPE\Data Downloads\6202\LF status\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55442076-FC4B-457B-AA0D-3D9277F84921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14355" windowHeight="10560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -12,83 +18,83 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$539</definedName>
-    <definedName name="A84423195R_Data">Data1!$C$11:$C$539</definedName>
-    <definedName name="A84423195R_Latest">Data1!$C$539</definedName>
-    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$539</definedName>
-    <definedName name="A84423196T_Data">Data1!$L$11:$L$539</definedName>
-    <definedName name="A84423196T_Latest">Data1!$L$539</definedName>
-    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$539</definedName>
-    <definedName name="A84423197V_Data">Data1!$R$11:$R$539</definedName>
-    <definedName name="A84423197V_Latest">Data1!$R$539</definedName>
-    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$539</definedName>
-    <definedName name="A84423200W_Data">Data1!$O$11:$O$539</definedName>
-    <definedName name="A84423200W_Latest">Data1!$O$539</definedName>
-    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$539</definedName>
-    <definedName name="A84423201X_Data">Data1!$U$11:$U$539</definedName>
-    <definedName name="A84423201X_Latest">Data1!$U$539</definedName>
-    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$539</definedName>
-    <definedName name="A84423202A_Data">Data1!$I$11:$I$539</definedName>
-    <definedName name="A84423202A_Latest">Data1!$I$539</definedName>
-    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$539</definedName>
-    <definedName name="A84423203C_Data">Data1!$F$11:$F$539</definedName>
-    <definedName name="A84423203C_Latest">Data1!$F$539</definedName>
-    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$539</definedName>
-    <definedName name="A84423307W_Data">Data1!$B$11:$B$539</definedName>
-    <definedName name="A84423307W_Latest">Data1!$B$539</definedName>
-    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$539</definedName>
-    <definedName name="A84423308X_Data">Data1!$K$11:$K$539</definedName>
-    <definedName name="A84423308X_Latest">Data1!$K$539</definedName>
-    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$539</definedName>
-    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$539</definedName>
-    <definedName name="A84423309A_Latest">Data1!$Q$539</definedName>
-    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$539</definedName>
-    <definedName name="A84423312R_Data">Data1!$N$11:$N$539</definedName>
-    <definedName name="A84423312R_Latest">Data1!$N$539</definedName>
-    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$539</definedName>
-    <definedName name="A84423313T_Data">Data1!$T$11:$T$539</definedName>
-    <definedName name="A84423313T_Latest">Data1!$T$539</definedName>
-    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$539</definedName>
-    <definedName name="A84423314V_Data">Data1!$H$11:$H$539</definedName>
-    <definedName name="A84423314V_Latest">Data1!$H$539</definedName>
-    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$539</definedName>
-    <definedName name="A84423315W_Data">Data1!$E$11:$E$539</definedName>
-    <definedName name="A84423315W_Latest">Data1!$E$539</definedName>
-    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$539</definedName>
-    <definedName name="A84423419R_Data">Data1!$D$11:$D$539</definedName>
-    <definedName name="A84423419R_Latest">Data1!$D$539</definedName>
-    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$539</definedName>
-    <definedName name="A84423420X_Data">Data1!$M$11:$M$539</definedName>
-    <definedName name="A84423420X_Latest">Data1!$M$539</definedName>
-    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$539</definedName>
-    <definedName name="A84423421A_Data">Data1!$S$11:$S$539</definedName>
-    <definedName name="A84423421A_Latest">Data1!$S$539</definedName>
-    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$539</definedName>
-    <definedName name="A84423424J_Data">Data1!$P$11:$P$539</definedName>
-    <definedName name="A84423424J_Latest">Data1!$P$539</definedName>
-    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$539</definedName>
-    <definedName name="A84423425K_Data">Data1!$V$11:$V$539</definedName>
-    <definedName name="A84423425K_Latest">Data1!$V$539</definedName>
-    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$539</definedName>
-    <definedName name="A84423426L_Data">Data1!$J$11:$J$539</definedName>
-    <definedName name="A84423426L_Latest">Data1!$J$539</definedName>
-    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$539</definedName>
-    <definedName name="A84423427R_Data">Data1!$G$11:$G$539</definedName>
-    <definedName name="A84423427R_Latest">Data1!$G$539</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$539</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$539</definedName>
+    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$540</definedName>
+    <definedName name="A84423195R_Data">Data1!$C$11:$C$540</definedName>
+    <definedName name="A84423195R_Latest">Data1!$C$540</definedName>
+    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$540</definedName>
+    <definedName name="A84423196T_Data">Data1!$L$11:$L$540</definedName>
+    <definedName name="A84423196T_Latest">Data1!$L$540</definedName>
+    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$540</definedName>
+    <definedName name="A84423197V_Data">Data1!$R$11:$R$540</definedName>
+    <definedName name="A84423197V_Latest">Data1!$R$540</definedName>
+    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$540</definedName>
+    <definedName name="A84423200W_Data">Data1!$O$11:$O$540</definedName>
+    <definedName name="A84423200W_Latest">Data1!$O$540</definedName>
+    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$540</definedName>
+    <definedName name="A84423201X_Data">Data1!$U$11:$U$540</definedName>
+    <definedName name="A84423201X_Latest">Data1!$U$540</definedName>
+    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$540</definedName>
+    <definedName name="A84423202A_Data">Data1!$I$11:$I$540</definedName>
+    <definedName name="A84423202A_Latest">Data1!$I$540</definedName>
+    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$540</definedName>
+    <definedName name="A84423203C_Data">Data1!$F$11:$F$540</definedName>
+    <definedName name="A84423203C_Latest">Data1!$F$540</definedName>
+    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$540</definedName>
+    <definedName name="A84423307W_Data">Data1!$B$11:$B$540</definedName>
+    <definedName name="A84423307W_Latest">Data1!$B$540</definedName>
+    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$540</definedName>
+    <definedName name="A84423308X_Data">Data1!$K$11:$K$540</definedName>
+    <definedName name="A84423308X_Latest">Data1!$K$540</definedName>
+    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$540</definedName>
+    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$540</definedName>
+    <definedName name="A84423309A_Latest">Data1!$Q$540</definedName>
+    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$540</definedName>
+    <definedName name="A84423312R_Data">Data1!$N$11:$N$540</definedName>
+    <definedName name="A84423312R_Latest">Data1!$N$540</definedName>
+    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$540</definedName>
+    <definedName name="A84423313T_Data">Data1!$T$11:$T$540</definedName>
+    <definedName name="A84423313T_Latest">Data1!$T$540</definedName>
+    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$540</definedName>
+    <definedName name="A84423314V_Data">Data1!$H$11:$H$540</definedName>
+    <definedName name="A84423314V_Latest">Data1!$H$540</definedName>
+    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$540</definedName>
+    <definedName name="A84423315W_Data">Data1!$E$11:$E$540</definedName>
+    <definedName name="A84423315W_Latest">Data1!$E$540</definedName>
+    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$540</definedName>
+    <definedName name="A84423419R_Data">Data1!$D$11:$D$540</definedName>
+    <definedName name="A84423419R_Latest">Data1!$D$540</definedName>
+    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$540</definedName>
+    <definedName name="A84423420X_Data">Data1!$M$11:$M$540</definedName>
+    <definedName name="A84423420X_Latest">Data1!$M$540</definedName>
+    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$540</definedName>
+    <definedName name="A84423421A_Data">Data1!$S$11:$S$540</definedName>
+    <definedName name="A84423421A_Latest">Data1!$S$540</definedName>
+    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$540</definedName>
+    <definedName name="A84423424J_Data">Data1!$P$11:$P$540</definedName>
+    <definedName name="A84423424J_Latest">Data1!$P$540</definedName>
+    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$540</definedName>
+    <definedName name="A84423425K_Data">Data1!$V$11:$V$540</definedName>
+    <definedName name="A84423425K_Latest">Data1!$V$540</definedName>
+    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$540</definedName>
+    <definedName name="A84423426L_Data">Data1!$J$11:$J$540</definedName>
+    <definedName name="A84423426L_Latest">Data1!$J$540</definedName>
+    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$540</definedName>
+    <definedName name="A84423427R_Data">Data1!$G$11:$G$540</definedName>
+    <definedName name="A84423427R_Latest">Data1!$G$540</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$540</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$540</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,12 +113,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ABS</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0;@"/>
@@ -477,9 +483,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -498,6 +501,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,6 +514,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -530,7 +539,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -579,7 +594,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -654,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,9 +708,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,6 +760,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -969,57 +1024,57 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1030,19 +1085,19 @@
       <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="10">
         <v>28522</v>
       </c>
       <c r="G12" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="11">
-        <v>529</v>
-      </c>
-      <c r="I12" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="11" t="s">
@@ -1062,19 +1117,19 @@
       <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10">
         <v>28522</v>
       </c>
       <c r="G13" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="11">
-        <v>529</v>
-      </c>
-      <c r="I13" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="11" t="s">
@@ -1094,19 +1149,19 @@
       <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="10">
         <v>28522</v>
       </c>
       <c r="G14" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="11">
-        <v>529</v>
-      </c>
-      <c r="I14" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -1126,19 +1181,19 @@
       <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="10">
         <v>28522</v>
       </c>
       <c r="G15" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="11">
-        <v>529</v>
-      </c>
-      <c r="I15" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I15" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -1158,19 +1213,19 @@
       <c r="D16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="10">
         <v>28522</v>
       </c>
       <c r="G16" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="11">
-        <v>529</v>
-      </c>
-      <c r="I16" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="11" t="s">
@@ -1190,19 +1245,19 @@
       <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="10">
         <v>28522</v>
       </c>
       <c r="G17" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="11">
-        <v>529</v>
-      </c>
-      <c r="I17" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I17" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -1222,17 +1277,17 @@
       <c r="D18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="10">
         <v>28522</v>
       </c>
       <c r="G18" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>40</v>
@@ -1254,17 +1309,17 @@
       <c r="D19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="10">
         <v>28522</v>
       </c>
       <c r="G19" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>40</v>
@@ -1286,17 +1341,17 @@
       <c r="D20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="10">
         <v>28522</v>
       </c>
       <c r="G20" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>40</v>
@@ -1318,19 +1373,19 @@
       <c r="D21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="10">
         <v>28522</v>
       </c>
       <c r="G21" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="11">
-        <v>529</v>
-      </c>
-      <c r="I21" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="11" t="s">
@@ -1350,19 +1405,19 @@
       <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="10">
         <v>28522</v>
       </c>
       <c r="G22" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="11">
-        <v>529</v>
-      </c>
-      <c r="I22" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I22" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="11" t="s">
@@ -1382,19 +1437,19 @@
       <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>47</v>
       </c>
       <c r="F23" s="10">
         <v>28522</v>
       </c>
       <c r="G23" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="11">
-        <v>529</v>
-      </c>
-      <c r="I23" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="11" t="s">
@@ -1414,17 +1469,17 @@
       <c r="D24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="10">
         <v>28522</v>
       </c>
       <c r="G24" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -1446,17 +1501,17 @@
       <c r="D25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="10">
         <v>28522</v>
       </c>
       <c r="G25" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -1478,17 +1533,17 @@
       <c r="D26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="10">
         <v>28522</v>
       </c>
       <c r="G26" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -1510,19 +1565,19 @@
       <c r="D27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="10">
         <v>28522</v>
       </c>
       <c r="G27" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="11">
-        <v>529</v>
-      </c>
-      <c r="I27" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I27" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J27" s="11" t="s">
@@ -1542,19 +1597,19 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="10">
         <v>28522</v>
       </c>
       <c r="G28" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="11">
-        <v>529</v>
-      </c>
-      <c r="I28" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I28" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J28" s="11" t="s">
@@ -1574,19 +1629,19 @@
       <c r="D29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="10">
         <v>28522</v>
       </c>
       <c r="G29" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="11">
-        <v>529</v>
-      </c>
-      <c r="I29" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="I29" s="20" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="11" t="s">
@@ -1606,17 +1661,17 @@
       <c r="D30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="10">
         <v>28522</v>
       </c>
       <c r="G30" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -1638,17 +1693,17 @@
       <c r="D31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="10">
         <v>28522</v>
       </c>
       <c r="G31" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -1670,17 +1725,17 @@
       <c r="D32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="10">
         <v>28522</v>
       </c>
       <c r="G32" s="10">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="11">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -1705,28 +1760,28 @@
     <mergeCell ref="B6:L6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries"/>
-    <hyperlink ref="E12" location="A84423307W" display="A84423307W"/>
-    <hyperlink ref="E13" location="A84423195R" display="A84423195R"/>
-    <hyperlink ref="E14" location="A84423419R" display="A84423419R"/>
-    <hyperlink ref="E15" location="A84423315W" display="A84423315W"/>
-    <hyperlink ref="E16" location="A84423203C" display="A84423203C"/>
-    <hyperlink ref="E17" location="A84423427R" display="A84423427R"/>
-    <hyperlink ref="E18" location="A84423314V" display="A84423314V"/>
-    <hyperlink ref="E19" location="A84423202A" display="A84423202A"/>
-    <hyperlink ref="E20" location="A84423426L" display="A84423426L"/>
-    <hyperlink ref="E21" location="A84423308X" display="A84423308X"/>
-    <hyperlink ref="E22" location="A84423196T" display="A84423196T"/>
-    <hyperlink ref="E23" location="A84423420X" display="A84423420X"/>
-    <hyperlink ref="E24" location="A84423312R" display="A84423312R"/>
-    <hyperlink ref="E25" location="A84423200W" display="A84423200W"/>
-    <hyperlink ref="E26" location="A84423424J" display="A84423424J"/>
-    <hyperlink ref="E27" location="A84423309A" display="A84423309A"/>
-    <hyperlink ref="E28" location="A84423197V" display="A84423197V"/>
-    <hyperlink ref="E29" location="A84423421A" display="A84423421A"/>
-    <hyperlink ref="E30" location="A84423313T" display="A84423313T"/>
-    <hyperlink ref="E31" location="A84423201X" display="A84423201X"/>
-    <hyperlink ref="E32" location="A84423425K" display="A84423425K"/>
+    <hyperlink ref="D8" location="Enquiries!A1" display="Enquiries" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E12" location="A84423307W" display="A84423307W" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E13" location="A84423195R" display="A84423195R" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E14" location="A84423419R" display="A84423419R" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E15" location="A84423315W" display="A84423315W" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E16" location="A84423203C" display="A84423203C" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E17" location="A84423427R" display="A84423427R" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E18" location="A84423314V" display="A84423314V" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E19" location="A84423202A" display="A84423202A" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E20" location="A84423426L" display="A84423426L" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E21" location="A84423308X" display="A84423308X" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E22" location="A84423196T" display="A84423196T" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E23" location="A84423420X" display="A84423420X" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E24" location="A84423312R" display="A84423312R" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E25" location="A84423200W" display="A84423200W" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E26" location="A84423424J" display="A84423424J" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E27" location="A84423309A" display="A84423309A" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E28" location="A84423197V" display="A84423197V" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E29" location="A84423421A" display="A84423421A" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E30" location="A84423313T" display="A84423313T" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E31" location="A84423201X" display="A84423201X" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E32" location="A84423425K" display="A84423425K" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1735,8 +1790,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V539"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2228,67 +2283,67 @@
         <v>27</v>
       </c>
       <c r="B8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44593</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2296,67 +2351,67 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="R9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="S9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="T9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="U9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="V9" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -37928,67 +37983,67 @@
         <v>44409</v>
       </c>
       <c r="B533" s="9">
-        <v>231.87567139999999</v>
+        <v>231.87550379999999</v>
       </c>
       <c r="C533" s="9">
-        <v>117.5927157</v>
+        <v>117.5924698</v>
       </c>
       <c r="D533" s="9">
-        <v>114.2829557</v>
+        <v>114.28303409999999</v>
       </c>
       <c r="E533" s="9">
-        <v>175.1571898</v>
+        <v>175.15708509999999</v>
       </c>
       <c r="F533" s="9">
-        <v>96.959509999999995</v>
+        <v>96.959405200000006</v>
       </c>
       <c r="G533" s="9">
         <v>78.197679899999997</v>
       </c>
       <c r="H533" s="9">
-        <v>67.6938107</v>
+        <v>67.693761800000004</v>
       </c>
       <c r="I533" s="9">
-        <v>71.001090199999993</v>
+        <v>71.000941800000007</v>
       </c>
       <c r="J533" s="9">
-        <v>64.597663100000005</v>
+        <v>64.597707400000004</v>
       </c>
       <c r="K533" s="9">
-        <v>8.2165686999999998</v>
+        <v>8.2152980000000007</v>
       </c>
       <c r="L533" s="9">
-        <v>4.5387805999999999</v>
+        <v>4.5376558999999999</v>
       </c>
       <c r="M533" s="9">
-        <v>3.6777880999999999</v>
+        <v>3.6776420999999999</v>
       </c>
       <c r="N533" s="9">
-        <v>3.4222549999999998</v>
+        <v>3.4217461999999998</v>
       </c>
       <c r="O533" s="9">
-        <v>3.7163064000000001</v>
+        <v>3.7154272000000002</v>
       </c>
       <c r="P533" s="9">
-        <v>3.1178067999999999</v>
+        <v>3.1176848000000001</v>
       </c>
       <c r="Q533" s="9">
-        <v>240.0922401</v>
+        <v>240.09080180000001</v>
       </c>
       <c r="R533" s="9">
-        <v>122.13149629999999</v>
+        <v>122.13012569999999</v>
       </c>
       <c r="S533" s="9">
-        <v>117.9607438</v>
+        <v>117.9606761</v>
       </c>
       <c r="T533" s="9">
-        <v>70.092556700000003</v>
+        <v>70.092136800000006</v>
       </c>
       <c r="U533" s="9">
-        <v>73.741552299999995</v>
+        <v>73.740724700000001</v>
       </c>
       <c r="V533" s="9">
-        <v>66.676507799999996</v>
+        <v>66.676469600000004</v>
       </c>
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.2">
@@ -38363,40 +38418,108 @@
         <v>65.969240400000004</v>
       </c>
       <c r="K539" s="9">
-        <v>7.1343424000000004</v>
+        <v>7.1300533000000001</v>
       </c>
       <c r="L539" s="9">
-        <v>4.7172801</v>
+        <v>4.7121252</v>
       </c>
       <c r="M539" s="9">
-        <v>2.4170623</v>
+        <v>2.4179281000000001</v>
       </c>
       <c r="N539" s="9">
-        <v>2.9554445999999999</v>
+        <v>2.9537203000000001</v>
       </c>
       <c r="O539" s="9">
-        <v>3.8539870000000001</v>
+        <v>3.8499376000000001</v>
       </c>
       <c r="P539" s="9">
-        <v>2.0312030999999999</v>
+        <v>2.0319159</v>
       </c>
       <c r="Q539" s="9">
-        <v>241.39658660000001</v>
+        <v>241.39229750000001</v>
       </c>
       <c r="R539" s="9">
-        <v>122.400002</v>
+        <v>122.394847</v>
       </c>
       <c r="S539" s="9">
-        <v>118.9965847</v>
+        <v>118.99745040000001</v>
       </c>
       <c r="T539" s="9">
-        <v>70.5724479</v>
+        <v>70.571194000000006</v>
       </c>
       <c r="U539" s="9">
-        <v>74.030617399999997</v>
+        <v>74.027499599999999</v>
       </c>
       <c r="V539" s="9">
-        <v>67.336991499999996</v>
+        <v>67.337481400000001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A540" s="10">
+        <v>44621</v>
+      </c>
+      <c r="B540" s="9">
+        <v>235.397087</v>
+      </c>
+      <c r="C540" s="9">
+        <v>119.84738849999999</v>
+      </c>
+      <c r="D540" s="9">
+        <v>115.54969850000001</v>
+      </c>
+      <c r="E540" s="9">
+        <v>174.21380909999999</v>
+      </c>
+      <c r="F540" s="9">
+        <v>96.637757899999997</v>
+      </c>
+      <c r="G540" s="9">
+        <v>77.576051100000001</v>
+      </c>
+      <c r="H540" s="9">
+        <v>68.789732000000001</v>
+      </c>
+      <c r="I540" s="9">
+        <v>72.445106499999994</v>
+      </c>
+      <c r="J540" s="9">
+        <v>65.368735200000003</v>
+      </c>
+      <c r="K540" s="9">
+        <v>8.2326668999999999</v>
+      </c>
+      <c r="L540" s="9">
+        <v>4.4096507999999996</v>
+      </c>
+      <c r="M540" s="9">
+        <v>3.8230160999999998</v>
+      </c>
+      <c r="N540" s="9">
+        <v>3.3791714000000002</v>
+      </c>
+      <c r="O540" s="9">
+        <v>3.5488135999999999</v>
+      </c>
+      <c r="P540" s="9">
+        <v>3.2025879000000002</v>
+      </c>
+      <c r="Q540" s="9">
+        <v>243.6297539</v>
+      </c>
+      <c r="R540" s="9">
+        <v>124.2570393</v>
+      </c>
+      <c r="S540" s="9">
+        <v>119.37271459999999</v>
+      </c>
+      <c r="T540" s="9">
+        <v>71.195551699999996</v>
+      </c>
+      <c r="U540" s="9">
+        <v>75.110643199999998</v>
+      </c>
+      <c r="V540" s="9">
+        <v>67.531490599999998</v>
       </c>
     </row>
   </sheetData>
@@ -38406,7 +38529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Z11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -38480,22 +38603,22 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="10" spans="2:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>60</v>
       </c>
     </row>

--- a/data-raw/abs/6202.0/6202011a.xlsx
+++ b/data-raw/abs/6202.0/6202011a.xlsx
@@ -12,71 +12,71 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$541</definedName>
-    <definedName name="A84423195R_Data">Data1!$C$11:$C$541</definedName>
-    <definedName name="A84423195R_Latest">Data1!$C$541</definedName>
-    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$541</definedName>
-    <definedName name="A84423196T_Data">Data1!$L$11:$L$541</definedName>
-    <definedName name="A84423196T_Latest">Data1!$L$541</definedName>
-    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$541</definedName>
-    <definedName name="A84423197V_Data">Data1!$R$11:$R$541</definedName>
-    <definedName name="A84423197V_Latest">Data1!$R$541</definedName>
-    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$541</definedName>
-    <definedName name="A84423200W_Data">Data1!$O$11:$O$541</definedName>
-    <definedName name="A84423200W_Latest">Data1!$O$541</definedName>
-    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$541</definedName>
-    <definedName name="A84423201X_Data">Data1!$U$11:$U$541</definedName>
-    <definedName name="A84423201X_Latest">Data1!$U$541</definedName>
-    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$541</definedName>
-    <definedName name="A84423202A_Data">Data1!$I$11:$I$541</definedName>
-    <definedName name="A84423202A_Latest">Data1!$I$541</definedName>
-    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$541</definedName>
-    <definedName name="A84423203C_Data">Data1!$F$11:$F$541</definedName>
-    <definedName name="A84423203C_Latest">Data1!$F$541</definedName>
-    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$541</definedName>
-    <definedName name="A84423307W_Data">Data1!$B$11:$B$541</definedName>
-    <definedName name="A84423307W_Latest">Data1!$B$541</definedName>
-    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$541</definedName>
-    <definedName name="A84423308X_Data">Data1!$K$11:$K$541</definedName>
-    <definedName name="A84423308X_Latest">Data1!$K$541</definedName>
-    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$541</definedName>
-    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$541</definedName>
-    <definedName name="A84423309A_Latest">Data1!$Q$541</definedName>
-    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$541</definedName>
-    <definedName name="A84423312R_Data">Data1!$N$11:$N$541</definedName>
-    <definedName name="A84423312R_Latest">Data1!$N$541</definedName>
-    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$541</definedName>
-    <definedName name="A84423313T_Data">Data1!$T$11:$T$541</definedName>
-    <definedName name="A84423313T_Latest">Data1!$T$541</definedName>
-    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$541</definedName>
-    <definedName name="A84423314V_Data">Data1!$H$11:$H$541</definedName>
-    <definedName name="A84423314V_Latest">Data1!$H$541</definedName>
-    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$541</definedName>
-    <definedName name="A84423315W_Data">Data1!$E$11:$E$541</definedName>
-    <definedName name="A84423315W_Latest">Data1!$E$541</definedName>
-    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$541</definedName>
-    <definedName name="A84423419R_Data">Data1!$D$11:$D$541</definedName>
-    <definedName name="A84423419R_Latest">Data1!$D$541</definedName>
-    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$541</definedName>
-    <definedName name="A84423420X_Data">Data1!$M$11:$M$541</definedName>
-    <definedName name="A84423420X_Latest">Data1!$M$541</definedName>
-    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$541</definedName>
-    <definedName name="A84423421A_Data">Data1!$S$11:$S$541</definedName>
-    <definedName name="A84423421A_Latest">Data1!$S$541</definedName>
-    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$541</definedName>
-    <definedName name="A84423424J_Data">Data1!$P$11:$P$541</definedName>
-    <definedName name="A84423424J_Latest">Data1!$P$541</definedName>
-    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$541</definedName>
-    <definedName name="A84423425K_Data">Data1!$V$11:$V$541</definedName>
-    <definedName name="A84423425K_Latest">Data1!$V$541</definedName>
-    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$541</definedName>
-    <definedName name="A84423426L_Data">Data1!$J$11:$J$541</definedName>
-    <definedName name="A84423426L_Latest">Data1!$J$541</definedName>
-    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$541</definedName>
-    <definedName name="A84423427R_Data">Data1!$G$11:$G$541</definedName>
-    <definedName name="A84423427R_Latest">Data1!$G$541</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$541</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$541</definedName>
+    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$542</definedName>
+    <definedName name="A84423195R_Data">Data1!$C$11:$C$542</definedName>
+    <definedName name="A84423195R_Latest">Data1!$C$542</definedName>
+    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$542</definedName>
+    <definedName name="A84423196T_Data">Data1!$L$11:$L$542</definedName>
+    <definedName name="A84423196T_Latest">Data1!$L$542</definedName>
+    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$542</definedName>
+    <definedName name="A84423197V_Data">Data1!$R$11:$R$542</definedName>
+    <definedName name="A84423197V_Latest">Data1!$R$542</definedName>
+    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$542</definedName>
+    <definedName name="A84423200W_Data">Data1!$O$11:$O$542</definedName>
+    <definedName name="A84423200W_Latest">Data1!$O$542</definedName>
+    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$542</definedName>
+    <definedName name="A84423201X_Data">Data1!$U$11:$U$542</definedName>
+    <definedName name="A84423201X_Latest">Data1!$U$542</definedName>
+    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$542</definedName>
+    <definedName name="A84423202A_Data">Data1!$I$11:$I$542</definedName>
+    <definedName name="A84423202A_Latest">Data1!$I$542</definedName>
+    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$542</definedName>
+    <definedName name="A84423203C_Data">Data1!$F$11:$F$542</definedName>
+    <definedName name="A84423203C_Latest">Data1!$F$542</definedName>
+    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$542</definedName>
+    <definedName name="A84423307W_Data">Data1!$B$11:$B$542</definedName>
+    <definedName name="A84423307W_Latest">Data1!$B$542</definedName>
+    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$542</definedName>
+    <definedName name="A84423308X_Data">Data1!$K$11:$K$542</definedName>
+    <definedName name="A84423308X_Latest">Data1!$K$542</definedName>
+    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$542</definedName>
+    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$542</definedName>
+    <definedName name="A84423309A_Latest">Data1!$Q$542</definedName>
+    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$542</definedName>
+    <definedName name="A84423312R_Data">Data1!$N$11:$N$542</definedName>
+    <definedName name="A84423312R_Latest">Data1!$N$542</definedName>
+    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$542</definedName>
+    <definedName name="A84423313T_Data">Data1!$T$11:$T$542</definedName>
+    <definedName name="A84423313T_Latest">Data1!$T$542</definedName>
+    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$542</definedName>
+    <definedName name="A84423314V_Data">Data1!$H$11:$H$542</definedName>
+    <definedName name="A84423314V_Latest">Data1!$H$542</definedName>
+    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$542</definedName>
+    <definedName name="A84423315W_Data">Data1!$E$11:$E$542</definedName>
+    <definedName name="A84423315W_Latest">Data1!$E$542</definedName>
+    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$542</definedName>
+    <definedName name="A84423419R_Data">Data1!$D$11:$D$542</definedName>
+    <definedName name="A84423419R_Latest">Data1!$D$542</definedName>
+    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$542</definedName>
+    <definedName name="A84423420X_Data">Data1!$M$11:$M$542</definedName>
+    <definedName name="A84423420X_Latest">Data1!$M$542</definedName>
+    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$542</definedName>
+    <definedName name="A84423421A_Data">Data1!$S$11:$S$542</definedName>
+    <definedName name="A84423421A_Latest">Data1!$S$542</definedName>
+    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$542</definedName>
+    <definedName name="A84423424J_Data">Data1!$P$11:$P$542</definedName>
+    <definedName name="A84423424J_Latest">Data1!$P$542</definedName>
+    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$542</definedName>
+    <definedName name="A84423425K_Data">Data1!$V$11:$V$542</definedName>
+    <definedName name="A84423425K_Latest">Data1!$V$542</definedName>
+    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$542</definedName>
+    <definedName name="A84423426L_Data">Data1!$J$11:$J$542</definedName>
+    <definedName name="A84423426L_Latest">Data1!$J$542</definedName>
+    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$542</definedName>
+    <definedName name="A84423427R_Data">Data1!$G$11:$G$542</definedName>
+    <definedName name="A84423427R_Latest">Data1!$G$542</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$542</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$542</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1037,10 +1037,10 @@
         <v>28522</v>
       </c>
       <c r="G12" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H12" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>30</v>
@@ -1069,10 +1069,10 @@
         <v>28522</v>
       </c>
       <c r="G13" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H13" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>30</v>
@@ -1101,10 +1101,10 @@
         <v>28522</v>
       </c>
       <c r="G14" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H14" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>30</v>
@@ -1133,10 +1133,10 @@
         <v>28522</v>
       </c>
       <c r="G15" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H15" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>30</v>
@@ -1165,10 +1165,10 @@
         <v>28522</v>
       </c>
       <c r="G16" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H16" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>30</v>
@@ -1197,10 +1197,10 @@
         <v>28522</v>
       </c>
       <c r="G17" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H17" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>30</v>
@@ -1229,10 +1229,10 @@
         <v>28522</v>
       </c>
       <c r="G18" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H18" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>40</v>
@@ -1261,10 +1261,10 @@
         <v>28522</v>
       </c>
       <c r="G19" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H19" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>40</v>
@@ -1293,10 +1293,10 @@
         <v>28522</v>
       </c>
       <c r="G20" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H20" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>40</v>
@@ -1325,10 +1325,10 @@
         <v>28522</v>
       </c>
       <c r="G21" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H21" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>30</v>
@@ -1357,10 +1357,10 @@
         <v>28522</v>
       </c>
       <c r="G22" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H22" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>30</v>
@@ -1389,10 +1389,10 @@
         <v>28522</v>
       </c>
       <c r="G23" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H23" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>30</v>
@@ -1421,10 +1421,10 @@
         <v>28522</v>
       </c>
       <c r="G24" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H24" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -1453,10 +1453,10 @@
         <v>28522</v>
       </c>
       <c r="G25" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H25" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -1485,10 +1485,10 @@
         <v>28522</v>
       </c>
       <c r="G26" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H26" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -1517,10 +1517,10 @@
         <v>28522</v>
       </c>
       <c r="G27" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H27" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>30</v>
@@ -1549,10 +1549,10 @@
         <v>28522</v>
       </c>
       <c r="G28" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H28" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>30</v>
@@ -1581,10 +1581,10 @@
         <v>28522</v>
       </c>
       <c r="G29" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H29" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>30</v>
@@ -1613,10 +1613,10 @@
         <v>28522</v>
       </c>
       <c r="G30" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H30" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -1645,10 +1645,10 @@
         <v>28522</v>
       </c>
       <c r="G31" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H31" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -1677,10 +1677,10 @@
         <v>28522</v>
       </c>
       <c r="G32" s="10">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H32" s="11">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -1736,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V541"/>
+  <dimension ref="A1:V542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2228,67 +2228,67 @@
         <v>27</v>
       </c>
       <c r="B8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="C8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="D8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="E8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="F8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="G8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="H8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="I8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="J8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="K8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="L8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="M8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="N8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="O8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="P8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="Q8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="R8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="S8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="T8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="U8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="V8" s="6">
-        <v>44652</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2296,67 +2296,67 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="S9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="T9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="U9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="V9" s="1">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -37248,67 +37248,67 @@
         <v>44105</v>
       </c>
       <c r="B523" s="9">
-        <v>246.53749260000001</v>
+        <v>246.54821680000001</v>
       </c>
       <c r="C523" s="9">
-        <v>122.9378141</v>
+        <v>122.9409108</v>
       </c>
       <c r="D523" s="9">
-        <v>123.5996785</v>
+        <v>123.60730599999999</v>
       </c>
       <c r="E523" s="9">
-        <v>179.01278479999999</v>
+        <v>179.0205326</v>
       </c>
       <c r="F523" s="9">
-        <v>102.16548469999999</v>
+        <v>102.1679165</v>
       </c>
       <c r="G523" s="9">
-        <v>76.847300000000004</v>
+        <v>76.852616100000006</v>
       </c>
       <c r="H523" s="9">
-        <v>71.896942800000005</v>
+        <v>71.897344500000003</v>
       </c>
       <c r="I523" s="9">
-        <v>74.107585200000003</v>
+        <v>74.107664999999997</v>
       </c>
       <c r="J523" s="9">
-        <v>69.825198400000005</v>
+        <v>69.825957200000005</v>
       </c>
       <c r="K523" s="9">
-        <v>10.037261300000001</v>
+        <v>10.037794399999999</v>
       </c>
       <c r="L523" s="9">
-        <v>4.8556298</v>
+        <v>4.8558121999999999</v>
       </c>
       <c r="M523" s="9">
-        <v>5.1816313999999997</v>
+        <v>5.1819822000000002</v>
       </c>
       <c r="N523" s="9">
-        <v>3.9120222</v>
+        <v>3.9120583</v>
       </c>
       <c r="O523" s="9">
-        <v>3.7995923</v>
+        <v>3.7996374999999998</v>
       </c>
       <c r="P523" s="9">
-        <v>4.0235896000000002</v>
+        <v>4.0236127000000002</v>
       </c>
       <c r="Q523" s="9">
-        <v>256.57475390000002</v>
+        <v>256.58601119999997</v>
       </c>
       <c r="R523" s="9">
-        <v>127.7934439</v>
+        <v>127.79672290000001</v>
       </c>
       <c r="S523" s="9">
-        <v>128.7813099</v>
+        <v>128.78928819999999</v>
       </c>
       <c r="T523" s="9">
-        <v>74.824077299999999</v>
+        <v>74.824523499999998</v>
       </c>
       <c r="U523" s="9">
-        <v>77.034585300000003</v>
+        <v>77.034704399999995</v>
       </c>
       <c r="V523" s="9">
-        <v>72.752458799999999</v>
+        <v>72.753266999999994</v>
       </c>
     </row>
     <row r="524" spans="1:22" x14ac:dyDescent="0.2">
@@ -37316,67 +37316,67 @@
         <v>44136</v>
       </c>
       <c r="B524" s="9">
-        <v>241.91798130000001</v>
+        <v>241.94069429999999</v>
       </c>
       <c r="C524" s="9">
-        <v>122.05620279999999</v>
+        <v>122.0669023</v>
       </c>
       <c r="D524" s="9">
-        <v>119.8617785</v>
+        <v>119.87379199999999</v>
       </c>
       <c r="E524" s="9">
-        <v>176.8129362</v>
+        <v>176.82895199999999</v>
       </c>
       <c r="F524" s="9">
-        <v>100.436074</v>
+        <v>100.4440949</v>
       </c>
       <c r="G524" s="9">
-        <v>76.376862200000005</v>
+        <v>76.384857100000005</v>
       </c>
       <c r="H524" s="9">
-        <v>70.542157799999998</v>
+        <v>70.543226899999993</v>
       </c>
       <c r="I524" s="9">
-        <v>73.584572899999998</v>
+        <v>73.5856998</v>
       </c>
       <c r="J524" s="9">
-        <v>67.692130500000005</v>
+        <v>67.693180699999999</v>
       </c>
       <c r="K524" s="9">
-        <v>10.088916899999999</v>
+        <v>10.090696599999999</v>
       </c>
       <c r="L524" s="9">
-        <v>5.1442426000000001</v>
+        <v>5.1451361000000002</v>
       </c>
       <c r="M524" s="9">
-        <v>4.9446743</v>
+        <v>4.9455605</v>
       </c>
       <c r="N524" s="9">
-        <v>4.0034289000000003</v>
+        <v>4.0037459000000002</v>
       </c>
       <c r="O524" s="9">
-        <v>4.0442017000000003</v>
+        <v>4.0445355000000003</v>
       </c>
       <c r="P524" s="9">
-        <v>3.9618739999999999</v>
+        <v>3.9621743999999999</v>
       </c>
       <c r="Q524" s="9">
-        <v>252.00689819999999</v>
+        <v>252.03139089999999</v>
       </c>
       <c r="R524" s="9">
-        <v>127.20044540000001</v>
+        <v>127.2120384</v>
       </c>
       <c r="S524" s="9">
-        <v>124.8064528</v>
+        <v>124.81935249999999</v>
       </c>
       <c r="T524" s="9">
-        <v>73.484038999999996</v>
+        <v>73.485395400000002</v>
       </c>
       <c r="U524" s="9">
-        <v>76.685905700000006</v>
+        <v>76.6873468</v>
       </c>
       <c r="V524" s="9">
-        <v>70.484643199999994</v>
+        <v>70.485957200000001</v>
       </c>
     </row>
     <row r="525" spans="1:22" x14ac:dyDescent="0.2">
@@ -37384,67 +37384,67 @@
         <v>44166</v>
       </c>
       <c r="B525" s="9">
-        <v>238.2654727</v>
+        <v>238.29938240000001</v>
       </c>
       <c r="C525" s="9">
-        <v>119.1068478</v>
+        <v>119.12182850000001</v>
       </c>
       <c r="D525" s="9">
-        <v>119.15862490000001</v>
+        <v>119.1775538</v>
       </c>
       <c r="E525" s="9">
-        <v>177.15773300000001</v>
+        <v>177.18429320000001</v>
       </c>
       <c r="F525" s="9">
-        <v>99.885165999999998</v>
+        <v>99.898112499999996</v>
       </c>
       <c r="G525" s="9">
-        <v>77.272566999999995</v>
+        <v>77.286180799999997</v>
       </c>
       <c r="H525" s="9">
-        <v>69.469405600000002</v>
+        <v>69.470987800000003</v>
       </c>
       <c r="I525" s="9">
-        <v>71.813409100000001</v>
+        <v>71.815080499999993</v>
       </c>
       <c r="J525" s="9">
-        <v>67.274506900000006</v>
+        <v>67.276077999999998</v>
       </c>
       <c r="K525" s="9">
-        <v>9.2225708999999991</v>
+        <v>9.2245752999999997</v>
       </c>
       <c r="L525" s="9">
-        <v>4.3533648999999999</v>
+        <v>4.3545411999999999</v>
       </c>
       <c r="M525" s="9">
-        <v>4.8692060000000001</v>
+        <v>4.8700342000000001</v>
       </c>
       <c r="N525" s="9">
-        <v>3.7264713</v>
+        <v>3.7267404000000002</v>
       </c>
       <c r="O525" s="9">
-        <v>3.5261277999999998</v>
+        <v>3.5266190000000002</v>
       </c>
       <c r="P525" s="9">
-        <v>3.9258978999999998</v>
+        <v>3.9259401999999999</v>
       </c>
       <c r="Q525" s="9">
-        <v>247.4880436</v>
+        <v>247.52395770000001</v>
       </c>
       <c r="R525" s="9">
-        <v>123.4602127</v>
+        <v>123.47636970000001</v>
       </c>
       <c r="S525" s="9">
-        <v>124.0278309</v>
+        <v>124.047588</v>
       </c>
       <c r="T525" s="9">
-        <v>72.158366400000006</v>
+        <v>72.160211599999997</v>
       </c>
       <c r="U525" s="9">
-        <v>74.438194999999993</v>
+        <v>74.440306500000005</v>
       </c>
       <c r="V525" s="9">
-        <v>70.023560399999994</v>
+        <v>70.025226500000002</v>
       </c>
     </row>
     <row r="526" spans="1:22" x14ac:dyDescent="0.2">
@@ -37452,67 +37452,67 @@
         <v>44197</v>
       </c>
       <c r="B526" s="9">
-        <v>234.6584259</v>
+        <v>234.70198439999999</v>
       </c>
       <c r="C526" s="9">
-        <v>118.0422286</v>
+        <v>118.06388680000001</v>
       </c>
       <c r="D526" s="9">
-        <v>116.6161973</v>
+        <v>116.63809759999999</v>
       </c>
       <c r="E526" s="9">
-        <v>174.34544339999999</v>
+        <v>174.3774037</v>
       </c>
       <c r="F526" s="9">
-        <v>98.214336799999998</v>
+        <v>98.231458200000006</v>
       </c>
       <c r="G526" s="9">
-        <v>76.131106500000001</v>
+        <v>76.145945499999996</v>
       </c>
       <c r="H526" s="9">
-        <v>68.436081299999998</v>
+        <v>68.438006700000003</v>
       </c>
       <c r="I526" s="9">
-        <v>71.201566200000002</v>
+        <v>71.203463400000004</v>
       </c>
       <c r="J526" s="9">
-        <v>65.847283399999995</v>
+        <v>65.849238499999998</v>
       </c>
       <c r="K526" s="9">
-        <v>10.781961300000001</v>
+        <v>10.7854957</v>
       </c>
       <c r="L526" s="9">
-        <v>5.4768084999999997</v>
+        <v>5.4786748000000003</v>
       </c>
       <c r="M526" s="9">
-        <v>5.3051528000000001</v>
+        <v>5.3068209</v>
       </c>
       <c r="N526" s="9">
-        <v>4.3929042999999997</v>
+        <v>4.3935012999999996</v>
       </c>
       <c r="O526" s="9">
-        <v>4.4339792999999998</v>
+        <v>4.4346455999999996</v>
       </c>
       <c r="P526" s="9">
-        <v>4.3512909999999998</v>
+        <v>4.3518179999999997</v>
       </c>
       <c r="Q526" s="9">
-        <v>245.4403873</v>
+        <v>245.4874801</v>
       </c>
       <c r="R526" s="9">
-        <v>123.51903710000001</v>
+        <v>123.5425616</v>
       </c>
       <c r="S526" s="9">
-        <v>121.9213501</v>
+        <v>121.94491859999999</v>
       </c>
       <c r="T526" s="9">
-        <v>71.580546100000007</v>
+        <v>71.583006999999995</v>
       </c>
       <c r="U526" s="9">
-        <v>74.505107300000006</v>
+        <v>74.507611999999995</v>
       </c>
       <c r="V526" s="9">
-        <v>68.842835500000007</v>
+        <v>68.845258900000005</v>
       </c>
     </row>
     <row r="527" spans="1:22" x14ac:dyDescent="0.2">
@@ -37520,67 +37520,67 @@
         <v>44228</v>
       </c>
       <c r="B527" s="9">
-        <v>235.2184924</v>
+        <v>235.2677846</v>
       </c>
       <c r="C527" s="9">
-        <v>118.8374498</v>
+        <v>118.8593142</v>
       </c>
       <c r="D527" s="9">
-        <v>116.38104269999999</v>
+        <v>116.4084704</v>
       </c>
       <c r="E527" s="9">
-        <v>174.73673020000001</v>
+        <v>174.77017319999999</v>
       </c>
       <c r="F527" s="9">
-        <v>97.758343800000006</v>
+        <v>97.775132799999994</v>
       </c>
       <c r="G527" s="9">
-        <v>76.978386499999999</v>
+        <v>76.995040399999993</v>
       </c>
       <c r="H527" s="9">
-        <v>68.6172301</v>
+        <v>68.619398799999999</v>
       </c>
       <c r="I527" s="9">
-        <v>71.709781399999997</v>
+        <v>71.710426100000006</v>
       </c>
       <c r="J527" s="9">
-        <v>65.723038799999998</v>
+        <v>65.726650300000003</v>
       </c>
       <c r="K527" s="9">
-        <v>10.1786762</v>
+        <v>10.182541199999999</v>
       </c>
       <c r="L527" s="9">
-        <v>5.0181057999999998</v>
+        <v>5.0200113000000002</v>
       </c>
       <c r="M527" s="9">
-        <v>5.1605704000000001</v>
+        <v>5.1625297999999997</v>
       </c>
       <c r="N527" s="9">
-        <v>4.1478377000000002</v>
+        <v>4.1485139999999996</v>
       </c>
       <c r="O527" s="9">
-        <v>4.0515790999999997</v>
+        <v>4.0523398999999998</v>
       </c>
       <c r="P527" s="9">
-        <v>4.2459287999999997</v>
+        <v>4.2465142</v>
       </c>
       <c r="Q527" s="9">
-        <v>245.39716859999999</v>
+        <v>245.4503258</v>
       </c>
       <c r="R527" s="9">
-        <v>123.8555556</v>
+        <v>123.8793256</v>
       </c>
       <c r="S527" s="9">
-        <v>121.54161310000001</v>
+        <v>121.5710002</v>
       </c>
       <c r="T527" s="9">
-        <v>71.586522900000006</v>
+        <v>71.589290599999998</v>
       </c>
       <c r="U527" s="9">
-        <v>74.737844300000006</v>
+        <v>74.739108900000005</v>
       </c>
       <c r="V527" s="9">
-        <v>68.637331000000003</v>
+        <v>68.641522300000005</v>
       </c>
     </row>
     <row r="528" spans="1:22" x14ac:dyDescent="0.2">
@@ -37588,67 +37588,67 @@
         <v>44256</v>
       </c>
       <c r="B528" s="9">
-        <v>234.0453708</v>
+        <v>234.104546</v>
       </c>
       <c r="C528" s="9">
-        <v>118.9568053</v>
+        <v>118.9850907</v>
       </c>
       <c r="D528" s="9">
-        <v>115.0885655</v>
+        <v>115.1194553</v>
       </c>
       <c r="E528" s="9">
-        <v>172.5233854</v>
+        <v>172.56267740000001</v>
       </c>
       <c r="F528" s="9">
-        <v>96.566057099999995</v>
+        <v>96.5866319</v>
       </c>
       <c r="G528" s="9">
-        <v>75.957328200000006</v>
+        <v>75.976045499999998</v>
       </c>
       <c r="H528" s="9">
-        <v>68.293339099999997</v>
+        <v>68.295659900000004</v>
       </c>
       <c r="I528" s="9">
-        <v>71.811703699999995</v>
+        <v>71.8123054</v>
       </c>
       <c r="J528" s="9">
-        <v>65.001590199999995</v>
+        <v>65.005452199999993</v>
       </c>
       <c r="K528" s="9">
-        <v>8.6001543999999992</v>
+        <v>8.6051500000000001</v>
       </c>
       <c r="L528" s="9">
-        <v>4.2290916000000003</v>
+        <v>4.2324261999999999</v>
       </c>
       <c r="M528" s="9">
-        <v>4.3710627999999998</v>
+        <v>4.3727238000000002</v>
       </c>
       <c r="N528" s="9">
-        <v>3.5443283999999999</v>
+        <v>3.5454496</v>
       </c>
       <c r="O528" s="9">
-        <v>3.4330972000000002</v>
+        <v>3.4349224999999999</v>
       </c>
       <c r="P528" s="9">
-        <v>3.6590292999999998</v>
+        <v>3.6594226000000001</v>
       </c>
       <c r="Q528" s="9">
-        <v>242.64552520000001</v>
+        <v>242.70969600000001</v>
       </c>
       <c r="R528" s="9">
-        <v>123.1858969</v>
+        <v>123.21751690000001</v>
       </c>
       <c r="S528" s="9">
-        <v>119.45962830000001</v>
+        <v>119.4921791</v>
       </c>
       <c r="T528" s="9">
-        <v>70.802823799999999</v>
+        <v>70.806052800000003</v>
       </c>
       <c r="U528" s="9">
-        <v>74.364716700000002</v>
+        <v>74.366745499999993</v>
       </c>
       <c r="V528" s="9">
-        <v>67.470349999999996</v>
+        <v>67.474634199999997</v>
       </c>
     </row>
     <row r="529" spans="1:22" x14ac:dyDescent="0.2">
@@ -37656,67 +37656,67 @@
         <v>44287</v>
       </c>
       <c r="B529" s="9">
-        <v>236.38180299999999</v>
+        <v>236.44458789999999</v>
       </c>
       <c r="C529" s="9">
-        <v>120.15129279999999</v>
+        <v>120.1788952</v>
       </c>
       <c r="D529" s="9">
-        <v>116.2305102</v>
+        <v>116.2656927</v>
       </c>
       <c r="E529" s="9">
-        <v>172.00715829999999</v>
+        <v>172.04761569999999</v>
       </c>
       <c r="F529" s="9">
-        <v>96.954204700000005</v>
+        <v>96.973223000000004</v>
       </c>
       <c r="G529" s="9">
-        <v>75.052953599999995</v>
+        <v>75.074392700000004</v>
       </c>
       <c r="H529" s="9">
-        <v>68.942509400000006</v>
+        <v>68.944332399999993</v>
       </c>
       <c r="I529" s="9">
-        <v>72.492091900000005</v>
+        <v>72.492125299999998</v>
       </c>
       <c r="J529" s="9">
-        <v>65.620983199999998</v>
+        <v>65.624544400000005</v>
       </c>
       <c r="K529" s="9">
-        <v>8.4045372</v>
+        <v>8.4106134000000008</v>
       </c>
       <c r="L529" s="9">
-        <v>5.2144972999999997</v>
+        <v>5.2192971999999997</v>
       </c>
       <c r="M529" s="9">
-        <v>3.1900398999999999</v>
+        <v>3.1913162000000002</v>
       </c>
       <c r="N529" s="9">
-        <v>3.4334175999999998</v>
+        <v>3.4349335000000001</v>
       </c>
       <c r="O529" s="9">
-        <v>4.1594259999999998</v>
+        <v>4.1621790000000001</v>
       </c>
       <c r="P529" s="9">
-        <v>2.6712653999999998</v>
+        <v>2.6715186000000002</v>
       </c>
       <c r="Q529" s="9">
-        <v>244.78634020000001</v>
+        <v>244.8552014</v>
       </c>
       <c r="R529" s="9">
-        <v>125.3657901</v>
+        <v>125.3981924</v>
       </c>
       <c r="S529" s="9">
-        <v>119.42055000000001</v>
+        <v>119.457009</v>
       </c>
       <c r="T529" s="9">
-        <v>71.393755100000007</v>
+        <v>71.396763800000002</v>
       </c>
       <c r="U529" s="9">
-        <v>75.638207199999997</v>
+        <v>75.640414800000002</v>
       </c>
       <c r="V529" s="9">
-        <v>67.422003799999999</v>
+        <v>67.425838200000001</v>
       </c>
     </row>
     <row r="530" spans="1:22" x14ac:dyDescent="0.2">
@@ -37724,67 +37724,67 @@
         <v>44317</v>
       </c>
       <c r="B530" s="9">
-        <v>236.77060520000001</v>
+        <v>236.8393222</v>
       </c>
       <c r="C530" s="9">
-        <v>120.92384250000001</v>
+        <v>120.94814409999999</v>
       </c>
       <c r="D530" s="9">
-        <v>115.8467627</v>
+        <v>115.891178</v>
       </c>
       <c r="E530" s="9">
-        <v>171.75877449999999</v>
+        <v>171.7990801</v>
       </c>
       <c r="F530" s="9">
-        <v>96.749762000000004</v>
+        <v>96.764680400000003</v>
       </c>
       <c r="G530" s="9">
-        <v>75.009012499999997</v>
+        <v>75.034399800000003</v>
       </c>
       <c r="H530" s="9">
-        <v>69.023293899999999</v>
+        <v>69.024411599999993</v>
       </c>
       <c r="I530" s="9">
-        <v>72.914210100000005</v>
+        <v>72.914794299999997</v>
       </c>
       <c r="J530" s="9">
-        <v>65.381442500000006</v>
+        <v>65.3836309</v>
       </c>
       <c r="K530" s="9">
-        <v>9.0399145000000001</v>
+        <v>9.0441602999999997</v>
       </c>
       <c r="L530" s="9">
-        <v>5.0965914000000003</v>
+        <v>5.0995773</v>
       </c>
       <c r="M530" s="9">
-        <v>3.9433231000000002</v>
+        <v>3.9445830000000002</v>
       </c>
       <c r="N530" s="9">
-        <v>3.6775945999999999</v>
+        <v>3.6782300999999999</v>
       </c>
       <c r="O530" s="9">
-        <v>4.0442578999999999</v>
+        <v>4.0457513000000001</v>
       </c>
       <c r="P530" s="9">
-        <v>3.2918609999999999</v>
+        <v>3.2916577</v>
       </c>
       <c r="Q530" s="9">
-        <v>245.81051969999999</v>
+        <v>245.88348250000001</v>
       </c>
       <c r="R530" s="9">
-        <v>126.0204339</v>
+        <v>126.0477214</v>
       </c>
       <c r="S530" s="9">
-        <v>119.7900858</v>
+        <v>119.8357611</v>
       </c>
       <c r="T530" s="9">
-        <v>71.658607000000003</v>
+        <v>71.660240200000004</v>
       </c>
       <c r="U530" s="9">
-        <v>75.987333800000002</v>
+        <v>75.989125299999998</v>
       </c>
       <c r="V530" s="9">
-        <v>67.606969899999996</v>
+        <v>67.609090699999996</v>
       </c>
     </row>
     <row r="531" spans="1:22" x14ac:dyDescent="0.2">
@@ -37792,67 +37792,67 @@
         <v>44348</v>
       </c>
       <c r="B531" s="9">
-        <v>231.22774949999999</v>
+        <v>231.30166969999999</v>
       </c>
       <c r="C531" s="9">
-        <v>118.8941913</v>
+        <v>118.9176745</v>
       </c>
       <c r="D531" s="9">
-        <v>112.3335582</v>
+        <v>112.3839952</v>
       </c>
       <c r="E531" s="9">
-        <v>170.18649049999999</v>
+        <v>170.23374140000001</v>
       </c>
       <c r="F531" s="9">
-        <v>95.791422299999994</v>
+        <v>95.806835000000007</v>
       </c>
       <c r="G531" s="9">
-        <v>74.395068199999997</v>
+        <v>74.426906399999993</v>
       </c>
       <c r="H531" s="9">
-        <v>67.375623399999995</v>
+        <v>67.376744799999997</v>
       </c>
       <c r="I531" s="9">
-        <v>71.650199299999997</v>
+        <v>71.650533800000005</v>
       </c>
       <c r="J531" s="9">
-        <v>63.373985599999997</v>
+        <v>63.376696799999998</v>
       </c>
       <c r="K531" s="9">
-        <v>11.5627616</v>
+        <v>11.5705463</v>
       </c>
       <c r="L531" s="9">
-        <v>6.8690148000000004</v>
+        <v>6.8737196000000003</v>
       </c>
       <c r="M531" s="9">
-        <v>4.6937468999999998</v>
+        <v>4.6968266999999999</v>
       </c>
       <c r="N531" s="9">
-        <v>4.7624437999999998</v>
+        <v>4.7640469000000003</v>
       </c>
       <c r="O531" s="9">
-        <v>5.4618636</v>
+        <v>5.4643797999999997</v>
       </c>
       <c r="P531" s="9">
-        <v>4.0108134</v>
+        <v>4.0116106</v>
       </c>
       <c r="Q531" s="9">
-        <v>242.7905112</v>
+        <v>242.87221600000001</v>
       </c>
       <c r="R531" s="9">
-        <v>125.7632061</v>
+        <v>125.79139410000001</v>
       </c>
       <c r="S531" s="9">
-        <v>117.02730510000001</v>
+        <v>117.0808219</v>
       </c>
       <c r="T531" s="9">
-        <v>70.744804999999999</v>
+        <v>70.7471733</v>
       </c>
       <c r="U531" s="9">
-        <v>75.789731099999997</v>
+        <v>75.792102200000002</v>
       </c>
       <c r="V531" s="9">
-        <v>66.022005100000001</v>
+        <v>66.025377899999995</v>
       </c>
     </row>
     <row r="532" spans="1:22" x14ac:dyDescent="0.2">
@@ -37860,67 +37860,67 @@
         <v>44378</v>
       </c>
       <c r="B532" s="9">
-        <v>232.19526500000001</v>
+        <v>232.31967800000001</v>
       </c>
       <c r="C532" s="9">
-        <v>118.2346726</v>
+        <v>118.2859816</v>
       </c>
       <c r="D532" s="9">
-        <v>113.9605924</v>
+        <v>114.0336963</v>
       </c>
       <c r="E532" s="9">
-        <v>168.84541279999999</v>
+        <v>168.92513099999999</v>
       </c>
       <c r="F532" s="9">
-        <v>94.270557800000006</v>
+        <v>94.306946300000007</v>
       </c>
       <c r="G532" s="9">
-        <v>74.574854999999999</v>
+        <v>74.6181847</v>
       </c>
       <c r="H532" s="9">
-        <v>67.722066999999996</v>
+        <v>67.7263533</v>
       </c>
       <c r="I532" s="9">
-        <v>71.320227200000005</v>
+        <v>71.324932700000005</v>
       </c>
       <c r="J532" s="9">
-        <v>64.353611200000003</v>
+        <v>64.358186500000002</v>
       </c>
       <c r="K532" s="9">
-        <v>10.327677</v>
+        <v>10.334545500000001</v>
       </c>
       <c r="L532" s="9">
-        <v>5.8812610000000003</v>
+        <v>5.8852487</v>
       </c>
       <c r="M532" s="9">
-        <v>4.4464160000000001</v>
+        <v>4.4492967999999999</v>
       </c>
       <c r="N532" s="9">
-        <v>4.2584330000000001</v>
+        <v>4.2589597000000001</v>
       </c>
       <c r="O532" s="9">
-        <v>4.7385222000000002</v>
+        <v>4.7396234000000002</v>
       </c>
       <c r="P532" s="9">
-        <v>3.7551966999999999</v>
+        <v>3.7552197999999999</v>
       </c>
       <c r="Q532" s="9">
-        <v>242.522942</v>
+        <v>242.6542235</v>
       </c>
       <c r="R532" s="9">
-        <v>124.11593360000001</v>
+        <v>124.1712303</v>
       </c>
       <c r="S532" s="9">
-        <v>118.4070084</v>
+        <v>118.4829932</v>
       </c>
       <c r="T532" s="9">
-        <v>70.734237100000001</v>
+        <v>70.739103200000002</v>
       </c>
       <c r="U532" s="9">
-        <v>74.867857200000003</v>
+        <v>74.873662300000007</v>
       </c>
       <c r="V532" s="9">
-        <v>66.8645049</v>
+        <v>66.869274799999999</v>
       </c>
     </row>
     <row r="533" spans="1:22" x14ac:dyDescent="0.2">
@@ -37928,67 +37928,67 @@
         <v>44409</v>
       </c>
       <c r="B533" s="9">
-        <v>232.21313369999999</v>
+        <v>232.37829450000001</v>
       </c>
       <c r="C533" s="9">
-        <v>117.5102617</v>
+        <v>117.580894</v>
       </c>
       <c r="D533" s="9">
-        <v>114.70287209999999</v>
+        <v>114.79740049999999</v>
       </c>
       <c r="E533" s="9">
-        <v>174.711172</v>
+        <v>174.82564410000001</v>
       </c>
       <c r="F533" s="9">
-        <v>96.715674000000007</v>
+        <v>96.769092200000003</v>
       </c>
       <c r="G533" s="9">
-        <v>77.995498100000006</v>
+        <v>78.056551999999996</v>
       </c>
       <c r="H533" s="9">
-        <v>67.792329499999994</v>
+        <v>67.796607100000003</v>
       </c>
       <c r="I533" s="9">
-        <v>70.951305500000004</v>
+        <v>70.954538299999996</v>
       </c>
       <c r="J533" s="9">
-        <v>64.835018000000005</v>
+        <v>64.840803399999999</v>
       </c>
       <c r="K533" s="9">
-        <v>8.4441203999999992</v>
+        <v>8.4517868000000007</v>
       </c>
       <c r="L533" s="9">
-        <v>4.6283835</v>
+        <v>4.6325357</v>
       </c>
       <c r="M533" s="9">
-        <v>3.8157369000000001</v>
+        <v>3.819251</v>
       </c>
       <c r="N533" s="9">
-        <v>3.5087744999999999</v>
+        <v>3.5094398</v>
       </c>
       <c r="O533" s="9">
-        <v>3.7894505000000001</v>
+        <v>3.7905291999999999</v>
       </c>
       <c r="P533" s="9">
-        <v>3.2195255999999999</v>
+        <v>3.2198270999999998</v>
       </c>
       <c r="Q533" s="9">
-        <v>240.65725409999999</v>
+        <v>240.8300812</v>
       </c>
       <c r="R533" s="9">
-        <v>122.1386452</v>
+        <v>122.21342970000001</v>
       </c>
       <c r="S533" s="9">
-        <v>118.518609</v>
+        <v>118.6166515</v>
       </c>
       <c r="T533" s="9">
-        <v>70.257507000000004</v>
+        <v>70.262424600000003</v>
       </c>
       <c r="U533" s="9">
-        <v>73.745868700000003</v>
+        <v>73.750055700000004</v>
       </c>
       <c r="V533" s="9">
-        <v>66.9918373</v>
+        <v>66.998023900000007</v>
       </c>
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.2">
@@ -37996,67 +37996,67 @@
         <v>44440</v>
       </c>
       <c r="B534" s="9">
-        <v>224.58491280000001</v>
+        <v>224.7837241</v>
       </c>
       <c r="C534" s="9">
-        <v>114.0078888</v>
+        <v>114.09747160000001</v>
       </c>
       <c r="D534" s="9">
-        <v>110.57702399999999</v>
+        <v>110.68625249999999</v>
       </c>
       <c r="E534" s="9">
-        <v>170.57760930000001</v>
+        <v>170.71962139999999</v>
       </c>
       <c r="F534" s="9">
-        <v>93.774428099999994</v>
+        <v>93.843902499999999</v>
       </c>
       <c r="G534" s="9">
-        <v>76.803181199999997</v>
+        <v>76.875719000000004</v>
       </c>
       <c r="H534" s="9">
-        <v>65.627997199999996</v>
+        <v>65.632392300000006</v>
       </c>
       <c r="I534" s="9">
-        <v>68.901929600000003</v>
+        <v>68.906097000000003</v>
       </c>
       <c r="J534" s="9">
-        <v>62.563028099999997</v>
+        <v>62.568187700000003</v>
       </c>
       <c r="K534" s="9">
-        <v>9.4093944</v>
+        <v>9.4201385000000002</v>
       </c>
       <c r="L534" s="9">
-        <v>4.8332573999999999</v>
+        <v>4.8384641000000004</v>
       </c>
       <c r="M534" s="9">
-        <v>4.5761368999999998</v>
+        <v>4.5816743999999998</v>
       </c>
       <c r="N534" s="9">
-        <v>4.0212064999999999</v>
+        <v>4.0221960000000001</v>
       </c>
       <c r="O534" s="9">
-        <v>4.0669899000000003</v>
+        <v>4.0681263999999997</v>
       </c>
       <c r="P534" s="9">
-        <v>3.9739569000000001</v>
+        <v>3.9748041999999999</v>
       </c>
       <c r="Q534" s="9">
-        <v>233.99430720000001</v>
+        <v>234.20386260000001</v>
       </c>
       <c r="R534" s="9">
-        <v>118.8411462</v>
+        <v>118.9359357</v>
       </c>
       <c r="S534" s="9">
-        <v>115.1531609</v>
+        <v>115.26792690000001</v>
       </c>
       <c r="T534" s="9">
-        <v>68.3776017</v>
+        <v>68.382885999999999</v>
       </c>
       <c r="U534" s="9">
-        <v>71.822962200000006</v>
+        <v>71.828157099999999</v>
       </c>
       <c r="V534" s="9">
-        <v>65.152146299999998</v>
+        <v>65.158094399999996</v>
       </c>
     </row>
     <row r="535" spans="1:22" x14ac:dyDescent="0.2">
@@ -38064,67 +38064,67 @@
         <v>44470</v>
       </c>
       <c r="B535" s="9">
-        <v>219.07318570000001</v>
+        <v>219.5749332</v>
       </c>
       <c r="C535" s="9">
-        <v>110.36358250000001</v>
+        <v>110.6178524</v>
       </c>
       <c r="D535" s="9">
-        <v>108.7096033</v>
+        <v>108.9570808</v>
       </c>
       <c r="E535" s="9">
-        <v>169.53309279999999</v>
+        <v>169.87810859999999</v>
       </c>
       <c r="F535" s="9">
-        <v>93.736007700000002</v>
+        <v>93.920641799999999</v>
       </c>
       <c r="G535" s="9">
-        <v>75.797085199999998</v>
+        <v>75.957466800000006</v>
       </c>
       <c r="H535" s="9">
-        <v>64.044689300000002</v>
+        <v>64.045330699999994</v>
       </c>
       <c r="I535" s="9">
-        <v>66.742209299999999</v>
+        <v>66.741795800000006</v>
       </c>
       <c r="J535" s="9">
-        <v>61.5203889</v>
+        <v>61.521871900000001</v>
       </c>
       <c r="K535" s="9">
-        <v>15.2670347</v>
+        <v>15.334089799999999</v>
       </c>
       <c r="L535" s="9">
-        <v>9.1438433000000003</v>
+        <v>9.1890897000000002</v>
       </c>
       <c r="M535" s="9">
-        <v>6.1231913999999996</v>
+        <v>6.1450000999999999</v>
       </c>
       <c r="N535" s="9">
-        <v>6.5149016</v>
+        <v>6.5276717</v>
       </c>
       <c r="O535" s="9">
-        <v>7.6512763000000001</v>
+        <v>7.6699142</v>
       </c>
       <c r="P535" s="9">
-        <v>5.3322672000000004</v>
+        <v>5.3387393000000003</v>
       </c>
       <c r="Q535" s="9">
-        <v>234.34022039999999</v>
+        <v>234.90902299999999</v>
       </c>
       <c r="R535" s="9">
-        <v>119.50742579999999</v>
+        <v>119.8069421</v>
       </c>
       <c r="S535" s="9">
-        <v>114.83279469999999</v>
+        <v>115.1020809</v>
       </c>
       <c r="T535" s="9">
-        <v>68.507912399999995</v>
+        <v>68.517958100000001</v>
       </c>
       <c r="U535" s="9">
-        <v>72.271934700000003</v>
+        <v>72.2860759</v>
       </c>
       <c r="V535" s="9">
-        <v>64.985594399999997</v>
+        <v>64.991604199999998</v>
       </c>
     </row>
     <row r="536" spans="1:22" x14ac:dyDescent="0.2">
@@ -38132,67 +38132,67 @@
         <v>44501</v>
       </c>
       <c r="B536" s="9">
-        <v>227.6751294</v>
+        <v>228.59593820000001</v>
       </c>
       <c r="C536" s="9">
-        <v>116.4166579</v>
+        <v>116.9074622</v>
       </c>
       <c r="D536" s="9">
-        <v>111.2584715</v>
+        <v>111.6884759</v>
       </c>
       <c r="E536" s="9">
-        <v>172.45162250000001</v>
+        <v>173.05120930000001</v>
       </c>
       <c r="F536" s="9">
-        <v>95.482428299999995</v>
+        <v>95.7990171</v>
       </c>
       <c r="G536" s="9">
-        <v>76.969194200000004</v>
+        <v>77.252192100000002</v>
       </c>
       <c r="H536" s="9">
-        <v>66.587640699999994</v>
+        <v>66.606819900000005</v>
       </c>
       <c r="I536" s="9">
-        <v>70.447530700000002</v>
+        <v>70.468208300000001</v>
       </c>
       <c r="J536" s="9">
-        <v>62.977087400000002</v>
+        <v>62.993709000000003</v>
       </c>
       <c r="K536" s="9">
-        <v>8.9527585999999992</v>
+        <v>8.9952477000000002</v>
       </c>
       <c r="L536" s="9">
-        <v>4.5400505999999998</v>
+        <v>4.5589978000000002</v>
       </c>
       <c r="M536" s="9">
-        <v>4.4127080000000003</v>
+        <v>4.4362499</v>
       </c>
       <c r="N536" s="9">
-        <v>3.7834756999999999</v>
+        <v>3.7860190999999999</v>
       </c>
       <c r="O536" s="9">
-        <v>3.7534508</v>
+        <v>3.7532977000000001</v>
       </c>
       <c r="P536" s="9">
-        <v>3.8148724999999999</v>
+        <v>3.8202457000000001</v>
       </c>
       <c r="Q536" s="9">
-        <v>236.62788800000001</v>
+        <v>237.59118580000001</v>
       </c>
       <c r="R536" s="9">
-        <v>120.9567085</v>
+        <v>121.46646</v>
       </c>
       <c r="S536" s="9">
-        <v>115.67117949999999</v>
+        <v>116.12472579999999</v>
       </c>
       <c r="T536" s="9">
-        <v>69.206034200000005</v>
+        <v>69.227797600000002</v>
       </c>
       <c r="U536" s="9">
-        <v>73.194863900000001</v>
+        <v>73.216231399999998</v>
       </c>
       <c r="V536" s="9">
-        <v>65.474870300000006</v>
+        <v>65.495809800000004</v>
       </c>
     </row>
     <row r="537" spans="1:22" x14ac:dyDescent="0.2">
@@ -38200,67 +38200,67 @@
         <v>44531</v>
       </c>
       <c r="B537" s="9">
-        <v>226.41580759999999</v>
+        <v>227.67788229999999</v>
       </c>
       <c r="C537" s="9">
-        <v>116.6274098</v>
+        <v>117.2981001</v>
       </c>
       <c r="D537" s="9">
-        <v>109.78839790000001</v>
+        <v>110.3797823</v>
       </c>
       <c r="E537" s="9">
-        <v>169.24313230000001</v>
+        <v>170.02889010000001</v>
       </c>
       <c r="F537" s="9">
-        <v>93.965148400000004</v>
+        <v>94.393032399999996</v>
       </c>
       <c r="G537" s="9">
-        <v>75.277983899999995</v>
+        <v>75.635857700000003</v>
       </c>
       <c r="H537" s="9">
-        <v>66.248005300000003</v>
+        <v>66.270966700000002</v>
       </c>
       <c r="I537" s="9">
-        <v>70.620789900000005</v>
+        <v>70.6372511</v>
       </c>
       <c r="J537" s="9">
-        <v>62.159388200000002</v>
+        <v>62.186143199999997</v>
       </c>
       <c r="K537" s="9">
-        <v>10.445592599999999</v>
+        <v>10.529582100000001</v>
       </c>
       <c r="L537" s="9">
-        <v>5.0596294000000004</v>
+        <v>5.1187275999999997</v>
       </c>
       <c r="M537" s="9">
-        <v>5.3859632</v>
+        <v>5.4108545000000001</v>
       </c>
       <c r="N537" s="9">
-        <v>4.4100020000000004</v>
+        <v>4.4203409000000002</v>
       </c>
       <c r="O537" s="9">
-        <v>4.1579033000000001</v>
+        <v>4.1813921000000001</v>
       </c>
       <c r="P537" s="9">
-        <v>4.6763560000000002</v>
+        <v>4.6729637999999998</v>
       </c>
       <c r="Q537" s="9">
-        <v>236.86140019999999</v>
+        <v>238.20746439999999</v>
       </c>
       <c r="R537" s="9">
-        <v>121.6870392</v>
+        <v>122.4168276</v>
       </c>
       <c r="S537" s="9">
-        <v>115.174361</v>
+        <v>115.7906368</v>
       </c>
       <c r="T537" s="9">
-        <v>69.304327499999999</v>
+        <v>69.3358475</v>
       </c>
       <c r="U537" s="9">
-        <v>73.684521099999998</v>
+        <v>73.719763499999999</v>
       </c>
       <c r="V537" s="9">
-        <v>65.208783100000005</v>
+        <v>65.234529100000003</v>
       </c>
     </row>
     <row r="538" spans="1:22" x14ac:dyDescent="0.2">
@@ -38268,67 +38268,67 @@
         <v>44562</v>
       </c>
       <c r="B538" s="9">
-        <v>231.19729090000001</v>
+        <v>232.51550090000001</v>
       </c>
       <c r="C538" s="9">
-        <v>117.1430616</v>
+        <v>117.81371179999999</v>
       </c>
       <c r="D538" s="9">
-        <v>114.0542293</v>
+        <v>114.7017891</v>
       </c>
       <c r="E538" s="9">
-        <v>169.72550889999999</v>
+        <v>170.58573939999999</v>
       </c>
       <c r="F538" s="9">
-        <v>94.638296199999999</v>
+        <v>95.090109900000002</v>
       </c>
       <c r="G538" s="9">
-        <v>75.087212699999995</v>
+        <v>75.495629500000007</v>
       </c>
       <c r="H538" s="9">
-        <v>67.618550499999998</v>
+        <v>67.653862500000002</v>
       </c>
       <c r="I538" s="9">
-        <v>70.891820199999998</v>
+        <v>70.920847499999994</v>
       </c>
       <c r="J538" s="9">
-        <v>64.557048800000004</v>
+        <v>64.597434800000002</v>
       </c>
       <c r="K538" s="9">
-        <v>7.7747080000000004</v>
+        <v>7.8200059</v>
       </c>
       <c r="L538" s="9">
-        <v>4.0672937999999998</v>
+        <v>4.1024143000000004</v>
       </c>
       <c r="M538" s="9">
-        <v>3.7074140999999998</v>
+        <v>3.7175916</v>
       </c>
       <c r="N538" s="9">
-        <v>3.2533970000000001</v>
+        <v>3.2537872000000001</v>
       </c>
       <c r="O538" s="9">
-        <v>3.3555663</v>
+        <v>3.3649480000000001</v>
       </c>
       <c r="P538" s="9">
-        <v>3.1482356999999999</v>
+        <v>3.1393439000000001</v>
       </c>
       <c r="Q538" s="9">
-        <v>238.97199889999999</v>
+        <v>240.33550679999999</v>
       </c>
       <c r="R538" s="9">
-        <v>121.2103554</v>
+        <v>121.9161261</v>
       </c>
       <c r="S538" s="9">
-        <v>117.7616434</v>
+        <v>118.4193807</v>
       </c>
       <c r="T538" s="9">
-        <v>69.892428800000005</v>
+        <v>69.9292102</v>
       </c>
       <c r="U538" s="9">
-        <v>73.353236699999997</v>
+        <v>73.390396100000004</v>
       </c>
       <c r="V538" s="9">
-        <v>66.655521800000002</v>
+        <v>66.6910977</v>
       </c>
     </row>
     <row r="539" spans="1:22" x14ac:dyDescent="0.2">
@@ -38336,67 +38336,67 @@
         <v>44593</v>
       </c>
       <c r="B539" s="9">
-        <v>233.6457829</v>
+        <v>235.0002853</v>
       </c>
       <c r="C539" s="9">
-        <v>117.7144217</v>
+        <v>118.3797232</v>
       </c>
       <c r="D539" s="9">
-        <v>115.9313612</v>
+        <v>116.6205621</v>
       </c>
       <c r="E539" s="9">
-        <v>176.8790894</v>
+        <v>177.83031969999999</v>
       </c>
       <c r="F539" s="9">
-        <v>95.945357900000005</v>
+        <v>96.402530299999995</v>
       </c>
       <c r="G539" s="9">
-        <v>80.933731399999999</v>
+        <v>81.427789500000003</v>
       </c>
       <c r="H539" s="9">
-        <v>68.306495400000003</v>
+        <v>68.349999699999998</v>
       </c>
       <c r="I539" s="9">
-        <v>71.196659999999994</v>
+        <v>71.230699000000001</v>
       </c>
       <c r="J539" s="9">
-        <v>65.602463400000005</v>
+        <v>65.654749600000002</v>
       </c>
       <c r="K539" s="9">
-        <v>7.0487649000000001</v>
+        <v>7.1165215999999996</v>
       </c>
       <c r="L539" s="9">
-        <v>4.6919122</v>
+        <v>4.7392149999999997</v>
       </c>
       <c r="M539" s="9">
-        <v>2.3568527000000001</v>
+        <v>2.3773065999999998</v>
       </c>
       <c r="N539" s="9">
-        <v>2.9285104</v>
+        <v>2.9392927000000002</v>
       </c>
       <c r="O539" s="9">
-        <v>3.8330631999999998</v>
+        <v>3.8492980999999999</v>
       </c>
       <c r="P539" s="9">
-        <v>1.9924662</v>
+        <v>1.9977723999999999</v>
       </c>
       <c r="Q539" s="9">
-        <v>240.69454780000001</v>
+        <v>242.1168069</v>
       </c>
       <c r="R539" s="9">
-        <v>122.40633390000001</v>
+        <v>123.1189382</v>
       </c>
       <c r="S539" s="9">
-        <v>118.2882139</v>
+        <v>118.9978687</v>
       </c>
       <c r="T539" s="9">
-        <v>70.367206400000001</v>
+        <v>70.419844999999995</v>
       </c>
       <c r="U539" s="9">
-        <v>74.034447200000002</v>
+        <v>74.082349399999998</v>
       </c>
       <c r="V539" s="9">
-        <v>66.936143400000006</v>
+        <v>66.993119699999994</v>
       </c>
     </row>
     <row r="540" spans="1:22" x14ac:dyDescent="0.2">
@@ -38404,67 +38404,67 @@
         <v>44621</v>
       </c>
       <c r="B540" s="9">
-        <v>234.8763146</v>
+        <v>236.20723090000001</v>
       </c>
       <c r="C540" s="9">
-        <v>119.5062128</v>
+        <v>120.1541986</v>
       </c>
       <c r="D540" s="9">
-        <v>115.37010170000001</v>
+        <v>116.05303240000001</v>
       </c>
       <c r="E540" s="9">
-        <v>173.3460015</v>
+        <v>174.2778697</v>
       </c>
       <c r="F540" s="9">
-        <v>96.146698299999997</v>
+        <v>96.594489199999998</v>
       </c>
       <c r="G540" s="9">
-        <v>77.199303099999995</v>
+        <v>77.683380499999998</v>
       </c>
       <c r="H540" s="9">
-        <v>68.637547400000003</v>
+        <v>68.675273899999993</v>
       </c>
       <c r="I540" s="9">
-        <v>72.238873299999995</v>
+        <v>72.271028599999994</v>
       </c>
       <c r="J540" s="9">
-        <v>65.267133799999996</v>
+        <v>65.310975900000003</v>
       </c>
       <c r="K540" s="9">
-        <v>8.3372443999999994</v>
+        <v>8.4014386000000005</v>
       </c>
       <c r="L540" s="9">
-        <v>4.4804184999999999</v>
+        <v>4.5160118999999996</v>
       </c>
       <c r="M540" s="9">
-        <v>3.8568258000000002</v>
+        <v>3.8854267</v>
       </c>
       <c r="N540" s="9">
-        <v>3.4279521000000002</v>
+        <v>3.4346445999999999</v>
       </c>
       <c r="O540" s="9">
-        <v>3.6136303999999999</v>
+        <v>3.6223665</v>
       </c>
       <c r="P540" s="9">
-        <v>3.2348614000000002</v>
+        <v>3.2395168999999999</v>
       </c>
       <c r="Q540" s="9">
-        <v>243.21355890000001</v>
+        <v>244.60866949999999</v>
       </c>
       <c r="R540" s="9">
-        <v>123.98663139999999</v>
+        <v>124.6702104</v>
       </c>
       <c r="S540" s="9">
-        <v>119.2269276</v>
+        <v>119.93845899999999</v>
       </c>
       <c r="T540" s="9">
-        <v>71.073927600000005</v>
+        <v>71.117921699999997</v>
       </c>
       <c r="U540" s="9">
-        <v>74.947187600000007</v>
+        <v>74.987345000000005</v>
       </c>
       <c r="V540" s="9">
-        <v>67.449016</v>
+        <v>67.497571100000002</v>
       </c>
     </row>
     <row r="541" spans="1:22" x14ac:dyDescent="0.2">
@@ -38472,67 +38472,135 @@
         <v>44652</v>
       </c>
       <c r="B541" s="9">
-        <v>234.54655679999999</v>
+        <v>235.77532059999999</v>
       </c>
       <c r="C541" s="9">
-        <v>117.3034866</v>
+        <v>117.8743265</v>
       </c>
       <c r="D541" s="9">
-        <v>117.24307020000001</v>
+        <v>117.90099410000001</v>
       </c>
       <c r="E541" s="9">
-        <v>173.72016780000001</v>
+        <v>174.54744959999999</v>
       </c>
       <c r="F541" s="9">
-        <v>96.061648199999993</v>
+        <v>96.4539841</v>
       </c>
       <c r="G541" s="9">
-        <v>77.658519600000005</v>
+        <v>78.093465499999994</v>
       </c>
       <c r="H541" s="9">
-        <v>68.540381699999998</v>
+        <v>68.578411099999997</v>
       </c>
       <c r="I541" s="9">
-        <v>70.9095169</v>
+        <v>70.944096900000005</v>
       </c>
       <c r="J541" s="9">
-        <v>66.323332100000002</v>
+        <v>66.365889699999997</v>
       </c>
       <c r="K541" s="9">
-        <v>7.5551763000000003</v>
+        <v>7.6004167000000002</v>
       </c>
       <c r="L541" s="9">
-        <v>4.1281635999999997</v>
+        <v>4.1534386000000003</v>
       </c>
       <c r="M541" s="9">
-        <v>3.4270127000000001</v>
+        <v>3.4469780999999999</v>
       </c>
       <c r="N541" s="9">
-        <v>3.1206618000000002</v>
+        <v>3.1229146999999999</v>
       </c>
       <c r="O541" s="9">
-        <v>3.3995779000000002</v>
+        <v>3.4036832000000001</v>
       </c>
       <c r="P541" s="9">
-        <v>2.8399854000000002</v>
+        <v>2.8405733</v>
       </c>
       <c r="Q541" s="9">
-        <v>242.10173309999999</v>
+        <v>243.3757373</v>
       </c>
       <c r="R541" s="9">
-        <v>121.43165020000001</v>
+        <v>122.0277651</v>
       </c>
       <c r="S541" s="9">
-        <v>120.67008300000001</v>
+        <v>121.3479722</v>
       </c>
       <c r="T541" s="9">
-        <v>70.748193499999999</v>
+        <v>70.789094199999994</v>
       </c>
       <c r="U541" s="9">
-        <v>73.404976300000001</v>
+        <v>73.443894499999999</v>
       </c>
       <c r="V541" s="9">
-        <v>68.261961799999995</v>
+        <v>68.306176800000003</v>
+      </c>
+    </row>
+    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A542" s="10">
+        <v>44682</v>
+      </c>
+      <c r="B542" s="9">
+        <v>234.9355692</v>
+      </c>
+      <c r="C542" s="9">
+        <v>120.41702979999999</v>
+      </c>
+      <c r="D542" s="9">
+        <v>114.51853939999999</v>
+      </c>
+      <c r="E542" s="9">
+        <v>176.02367949999999</v>
+      </c>
+      <c r="F542" s="9">
+        <v>99.304905300000001</v>
+      </c>
+      <c r="G542" s="9">
+        <v>76.718774199999999</v>
+      </c>
+      <c r="H542" s="9">
+        <v>68.362990400000001</v>
+      </c>
+      <c r="I542" s="9">
+        <v>72.518973200000005</v>
+      </c>
+      <c r="J542" s="9">
+        <v>64.477529099999998</v>
+      </c>
+      <c r="K542" s="9">
+        <v>7.9991592000000002</v>
+      </c>
+      <c r="L542" s="9">
+        <v>3.7345263000000002</v>
+      </c>
+      <c r="M542" s="9">
+        <v>4.2646328999999996</v>
+      </c>
+      <c r="N542" s="9">
+        <v>3.2927195</v>
+      </c>
+      <c r="O542" s="9">
+        <v>3.0080382000000001</v>
+      </c>
+      <c r="P542" s="9">
+        <v>3.5902669</v>
+      </c>
+      <c r="Q542" s="9">
+        <v>242.93472840000001</v>
+      </c>
+      <c r="R542" s="9">
+        <v>124.15155609999999</v>
+      </c>
+      <c r="S542" s="9">
+        <v>118.7831723</v>
+      </c>
+      <c r="T542" s="9">
+        <v>70.690634700000004</v>
+      </c>
+      <c r="U542" s="9">
+        <v>74.768023999999997</v>
+      </c>
+      <c r="V542" s="9">
+        <v>66.878651199999993</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/6202.0/6202011a.xlsx
+++ b/data-raw/abs/6202.0/6202011a.xlsx
@@ -12,71 +12,71 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$542</definedName>
-    <definedName name="A84423195R_Data">Data1!$C$11:$C$542</definedName>
-    <definedName name="A84423195R_Latest">Data1!$C$542</definedName>
-    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$542</definedName>
-    <definedName name="A84423196T_Data">Data1!$L$11:$L$542</definedName>
-    <definedName name="A84423196T_Latest">Data1!$L$542</definedName>
-    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$542</definedName>
-    <definedName name="A84423197V_Data">Data1!$R$11:$R$542</definedName>
-    <definedName name="A84423197V_Latest">Data1!$R$542</definedName>
-    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$542</definedName>
-    <definedName name="A84423200W_Data">Data1!$O$11:$O$542</definedName>
-    <definedName name="A84423200W_Latest">Data1!$O$542</definedName>
-    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$542</definedName>
-    <definedName name="A84423201X_Data">Data1!$U$11:$U$542</definedName>
-    <definedName name="A84423201X_Latest">Data1!$U$542</definedName>
-    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$542</definedName>
-    <definedName name="A84423202A_Data">Data1!$I$11:$I$542</definedName>
-    <definedName name="A84423202A_Latest">Data1!$I$542</definedName>
-    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$542</definedName>
-    <definedName name="A84423203C_Data">Data1!$F$11:$F$542</definedName>
-    <definedName name="A84423203C_Latest">Data1!$F$542</definedName>
-    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$542</definedName>
-    <definedName name="A84423307W_Data">Data1!$B$11:$B$542</definedName>
-    <definedName name="A84423307W_Latest">Data1!$B$542</definedName>
-    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$542</definedName>
-    <definedName name="A84423308X_Data">Data1!$K$11:$K$542</definedName>
-    <definedName name="A84423308X_Latest">Data1!$K$542</definedName>
-    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$542</definedName>
-    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$542</definedName>
-    <definedName name="A84423309A_Latest">Data1!$Q$542</definedName>
-    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$542</definedName>
-    <definedName name="A84423312R_Data">Data1!$N$11:$N$542</definedName>
-    <definedName name="A84423312R_Latest">Data1!$N$542</definedName>
-    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$542</definedName>
-    <definedName name="A84423313T_Data">Data1!$T$11:$T$542</definedName>
-    <definedName name="A84423313T_Latest">Data1!$T$542</definedName>
-    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$542</definedName>
-    <definedName name="A84423314V_Data">Data1!$H$11:$H$542</definedName>
-    <definedName name="A84423314V_Latest">Data1!$H$542</definedName>
-    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$542</definedName>
-    <definedName name="A84423315W_Data">Data1!$E$11:$E$542</definedName>
-    <definedName name="A84423315W_Latest">Data1!$E$542</definedName>
-    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$542</definedName>
-    <definedName name="A84423419R_Data">Data1!$D$11:$D$542</definedName>
-    <definedName name="A84423419R_Latest">Data1!$D$542</definedName>
-    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$542</definedName>
-    <definedName name="A84423420X_Data">Data1!$M$11:$M$542</definedName>
-    <definedName name="A84423420X_Latest">Data1!$M$542</definedName>
-    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$542</definedName>
-    <definedName name="A84423421A_Data">Data1!$S$11:$S$542</definedName>
-    <definedName name="A84423421A_Latest">Data1!$S$542</definedName>
-    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$542</definedName>
-    <definedName name="A84423424J_Data">Data1!$P$11:$P$542</definedName>
-    <definedName name="A84423424J_Latest">Data1!$P$542</definedName>
-    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$542</definedName>
-    <definedName name="A84423425K_Data">Data1!$V$11:$V$542</definedName>
-    <definedName name="A84423425K_Latest">Data1!$V$542</definedName>
-    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$542</definedName>
-    <definedName name="A84423426L_Data">Data1!$J$11:$J$542</definedName>
-    <definedName name="A84423426L_Latest">Data1!$J$542</definedName>
-    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$542</definedName>
-    <definedName name="A84423427R_Data">Data1!$G$11:$G$542</definedName>
-    <definedName name="A84423427R_Latest">Data1!$G$542</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$542</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$542</definedName>
+    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$543</definedName>
+    <definedName name="A84423195R_Data">Data1!$C$11:$C$543</definedName>
+    <definedName name="A84423195R_Latest">Data1!$C$543</definedName>
+    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$543</definedName>
+    <definedName name="A84423196T_Data">Data1!$L$11:$L$543</definedName>
+    <definedName name="A84423196T_Latest">Data1!$L$543</definedName>
+    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$543</definedName>
+    <definedName name="A84423197V_Data">Data1!$R$11:$R$543</definedName>
+    <definedName name="A84423197V_Latest">Data1!$R$543</definedName>
+    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$543</definedName>
+    <definedName name="A84423200W_Data">Data1!$O$11:$O$543</definedName>
+    <definedName name="A84423200W_Latest">Data1!$O$543</definedName>
+    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$543</definedName>
+    <definedName name="A84423201X_Data">Data1!$U$11:$U$543</definedName>
+    <definedName name="A84423201X_Latest">Data1!$U$543</definedName>
+    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$543</definedName>
+    <definedName name="A84423202A_Data">Data1!$I$11:$I$543</definedName>
+    <definedName name="A84423202A_Latest">Data1!$I$543</definedName>
+    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$543</definedName>
+    <definedName name="A84423203C_Data">Data1!$F$11:$F$543</definedName>
+    <definedName name="A84423203C_Latest">Data1!$F$543</definedName>
+    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$543</definedName>
+    <definedName name="A84423307W_Data">Data1!$B$11:$B$543</definedName>
+    <definedName name="A84423307W_Latest">Data1!$B$543</definedName>
+    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$543</definedName>
+    <definedName name="A84423308X_Data">Data1!$K$11:$K$543</definedName>
+    <definedName name="A84423308X_Latest">Data1!$K$543</definedName>
+    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$543</definedName>
+    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$543</definedName>
+    <definedName name="A84423309A_Latest">Data1!$Q$543</definedName>
+    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$543</definedName>
+    <definedName name="A84423312R_Data">Data1!$N$11:$N$543</definedName>
+    <definedName name="A84423312R_Latest">Data1!$N$543</definedName>
+    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$543</definedName>
+    <definedName name="A84423313T_Data">Data1!$T$11:$T$543</definedName>
+    <definedName name="A84423313T_Latest">Data1!$T$543</definedName>
+    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$543</definedName>
+    <definedName name="A84423314V_Data">Data1!$H$11:$H$543</definedName>
+    <definedName name="A84423314V_Latest">Data1!$H$543</definedName>
+    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$543</definedName>
+    <definedName name="A84423315W_Data">Data1!$E$11:$E$543</definedName>
+    <definedName name="A84423315W_Latest">Data1!$E$543</definedName>
+    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$543</definedName>
+    <definedName name="A84423419R_Data">Data1!$D$11:$D$543</definedName>
+    <definedName name="A84423419R_Latest">Data1!$D$543</definedName>
+    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$543</definedName>
+    <definedName name="A84423420X_Data">Data1!$M$11:$M$543</definedName>
+    <definedName name="A84423420X_Latest">Data1!$M$543</definedName>
+    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$543</definedName>
+    <definedName name="A84423421A_Data">Data1!$S$11:$S$543</definedName>
+    <definedName name="A84423421A_Latest">Data1!$S$543</definedName>
+    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$543</definedName>
+    <definedName name="A84423424J_Data">Data1!$P$11:$P$543</definedName>
+    <definedName name="A84423424J_Latest">Data1!$P$543</definedName>
+    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$543</definedName>
+    <definedName name="A84423425K_Data">Data1!$V$11:$V$543</definedName>
+    <definedName name="A84423425K_Latest">Data1!$V$543</definedName>
+    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$543</definedName>
+    <definedName name="A84423426L_Data">Data1!$J$11:$J$543</definedName>
+    <definedName name="A84423426L_Latest">Data1!$J$543</definedName>
+    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$543</definedName>
+    <definedName name="A84423427R_Data">Data1!$G$11:$G$543</definedName>
+    <definedName name="A84423427R_Latest">Data1!$G$543</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$543</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$543</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1037,10 +1037,10 @@
         <v>28522</v>
       </c>
       <c r="G12" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H12" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>30</v>
@@ -1069,10 +1069,10 @@
         <v>28522</v>
       </c>
       <c r="G13" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H13" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>30</v>
@@ -1101,10 +1101,10 @@
         <v>28522</v>
       </c>
       <c r="G14" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H14" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>30</v>
@@ -1133,10 +1133,10 @@
         <v>28522</v>
       </c>
       <c r="G15" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H15" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>30</v>
@@ -1165,10 +1165,10 @@
         <v>28522</v>
       </c>
       <c r="G16" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H16" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>30</v>
@@ -1197,10 +1197,10 @@
         <v>28522</v>
       </c>
       <c r="G17" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H17" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>30</v>
@@ -1229,10 +1229,10 @@
         <v>28522</v>
       </c>
       <c r="G18" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H18" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>40</v>
@@ -1261,10 +1261,10 @@
         <v>28522</v>
       </c>
       <c r="G19" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H19" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>40</v>
@@ -1293,10 +1293,10 @@
         <v>28522</v>
       </c>
       <c r="G20" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H20" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>40</v>
@@ -1325,10 +1325,10 @@
         <v>28522</v>
       </c>
       <c r="G21" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H21" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>30</v>
@@ -1357,10 +1357,10 @@
         <v>28522</v>
       </c>
       <c r="G22" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H22" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>30</v>
@@ -1389,10 +1389,10 @@
         <v>28522</v>
       </c>
       <c r="G23" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H23" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>30</v>
@@ -1421,10 +1421,10 @@
         <v>28522</v>
       </c>
       <c r="G24" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H24" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -1453,10 +1453,10 @@
         <v>28522</v>
       </c>
       <c r="G25" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H25" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -1485,10 +1485,10 @@
         <v>28522</v>
       </c>
       <c r="G26" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H26" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -1517,10 +1517,10 @@
         <v>28522</v>
       </c>
       <c r="G27" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H27" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>30</v>
@@ -1549,10 +1549,10 @@
         <v>28522</v>
       </c>
       <c r="G28" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H28" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>30</v>
@@ -1581,10 +1581,10 @@
         <v>28522</v>
       </c>
       <c r="G29" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H29" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>30</v>
@@ -1613,10 +1613,10 @@
         <v>28522</v>
       </c>
       <c r="G30" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H30" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -1645,10 +1645,10 @@
         <v>28522</v>
       </c>
       <c r="G31" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H31" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -1677,10 +1677,10 @@
         <v>28522</v>
       </c>
       <c r="G32" s="10">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H32" s="11">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -1736,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V542"/>
+  <dimension ref="A1:V543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2228,67 +2228,67 @@
         <v>27</v>
       </c>
       <c r="B8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="C8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="D8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="E8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="F8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="G8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="H8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="I8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="J8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="K8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="L8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="M8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="N8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="O8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="P8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="Q8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="R8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="S8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="T8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="U8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="V8" s="6">
-        <v>44682</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2296,67 +2296,67 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="R9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="U9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V9" s="1">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -38601,6 +38601,74 @@
       </c>
       <c r="V542" s="9">
         <v>66.878651199999993</v>
+      </c>
+    </row>
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A543" s="10">
+        <v>44713</v>
+      </c>
+      <c r="B543" s="9">
+        <v>234.85626980000001</v>
+      </c>
+      <c r="C543" s="9">
+        <v>119.38894430000001</v>
+      </c>
+      <c r="D543" s="9">
+        <v>115.4673255</v>
+      </c>
+      <c r="E543" s="9">
+        <v>176.10409129999999</v>
+      </c>
+      <c r="F543" s="9">
+        <v>99.630328500000005</v>
+      </c>
+      <c r="G543" s="9">
+        <v>76.473762800000003</v>
+      </c>
+      <c r="H543" s="9">
+        <v>68.368563199999997</v>
+      </c>
+      <c r="I543" s="9">
+        <v>71.944888000000006</v>
+      </c>
+      <c r="J543" s="9">
+        <v>65.026370200000002</v>
+      </c>
+      <c r="K543" s="9">
+        <v>7.5242668999999998</v>
+      </c>
+      <c r="L543" s="9">
+        <v>4.0123135000000003</v>
+      </c>
+      <c r="M543" s="9">
+        <v>3.5119533999999999</v>
+      </c>
+      <c r="N543" s="9">
+        <v>3.1043197999999999</v>
+      </c>
+      <c r="O543" s="9">
+        <v>3.2514365000000001</v>
+      </c>
+      <c r="P543" s="9">
+        <v>2.9517353000000002</v>
+      </c>
+      <c r="Q543" s="9">
+        <v>242.38053669999999</v>
+      </c>
+      <c r="R543" s="9">
+        <v>123.4012578</v>
+      </c>
+      <c r="S543" s="9">
+        <v>118.9792789</v>
+      </c>
+      <c r="T543" s="9">
+        <v>70.558938299999994</v>
+      </c>
+      <c r="U543" s="9">
+        <v>74.362745399999994</v>
+      </c>
+      <c r="V543" s="9">
+        <v>67.004155499999996</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/6202.0/6202011a.xlsx
+++ b/data-raw/abs/6202.0/6202011a.xlsx
@@ -12,71 +12,71 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$543</definedName>
-    <definedName name="A84423195R_Data">Data1!$C$11:$C$543</definedName>
-    <definedName name="A84423195R_Latest">Data1!$C$543</definedName>
-    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$543</definedName>
-    <definedName name="A84423196T_Data">Data1!$L$11:$L$543</definedName>
-    <definedName name="A84423196T_Latest">Data1!$L$543</definedName>
-    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$543</definedName>
-    <definedName name="A84423197V_Data">Data1!$R$11:$R$543</definedName>
-    <definedName name="A84423197V_Latest">Data1!$R$543</definedName>
-    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$543</definedName>
-    <definedName name="A84423200W_Data">Data1!$O$11:$O$543</definedName>
-    <definedName name="A84423200W_Latest">Data1!$O$543</definedName>
-    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$543</definedName>
-    <definedName name="A84423201X_Data">Data1!$U$11:$U$543</definedName>
-    <definedName name="A84423201X_Latest">Data1!$U$543</definedName>
-    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$543</definedName>
-    <definedName name="A84423202A_Data">Data1!$I$11:$I$543</definedName>
-    <definedName name="A84423202A_Latest">Data1!$I$543</definedName>
-    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$543</definedName>
-    <definedName name="A84423203C_Data">Data1!$F$11:$F$543</definedName>
-    <definedName name="A84423203C_Latest">Data1!$F$543</definedName>
-    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$543</definedName>
-    <definedName name="A84423307W_Data">Data1!$B$11:$B$543</definedName>
-    <definedName name="A84423307W_Latest">Data1!$B$543</definedName>
-    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$543</definedName>
-    <definedName name="A84423308X_Data">Data1!$K$11:$K$543</definedName>
-    <definedName name="A84423308X_Latest">Data1!$K$543</definedName>
-    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$543</definedName>
-    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$543</definedName>
-    <definedName name="A84423309A_Latest">Data1!$Q$543</definedName>
-    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$543</definedName>
-    <definedName name="A84423312R_Data">Data1!$N$11:$N$543</definedName>
-    <definedName name="A84423312R_Latest">Data1!$N$543</definedName>
-    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$543</definedName>
-    <definedName name="A84423313T_Data">Data1!$T$11:$T$543</definedName>
-    <definedName name="A84423313T_Latest">Data1!$T$543</definedName>
-    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$543</definedName>
-    <definedName name="A84423314V_Data">Data1!$H$11:$H$543</definedName>
-    <definedName name="A84423314V_Latest">Data1!$H$543</definedName>
-    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$543</definedName>
-    <definedName name="A84423315W_Data">Data1!$E$11:$E$543</definedName>
-    <definedName name="A84423315W_Latest">Data1!$E$543</definedName>
-    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$543</definedName>
-    <definedName name="A84423419R_Data">Data1!$D$11:$D$543</definedName>
-    <definedName name="A84423419R_Latest">Data1!$D$543</definedName>
-    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$543</definedName>
-    <definedName name="A84423420X_Data">Data1!$M$11:$M$543</definedName>
-    <definedName name="A84423420X_Latest">Data1!$M$543</definedName>
-    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$543</definedName>
-    <definedName name="A84423421A_Data">Data1!$S$11:$S$543</definedName>
-    <definedName name="A84423421A_Latest">Data1!$S$543</definedName>
-    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$543</definedName>
-    <definedName name="A84423424J_Data">Data1!$P$11:$P$543</definedName>
-    <definedName name="A84423424J_Latest">Data1!$P$543</definedName>
-    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$543</definedName>
-    <definedName name="A84423425K_Data">Data1!$V$11:$V$543</definedName>
-    <definedName name="A84423425K_Latest">Data1!$V$543</definedName>
-    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$543</definedName>
-    <definedName name="A84423426L_Data">Data1!$J$11:$J$543</definedName>
-    <definedName name="A84423426L_Latest">Data1!$J$543</definedName>
-    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$543</definedName>
-    <definedName name="A84423427R_Data">Data1!$G$11:$G$543</definedName>
-    <definedName name="A84423427R_Latest">Data1!$G$543</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$543</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$543</definedName>
+    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$544</definedName>
+    <definedName name="A84423195R_Data">Data1!$C$11:$C$544</definedName>
+    <definedName name="A84423195R_Latest">Data1!$C$544</definedName>
+    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$544</definedName>
+    <definedName name="A84423196T_Data">Data1!$L$11:$L$544</definedName>
+    <definedName name="A84423196T_Latest">Data1!$L$544</definedName>
+    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$544</definedName>
+    <definedName name="A84423197V_Data">Data1!$R$11:$R$544</definedName>
+    <definedName name="A84423197V_Latest">Data1!$R$544</definedName>
+    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$544</definedName>
+    <definedName name="A84423200W_Data">Data1!$O$11:$O$544</definedName>
+    <definedName name="A84423200W_Latest">Data1!$O$544</definedName>
+    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$544</definedName>
+    <definedName name="A84423201X_Data">Data1!$U$11:$U$544</definedName>
+    <definedName name="A84423201X_Latest">Data1!$U$544</definedName>
+    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$544</definedName>
+    <definedName name="A84423202A_Data">Data1!$I$11:$I$544</definedName>
+    <definedName name="A84423202A_Latest">Data1!$I$544</definedName>
+    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$544</definedName>
+    <definedName name="A84423203C_Data">Data1!$F$11:$F$544</definedName>
+    <definedName name="A84423203C_Latest">Data1!$F$544</definedName>
+    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$544</definedName>
+    <definedName name="A84423307W_Data">Data1!$B$11:$B$544</definedName>
+    <definedName name="A84423307W_Latest">Data1!$B$544</definedName>
+    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$544</definedName>
+    <definedName name="A84423308X_Data">Data1!$K$11:$K$544</definedName>
+    <definedName name="A84423308X_Latest">Data1!$K$544</definedName>
+    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$544</definedName>
+    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$544</definedName>
+    <definedName name="A84423309A_Latest">Data1!$Q$544</definedName>
+    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$544</definedName>
+    <definedName name="A84423312R_Data">Data1!$N$11:$N$544</definedName>
+    <definedName name="A84423312R_Latest">Data1!$N$544</definedName>
+    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$544</definedName>
+    <definedName name="A84423313T_Data">Data1!$T$11:$T$544</definedName>
+    <definedName name="A84423313T_Latest">Data1!$T$544</definedName>
+    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$544</definedName>
+    <definedName name="A84423314V_Data">Data1!$H$11:$H$544</definedName>
+    <definedName name="A84423314V_Latest">Data1!$H$544</definedName>
+    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$544</definedName>
+    <definedName name="A84423315W_Data">Data1!$E$11:$E$544</definedName>
+    <definedName name="A84423315W_Latest">Data1!$E$544</definedName>
+    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$544</definedName>
+    <definedName name="A84423419R_Data">Data1!$D$11:$D$544</definedName>
+    <definedName name="A84423419R_Latest">Data1!$D$544</definedName>
+    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$544</definedName>
+    <definedName name="A84423420X_Data">Data1!$M$11:$M$544</definedName>
+    <definedName name="A84423420X_Latest">Data1!$M$544</definedName>
+    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$544</definedName>
+    <definedName name="A84423421A_Data">Data1!$S$11:$S$544</definedName>
+    <definedName name="A84423421A_Latest">Data1!$S$544</definedName>
+    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$544</definedName>
+    <definedName name="A84423424J_Data">Data1!$P$11:$P$544</definedName>
+    <definedName name="A84423424J_Latest">Data1!$P$544</definedName>
+    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$544</definedName>
+    <definedName name="A84423425K_Data">Data1!$V$11:$V$544</definedName>
+    <definedName name="A84423425K_Latest">Data1!$V$544</definedName>
+    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$544</definedName>
+    <definedName name="A84423426L_Data">Data1!$J$11:$J$544</definedName>
+    <definedName name="A84423426L_Latest">Data1!$J$544</definedName>
+    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$544</definedName>
+    <definedName name="A84423427R_Data">Data1!$G$11:$G$544</definedName>
+    <definedName name="A84423427R_Latest">Data1!$G$544</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$544</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$544</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1037,10 +1037,10 @@
         <v>28522</v>
       </c>
       <c r="G12" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H12" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>30</v>
@@ -1069,10 +1069,10 @@
         <v>28522</v>
       </c>
       <c r="G13" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H13" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>30</v>
@@ -1101,10 +1101,10 @@
         <v>28522</v>
       </c>
       <c r="G14" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H14" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>30</v>
@@ -1133,10 +1133,10 @@
         <v>28522</v>
       </c>
       <c r="G15" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H15" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>30</v>
@@ -1165,10 +1165,10 @@
         <v>28522</v>
       </c>
       <c r="G16" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H16" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>30</v>
@@ -1197,10 +1197,10 @@
         <v>28522</v>
       </c>
       <c r="G17" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H17" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>30</v>
@@ -1229,10 +1229,10 @@
         <v>28522</v>
       </c>
       <c r="G18" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H18" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>40</v>
@@ -1261,10 +1261,10 @@
         <v>28522</v>
       </c>
       <c r="G19" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H19" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>40</v>
@@ -1293,10 +1293,10 @@
         <v>28522</v>
       </c>
       <c r="G20" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H20" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>40</v>
@@ -1325,10 +1325,10 @@
         <v>28522</v>
       </c>
       <c r="G21" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H21" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>30</v>
@@ -1357,10 +1357,10 @@
         <v>28522</v>
       </c>
       <c r="G22" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H22" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>30</v>
@@ -1389,10 +1389,10 @@
         <v>28522</v>
       </c>
       <c r="G23" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H23" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>30</v>
@@ -1421,10 +1421,10 @@
         <v>28522</v>
       </c>
       <c r="G24" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H24" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -1453,10 +1453,10 @@
         <v>28522</v>
       </c>
       <c r="G25" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H25" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -1485,10 +1485,10 @@
         <v>28522</v>
       </c>
       <c r="G26" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H26" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -1517,10 +1517,10 @@
         <v>28522</v>
       </c>
       <c r="G27" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H27" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>30</v>
@@ -1549,10 +1549,10 @@
         <v>28522</v>
       </c>
       <c r="G28" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H28" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>30</v>
@@ -1581,10 +1581,10 @@
         <v>28522</v>
       </c>
       <c r="G29" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H29" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>30</v>
@@ -1613,10 +1613,10 @@
         <v>28522</v>
       </c>
       <c r="G30" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H30" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -1645,10 +1645,10 @@
         <v>28522</v>
       </c>
       <c r="G31" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H31" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -1677,10 +1677,10 @@
         <v>28522</v>
       </c>
       <c r="G32" s="10">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H32" s="11">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -1736,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V543"/>
+  <dimension ref="A1:V544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2228,67 +2228,67 @@
         <v>27</v>
       </c>
       <c r="B8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="D8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="E8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="F8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="G8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="H8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="I8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="J8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="K8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="L8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="M8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="N8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="O8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="P8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="Q8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="R8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="S8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="T8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="U8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="V8" s="6">
-        <v>44713</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2296,67 +2296,67 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="J9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="R9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="S9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="U9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="V9" s="1">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -38669,6 +38669,74 @@
       </c>
       <c r="V543" s="9">
         <v>67.004155499999996</v>
+      </c>
+    </row>
+    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A544" s="10">
+        <v>44743</v>
+      </c>
+      <c r="B544" s="9">
+        <v>233.30018380000001</v>
+      </c>
+      <c r="C544" s="9">
+        <v>117.5136724</v>
+      </c>
+      <c r="D544" s="9">
+        <v>115.78651139999999</v>
+      </c>
+      <c r="E544" s="9">
+        <v>176.5722892</v>
+      </c>
+      <c r="F544" s="9">
+        <v>99.278042099999993</v>
+      </c>
+      <c r="G544" s="9">
+        <v>77.294246999999999</v>
+      </c>
+      <c r="H544" s="9">
+        <v>67.930405300000004</v>
+      </c>
+      <c r="I544" s="9">
+        <v>70.825074799999996</v>
+      </c>
+      <c r="J544" s="9">
+        <v>65.224855599999998</v>
+      </c>
+      <c r="K544" s="9">
+        <v>8.0454738999999993</v>
+      </c>
+      <c r="L544" s="9">
+        <v>5.0851940000000004</v>
+      </c>
+      <c r="M544" s="9">
+        <v>2.9602799000000002</v>
+      </c>
+      <c r="N544" s="9">
+        <v>3.3335897000000001</v>
+      </c>
+      <c r="O544" s="9">
+        <v>4.1478311999999997</v>
+      </c>
+      <c r="P544" s="9">
+        <v>2.4929347000000002</v>
+      </c>
+      <c r="Q544" s="9">
+        <v>241.3456577</v>
+      </c>
+      <c r="R544" s="9">
+        <v>122.59886640000001</v>
+      </c>
+      <c r="S544" s="9">
+        <v>118.7467913</v>
+      </c>
+      <c r="T544" s="9">
+        <v>70.273019399999995</v>
+      </c>
+      <c r="U544" s="9">
+        <v>73.8899033</v>
+      </c>
+      <c r="V544" s="9">
+        <v>66.892440399999998</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/6202.0/6202011a.xlsx
+++ b/data-raw/abs/6202.0/6202011a.xlsx
@@ -12,71 +12,71 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$544</definedName>
-    <definedName name="A84423195R_Data">Data1!$C$11:$C$544</definedName>
-    <definedName name="A84423195R_Latest">Data1!$C$544</definedName>
-    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$544</definedName>
-    <definedName name="A84423196T_Data">Data1!$L$11:$L$544</definedName>
-    <definedName name="A84423196T_Latest">Data1!$L$544</definedName>
-    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$544</definedName>
-    <definedName name="A84423197V_Data">Data1!$R$11:$R$544</definedName>
-    <definedName name="A84423197V_Latest">Data1!$R$544</definedName>
-    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$544</definedName>
-    <definedName name="A84423200W_Data">Data1!$O$11:$O$544</definedName>
-    <definedName name="A84423200W_Latest">Data1!$O$544</definedName>
-    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$544</definedName>
-    <definedName name="A84423201X_Data">Data1!$U$11:$U$544</definedName>
-    <definedName name="A84423201X_Latest">Data1!$U$544</definedName>
-    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$544</definedName>
-    <definedName name="A84423202A_Data">Data1!$I$11:$I$544</definedName>
-    <definedName name="A84423202A_Latest">Data1!$I$544</definedName>
-    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$544</definedName>
-    <definedName name="A84423203C_Data">Data1!$F$11:$F$544</definedName>
-    <definedName name="A84423203C_Latest">Data1!$F$544</definedName>
-    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$544</definedName>
-    <definedName name="A84423307W_Data">Data1!$B$11:$B$544</definedName>
-    <definedName name="A84423307W_Latest">Data1!$B$544</definedName>
-    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$544</definedName>
-    <definedName name="A84423308X_Data">Data1!$K$11:$K$544</definedName>
-    <definedName name="A84423308X_Latest">Data1!$K$544</definedName>
-    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$544</definedName>
-    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$544</definedName>
-    <definedName name="A84423309A_Latest">Data1!$Q$544</definedName>
-    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$544</definedName>
-    <definedName name="A84423312R_Data">Data1!$N$11:$N$544</definedName>
-    <definedName name="A84423312R_Latest">Data1!$N$544</definedName>
-    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$544</definedName>
-    <definedName name="A84423313T_Data">Data1!$T$11:$T$544</definedName>
-    <definedName name="A84423313T_Latest">Data1!$T$544</definedName>
-    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$544</definedName>
-    <definedName name="A84423314V_Data">Data1!$H$11:$H$544</definedName>
-    <definedName name="A84423314V_Latest">Data1!$H$544</definedName>
-    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$544</definedName>
-    <definedName name="A84423315W_Data">Data1!$E$11:$E$544</definedName>
-    <definedName name="A84423315W_Latest">Data1!$E$544</definedName>
-    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$544</definedName>
-    <definedName name="A84423419R_Data">Data1!$D$11:$D$544</definedName>
-    <definedName name="A84423419R_Latest">Data1!$D$544</definedName>
-    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$544</definedName>
-    <definedName name="A84423420X_Data">Data1!$M$11:$M$544</definedName>
-    <definedName name="A84423420X_Latest">Data1!$M$544</definedName>
-    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$544</definedName>
-    <definedName name="A84423421A_Data">Data1!$S$11:$S$544</definedName>
-    <definedName name="A84423421A_Latest">Data1!$S$544</definedName>
-    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$544</definedName>
-    <definedName name="A84423424J_Data">Data1!$P$11:$P$544</definedName>
-    <definedName name="A84423424J_Latest">Data1!$P$544</definedName>
-    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$544</definedName>
-    <definedName name="A84423425K_Data">Data1!$V$11:$V$544</definedName>
-    <definedName name="A84423425K_Latest">Data1!$V$544</definedName>
-    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$544</definedName>
-    <definedName name="A84423426L_Data">Data1!$J$11:$J$544</definedName>
-    <definedName name="A84423426L_Latest">Data1!$J$544</definedName>
-    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$544</definedName>
-    <definedName name="A84423427R_Data">Data1!$G$11:$G$544</definedName>
-    <definedName name="A84423427R_Latest">Data1!$G$544</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$544</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$544</definedName>
+    <definedName name="A84423195R">Data1!$C$1:$C$10,Data1!$C$11:$C$545</definedName>
+    <definedName name="A84423195R_Data">Data1!$C$11:$C$545</definedName>
+    <definedName name="A84423195R_Latest">Data1!$C$545</definedName>
+    <definedName name="A84423196T">Data1!$L$1:$L$10,Data1!$L$11:$L$545</definedName>
+    <definedName name="A84423196T_Data">Data1!$L$11:$L$545</definedName>
+    <definedName name="A84423196T_Latest">Data1!$L$545</definedName>
+    <definedName name="A84423197V">Data1!$R$1:$R$10,Data1!$R$11:$R$545</definedName>
+    <definedName name="A84423197V_Data">Data1!$R$11:$R$545</definedName>
+    <definedName name="A84423197V_Latest">Data1!$R$545</definedName>
+    <definedName name="A84423200W">Data1!$O$1:$O$10,Data1!$O$11:$O$545</definedName>
+    <definedName name="A84423200W_Data">Data1!$O$11:$O$545</definedName>
+    <definedName name="A84423200W_Latest">Data1!$O$545</definedName>
+    <definedName name="A84423201X">Data1!$U$1:$U$10,Data1!$U$11:$U$545</definedName>
+    <definedName name="A84423201X_Data">Data1!$U$11:$U$545</definedName>
+    <definedName name="A84423201X_Latest">Data1!$U$545</definedName>
+    <definedName name="A84423202A">Data1!$I$1:$I$10,Data1!$I$11:$I$545</definedName>
+    <definedName name="A84423202A_Data">Data1!$I$11:$I$545</definedName>
+    <definedName name="A84423202A_Latest">Data1!$I$545</definedName>
+    <definedName name="A84423203C">Data1!$F$1:$F$10,Data1!$F$11:$F$545</definedName>
+    <definedName name="A84423203C_Data">Data1!$F$11:$F$545</definedName>
+    <definedName name="A84423203C_Latest">Data1!$F$545</definedName>
+    <definedName name="A84423307W">Data1!$B$1:$B$10,Data1!$B$11:$B$545</definedName>
+    <definedName name="A84423307W_Data">Data1!$B$11:$B$545</definedName>
+    <definedName name="A84423307W_Latest">Data1!$B$545</definedName>
+    <definedName name="A84423308X">Data1!$K$1:$K$10,Data1!$K$11:$K$545</definedName>
+    <definedName name="A84423308X_Data">Data1!$K$11:$K$545</definedName>
+    <definedName name="A84423308X_Latest">Data1!$K$545</definedName>
+    <definedName name="A84423309A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$545</definedName>
+    <definedName name="A84423309A_Data">Data1!$Q$11:$Q$545</definedName>
+    <definedName name="A84423309A_Latest">Data1!$Q$545</definedName>
+    <definedName name="A84423312R">Data1!$N$1:$N$10,Data1!$N$11:$N$545</definedName>
+    <definedName name="A84423312R_Data">Data1!$N$11:$N$545</definedName>
+    <definedName name="A84423312R_Latest">Data1!$N$545</definedName>
+    <definedName name="A84423313T">Data1!$T$1:$T$10,Data1!$T$11:$T$545</definedName>
+    <definedName name="A84423313T_Data">Data1!$T$11:$T$545</definedName>
+    <definedName name="A84423313T_Latest">Data1!$T$545</definedName>
+    <definedName name="A84423314V">Data1!$H$1:$H$10,Data1!$H$11:$H$545</definedName>
+    <definedName name="A84423314V_Data">Data1!$H$11:$H$545</definedName>
+    <definedName name="A84423314V_Latest">Data1!$H$545</definedName>
+    <definedName name="A84423315W">Data1!$E$1:$E$10,Data1!$E$11:$E$545</definedName>
+    <definedName name="A84423315W_Data">Data1!$E$11:$E$545</definedName>
+    <definedName name="A84423315W_Latest">Data1!$E$545</definedName>
+    <definedName name="A84423419R">Data1!$D$1:$D$10,Data1!$D$11:$D$545</definedName>
+    <definedName name="A84423419R_Data">Data1!$D$11:$D$545</definedName>
+    <definedName name="A84423419R_Latest">Data1!$D$545</definedName>
+    <definedName name="A84423420X">Data1!$M$1:$M$10,Data1!$M$11:$M$545</definedName>
+    <definedName name="A84423420X_Data">Data1!$M$11:$M$545</definedName>
+    <definedName name="A84423420X_Latest">Data1!$M$545</definedName>
+    <definedName name="A84423421A">Data1!$S$1:$S$10,Data1!$S$11:$S$545</definedName>
+    <definedName name="A84423421A_Data">Data1!$S$11:$S$545</definedName>
+    <definedName name="A84423421A_Latest">Data1!$S$545</definedName>
+    <definedName name="A84423424J">Data1!$P$1:$P$10,Data1!$P$11:$P$545</definedName>
+    <definedName name="A84423424J_Data">Data1!$P$11:$P$545</definedName>
+    <definedName name="A84423424J_Latest">Data1!$P$545</definedName>
+    <definedName name="A84423425K">Data1!$V$1:$V$10,Data1!$V$11:$V$545</definedName>
+    <definedName name="A84423425K_Data">Data1!$V$11:$V$545</definedName>
+    <definedName name="A84423425K_Latest">Data1!$V$545</definedName>
+    <definedName name="A84423426L">Data1!$J$1:$J$10,Data1!$J$11:$J$545</definedName>
+    <definedName name="A84423426L_Data">Data1!$J$11:$J$545</definedName>
+    <definedName name="A84423426L_Latest">Data1!$J$545</definedName>
+    <definedName name="A84423427R">Data1!$G$1:$G$10,Data1!$G$11:$G$545</definedName>
+    <definedName name="A84423427R_Data">Data1!$G$11:$G$545</definedName>
+    <definedName name="A84423427R_Latest">Data1!$G$545</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$545</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$545</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1037,10 +1037,10 @@
         <v>28522</v>
       </c>
       <c r="G12" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H12" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>30</v>
@@ -1069,10 +1069,10 @@
         <v>28522</v>
       </c>
       <c r="G13" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H13" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>30</v>
@@ -1101,10 +1101,10 @@
         <v>28522</v>
       </c>
       <c r="G14" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H14" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>30</v>
@@ -1133,10 +1133,10 @@
         <v>28522</v>
       </c>
       <c r="G15" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H15" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>30</v>
@@ -1165,10 +1165,10 @@
         <v>28522</v>
       </c>
       <c r="G16" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H16" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>30</v>
@@ -1197,10 +1197,10 @@
         <v>28522</v>
       </c>
       <c r="G17" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H17" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>30</v>
@@ -1229,10 +1229,10 @@
         <v>28522</v>
       </c>
       <c r="G18" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H18" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>40</v>
@@ -1261,10 +1261,10 @@
         <v>28522</v>
       </c>
       <c r="G19" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H19" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>40</v>
@@ -1293,10 +1293,10 @@
         <v>28522</v>
       </c>
       <c r="G20" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H20" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>40</v>
@@ -1325,10 +1325,10 @@
         <v>28522</v>
       </c>
       <c r="G21" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H21" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>30</v>
@@ -1357,10 +1357,10 @@
         <v>28522</v>
       </c>
       <c r="G22" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H22" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>30</v>
@@ -1389,10 +1389,10 @@
         <v>28522</v>
       </c>
       <c r="G23" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H23" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>30</v>
@@ -1421,10 +1421,10 @@
         <v>28522</v>
       </c>
       <c r="G24" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H24" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -1453,10 +1453,10 @@
         <v>28522</v>
       </c>
       <c r="G25" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H25" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -1485,10 +1485,10 @@
         <v>28522</v>
       </c>
       <c r="G26" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H26" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -1517,10 +1517,10 @@
         <v>28522</v>
       </c>
       <c r="G27" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H27" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>30</v>
@@ -1549,10 +1549,10 @@
         <v>28522</v>
       </c>
       <c r="G28" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H28" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>30</v>
@@ -1581,10 +1581,10 @@
         <v>28522</v>
       </c>
       <c r="G29" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H29" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>30</v>
@@ -1613,10 +1613,10 @@
         <v>28522</v>
       </c>
       <c r="G30" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H30" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -1645,10 +1645,10 @@
         <v>28522</v>
       </c>
       <c r="G31" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H31" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -1677,10 +1677,10 @@
         <v>28522</v>
       </c>
       <c r="G32" s="10">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H32" s="11">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -1736,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V544"/>
+  <dimension ref="A1:V545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2228,67 +2228,67 @@
         <v>27</v>
       </c>
       <c r="B8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="C8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="D8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="E8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="F8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="G8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="I8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="J8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="K8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="L8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="M8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="N8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="O8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="P8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="Q8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="R8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="S8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="T8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="U8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="V8" s="6">
-        <v>44743</v>
+        <v>44774</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -2296,67 +2296,67 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="R9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="S9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="T9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="U9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="V9" s="1">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -38268,67 +38268,67 @@
         <v>44562</v>
       </c>
       <c r="B538" s="9">
-        <v>232.51550090000001</v>
+        <v>232.91022369999999</v>
       </c>
       <c r="C538" s="9">
-        <v>117.81371179999999</v>
+        <v>117.9975773</v>
       </c>
       <c r="D538" s="9">
-        <v>114.7017891</v>
+        <v>114.9126464</v>
       </c>
       <c r="E538" s="9">
-        <v>170.58573939999999</v>
+        <v>170.8250783</v>
       </c>
       <c r="F538" s="9">
-        <v>95.090109900000002</v>
+        <v>95.202843200000004</v>
       </c>
       <c r="G538" s="9">
-        <v>75.495629500000007</v>
+        <v>75.622235099999997</v>
       </c>
       <c r="H538" s="9">
-        <v>67.653862500000002</v>
+        <v>67.662597700000006</v>
       </c>
       <c r="I538" s="9">
-        <v>70.920847499999994</v>
+        <v>70.925218799999996</v>
       </c>
       <c r="J538" s="9">
-        <v>64.597434800000002</v>
+        <v>64.610661800000003</v>
       </c>
       <c r="K538" s="9">
-        <v>7.8200059</v>
+        <v>7.8373771999999997</v>
       </c>
       <c r="L538" s="9">
-        <v>4.1024143000000004</v>
+        <v>4.1125522999999999</v>
       </c>
       <c r="M538" s="9">
-        <v>3.7175916</v>
+        <v>3.7248249000000002</v>
       </c>
       <c r="N538" s="9">
-        <v>3.2537872000000001</v>
+        <v>3.2554330999999999</v>
       </c>
       <c r="O538" s="9">
-        <v>3.3649480000000001</v>
+        <v>3.3679043000000002</v>
       </c>
       <c r="P538" s="9">
-        <v>3.1393439000000001</v>
+        <v>3.1396698000000001</v>
       </c>
       <c r="Q538" s="9">
-        <v>240.33550679999999</v>
+        <v>240.74760090000001</v>
       </c>
       <c r="R538" s="9">
-        <v>121.9161261</v>
+        <v>122.11012959999999</v>
       </c>
       <c r="S538" s="9">
-        <v>118.4193807</v>
+        <v>118.6374713</v>
       </c>
       <c r="T538" s="9">
-        <v>69.9292102</v>
+        <v>69.939429099999998</v>
       </c>
       <c r="U538" s="9">
-        <v>73.390396100000004</v>
+        <v>73.397165099999995</v>
       </c>
       <c r="V538" s="9">
-        <v>66.6910977</v>
+        <v>66.704977799999995</v>
       </c>
     </row>
     <row r="539" spans="1:22" x14ac:dyDescent="0.2">
@@ -38336,67 +38336,67 @@
         <v>44593</v>
       </c>
       <c r="B539" s="9">
-        <v>235.0002853</v>
+        <v>235.8360591</v>
       </c>
       <c r="C539" s="9">
-        <v>118.3797232</v>
+        <v>118.75143370000001</v>
       </c>
       <c r="D539" s="9">
-        <v>116.6205621</v>
+        <v>117.08462539999999</v>
       </c>
       <c r="E539" s="9">
-        <v>177.83031969999999</v>
+        <v>178.3929019</v>
       </c>
       <c r="F539" s="9">
-        <v>96.402530299999995</v>
+        <v>96.640342899999993</v>
       </c>
       <c r="G539" s="9">
-        <v>81.427789500000003</v>
+        <v>81.752559000000005</v>
       </c>
       <c r="H539" s="9">
-        <v>68.349999699999998</v>
+        <v>68.377899499999998</v>
       </c>
       <c r="I539" s="9">
-        <v>71.230699000000001</v>
+        <v>71.243023500000007</v>
       </c>
       <c r="J539" s="9">
-        <v>65.654749600000002</v>
+        <v>65.698155799999995</v>
       </c>
       <c r="K539" s="9">
-        <v>7.1165215999999996</v>
+        <v>7.1569925000000003</v>
       </c>
       <c r="L539" s="9">
-        <v>4.7392149999999997</v>
+        <v>4.7679459</v>
       </c>
       <c r="M539" s="9">
-        <v>2.3773065999999998</v>
+        <v>2.3890465999999999</v>
       </c>
       <c r="N539" s="9">
-        <v>2.9392927000000002</v>
+        <v>2.9453486</v>
       </c>
       <c r="O539" s="9">
-        <v>3.8492980999999999</v>
+        <v>3.8600791999999999</v>
       </c>
       <c r="P539" s="9">
-        <v>1.9977723999999999</v>
+        <v>1.9996427000000001</v>
       </c>
       <c r="Q539" s="9">
-        <v>242.1168069</v>
+        <v>242.9930516</v>
       </c>
       <c r="R539" s="9">
-        <v>123.1189382</v>
+        <v>123.51937959999999</v>
       </c>
       <c r="S539" s="9">
-        <v>118.9978687</v>
+        <v>119.47367199999999</v>
       </c>
       <c r="T539" s="9">
-        <v>70.419844999999995</v>
+        <v>70.452985499999997</v>
       </c>
       <c r="U539" s="9">
-        <v>74.082349399999998</v>
+        <v>74.103476400000005</v>
       </c>
       <c r="V539" s="9">
-        <v>66.993119699999994</v>
+        <v>67.038690099999997</v>
       </c>
     </row>
     <row r="540" spans="1:22" x14ac:dyDescent="0.2">
@@ -38404,67 +38404,67 @@
         <v>44621</v>
       </c>
       <c r="B540" s="9">
-        <v>236.20723090000001</v>
+        <v>237.44715350000001</v>
       </c>
       <c r="C540" s="9">
-        <v>120.1541986</v>
+        <v>120.72497319999999</v>
       </c>
       <c r="D540" s="9">
-        <v>116.05303240000001</v>
+        <v>116.72218030000001</v>
       </c>
       <c r="E540" s="9">
-        <v>174.2778697</v>
+        <v>175.0825907</v>
       </c>
       <c r="F540" s="9">
-        <v>96.594489199999998</v>
+        <v>96.953987100000006</v>
       </c>
       <c r="G540" s="9">
-        <v>77.683380499999998</v>
+        <v>78.128603600000005</v>
       </c>
       <c r="H540" s="9">
-        <v>68.675273899999993</v>
+        <v>68.711937000000006</v>
       </c>
       <c r="I540" s="9">
-        <v>72.271028599999994</v>
+        <v>72.291701799999998</v>
       </c>
       <c r="J540" s="9">
-        <v>65.310975900000003</v>
+        <v>65.364211800000007</v>
       </c>
       <c r="K540" s="9">
-        <v>8.4014386000000005</v>
+        <v>8.4666662000000006</v>
       </c>
       <c r="L540" s="9">
-        <v>4.5160118999999996</v>
+        <v>4.5489354000000004</v>
       </c>
       <c r="M540" s="9">
-        <v>3.8854267</v>
+        <v>3.9177308000000002</v>
       </c>
       <c r="N540" s="9">
-        <v>3.4346445999999999</v>
+        <v>3.4429403999999999</v>
       </c>
       <c r="O540" s="9">
-        <v>3.6223665</v>
+        <v>3.6311914000000001</v>
       </c>
       <c r="P540" s="9">
-        <v>3.2395168999999999</v>
+        <v>3.2474582999999999</v>
       </c>
       <c r="Q540" s="9">
-        <v>244.60866949999999</v>
+        <v>245.9138197</v>
       </c>
       <c r="R540" s="9">
-        <v>124.6702104</v>
+        <v>125.2739086</v>
       </c>
       <c r="S540" s="9">
-        <v>119.93845899999999</v>
+        <v>120.63991110000001</v>
       </c>
       <c r="T540" s="9">
-        <v>71.117921699999997</v>
+        <v>71.162002299999997</v>
       </c>
       <c r="U540" s="9">
-        <v>74.987345000000005</v>
+        <v>75.015664099999995</v>
       </c>
       <c r="V540" s="9">
-        <v>67.497571100000002</v>
+        <v>67.558133999999995</v>
       </c>
     </row>
     <row r="541" spans="1:22" x14ac:dyDescent="0.2">
@@ -38472,67 +38472,67 @@
         <v>44652</v>
       </c>
       <c r="B541" s="9">
-        <v>235.77532059999999</v>
+        <v>236.64174729999999</v>
       </c>
       <c r="C541" s="9">
-        <v>117.8743265</v>
+        <v>118.2855648</v>
       </c>
       <c r="D541" s="9">
-        <v>117.90099410000001</v>
+        <v>118.3561826</v>
       </c>
       <c r="E541" s="9">
-        <v>174.54744959999999</v>
+        <v>175.0869003</v>
       </c>
       <c r="F541" s="9">
-        <v>96.4539841</v>
+        <v>96.713321800000003</v>
       </c>
       <c r="G541" s="9">
-        <v>78.093465499999994</v>
+        <v>78.373578499999994</v>
       </c>
       <c r="H541" s="9">
-        <v>68.578411099999997</v>
+        <v>68.606924199999995</v>
       </c>
       <c r="I541" s="9">
-        <v>70.944096900000005</v>
+        <v>70.962681399999994</v>
       </c>
       <c r="J541" s="9">
-        <v>66.365889699999997</v>
+        <v>66.403823299999999</v>
       </c>
       <c r="K541" s="9">
-        <v>7.6004167000000002</v>
+        <v>7.6330818000000002</v>
       </c>
       <c r="L541" s="9">
-        <v>4.1534386000000003</v>
+        <v>4.1707669000000003</v>
       </c>
       <c r="M541" s="9">
-        <v>3.4469780999999999</v>
+        <v>3.4623149</v>
       </c>
       <c r="N541" s="9">
-        <v>3.1229146999999999</v>
+        <v>3.1247926000000001</v>
       </c>
       <c r="O541" s="9">
-        <v>3.4036832000000001</v>
+        <v>3.4059218000000002</v>
       </c>
       <c r="P541" s="9">
-        <v>2.8405733</v>
+        <v>2.8421913999999999</v>
       </c>
       <c r="Q541" s="9">
-        <v>243.3757373</v>
+        <v>244.27482910000001</v>
       </c>
       <c r="R541" s="9">
-        <v>122.0277651</v>
+        <v>122.45633170000001</v>
       </c>
       <c r="S541" s="9">
-        <v>121.3479722</v>
+        <v>121.8184974</v>
       </c>
       <c r="T541" s="9">
-        <v>70.789094199999994</v>
+        <v>70.819899199999995</v>
       </c>
       <c r="U541" s="9">
-        <v>73.443894499999999</v>
+        <v>73.464836300000002</v>
       </c>
       <c r="V541" s="9">
-        <v>68.306176800000003</v>
+        <v>68.346357600000005</v>
       </c>
     </row>
     <row r="542" spans="1:22" x14ac:dyDescent="0.2">
@@ -38540,67 +38540,67 @@
         <v>44682</v>
       </c>
       <c r="B542" s="9">
-        <v>234.9355692</v>
+        <v>235.4124721</v>
       </c>
       <c r="C542" s="9">
-        <v>120.41702979999999</v>
+        <v>120.6708029</v>
       </c>
       <c r="D542" s="9">
-        <v>114.51853939999999</v>
+        <v>114.7416692</v>
       </c>
       <c r="E542" s="9">
-        <v>176.02367949999999</v>
+        <v>176.33506700000001</v>
       </c>
       <c r="F542" s="9">
-        <v>99.304905300000001</v>
+        <v>99.475495600000002</v>
       </c>
       <c r="G542" s="9">
-        <v>76.718774199999999</v>
+        <v>76.859571500000001</v>
       </c>
       <c r="H542" s="9">
-        <v>68.362990400000001</v>
+        <v>68.377009799999996</v>
       </c>
       <c r="I542" s="9">
-        <v>72.518973200000005</v>
+        <v>72.527228600000001</v>
       </c>
       <c r="J542" s="9">
-        <v>64.477529099999998</v>
+        <v>64.495671400000006</v>
       </c>
       <c r="K542" s="9">
-        <v>7.9991592000000002</v>
+        <v>8.0254247000000003</v>
       </c>
       <c r="L542" s="9">
-        <v>3.7345263000000002</v>
+        <v>3.7507492999999998</v>
       </c>
       <c r="M542" s="9">
-        <v>4.2646328999999996</v>
+        <v>4.2746753999999996</v>
       </c>
       <c r="N542" s="9">
-        <v>3.2927195</v>
+        <v>3.2967031000000002</v>
       </c>
       <c r="O542" s="9">
-        <v>3.0080382000000001</v>
+        <v>3.0145495000000002</v>
       </c>
       <c r="P542" s="9">
-        <v>3.5902669</v>
+        <v>3.5916709</v>
       </c>
       <c r="Q542" s="9">
-        <v>242.93472840000001</v>
+        <v>243.4378968</v>
       </c>
       <c r="R542" s="9">
-        <v>124.15155609999999</v>
+        <v>124.4215523</v>
       </c>
       <c r="S542" s="9">
-        <v>118.7831723</v>
+        <v>119.0163446</v>
       </c>
       <c r="T542" s="9">
-        <v>70.690634700000004</v>
+        <v>70.708044099999995</v>
       </c>
       <c r="U542" s="9">
-        <v>74.768023999999997</v>
+        <v>74.781555600000004</v>
       </c>
       <c r="V542" s="9">
-        <v>66.878651199999993</v>
+        <v>66.898443299999997</v>
       </c>
     </row>
     <row r="543" spans="1:22" x14ac:dyDescent="0.2">
@@ -38608,67 +38608,67 @@
         <v>44713</v>
       </c>
       <c r="B543" s="9">
-        <v>234.85626980000001</v>
+        <v>234.95178329999999</v>
       </c>
       <c r="C543" s="9">
-        <v>119.38894430000001</v>
+        <v>119.48553440000001</v>
       </c>
       <c r="D543" s="9">
-        <v>115.4673255</v>
+        <v>115.4662489</v>
       </c>
       <c r="E543" s="9">
-        <v>176.10409129999999</v>
+        <v>176.17088580000001</v>
       </c>
       <c r="F543" s="9">
-        <v>99.630328500000005</v>
+        <v>99.703123500000004</v>
       </c>
       <c r="G543" s="9">
-        <v>76.473762800000003</v>
+        <v>76.467762300000004</v>
       </c>
       <c r="H543" s="9">
-        <v>68.368563199999997</v>
+        <v>68.371289599999997</v>
       </c>
       <c r="I543" s="9">
-        <v>71.944888000000006</v>
+        <v>71.948897700000003</v>
       </c>
       <c r="J543" s="9">
-        <v>65.026370200000002</v>
+        <v>65.025397699999999</v>
       </c>
       <c r="K543" s="9">
-        <v>7.5242668999999998</v>
+        <v>7.5290112000000002</v>
       </c>
       <c r="L543" s="9">
-        <v>4.0123135000000003</v>
+        <v>4.0165876000000003</v>
       </c>
       <c r="M543" s="9">
-        <v>3.5119533999999999</v>
+        <v>3.5124236</v>
       </c>
       <c r="N543" s="9">
-        <v>3.1043197999999999</v>
+        <v>3.1049928000000002</v>
       </c>
       <c r="O543" s="9">
-        <v>3.2514365000000001</v>
+        <v>3.2522418000000002</v>
       </c>
       <c r="P543" s="9">
-        <v>2.9517353000000002</v>
+        <v>2.9521456000000001</v>
       </c>
       <c r="Q543" s="9">
-        <v>242.38053669999999</v>
+        <v>242.4807946</v>
       </c>
       <c r="R543" s="9">
-        <v>123.4012578</v>
+        <v>123.502122</v>
       </c>
       <c r="S543" s="9">
-        <v>118.9792789</v>
+        <v>118.9786725</v>
       </c>
       <c r="T543" s="9">
-        <v>70.558938299999994</v>
+        <v>70.5622422</v>
       </c>
       <c r="U543" s="9">
-        <v>74.362745399999994</v>
+        <v>74.367508900000004</v>
       </c>
       <c r="V543" s="9">
-        <v>67.004155499999996</v>
+        <v>67.003436699999995</v>
       </c>
     </row>
     <row r="544" spans="1:22" x14ac:dyDescent="0.2">
@@ -38676,67 +38676,135 @@
         <v>44743</v>
       </c>
       <c r="B544" s="9">
-        <v>233.30018380000001</v>
+        <v>233.39680129999999</v>
       </c>
       <c r="C544" s="9">
-        <v>117.5136724</v>
+        <v>117.6106364</v>
       </c>
       <c r="D544" s="9">
-        <v>115.78651139999999</v>
+        <v>115.7861649</v>
       </c>
       <c r="E544" s="9">
-        <v>176.5722892</v>
+        <v>176.63960359999999</v>
       </c>
       <c r="F544" s="9">
-        <v>99.278042099999993</v>
+        <v>99.351920500000006</v>
       </c>
       <c r="G544" s="9">
-        <v>77.294246999999999</v>
+        <v>77.287683099999995</v>
       </c>
       <c r="H544" s="9">
-        <v>67.930405300000004</v>
+        <v>67.933614300000002</v>
       </c>
       <c r="I544" s="9">
-        <v>70.825074799999996</v>
+        <v>70.830153300000006</v>
       </c>
       <c r="J544" s="9">
-        <v>65.224855599999998</v>
+        <v>65.224293000000003</v>
       </c>
       <c r="K544" s="9">
-        <v>8.0454738999999993</v>
+        <v>8.0511719999999993</v>
       </c>
       <c r="L544" s="9">
-        <v>5.0851940000000004</v>
+        <v>5.0904819999999997</v>
       </c>
       <c r="M544" s="9">
-        <v>2.9602799000000002</v>
+        <v>2.96069</v>
       </c>
       <c r="N544" s="9">
-        <v>3.3335897000000001</v>
+        <v>3.3345370000000001</v>
       </c>
       <c r="O544" s="9">
-        <v>4.1478311999999997</v>
+        <v>4.1486843000000002</v>
       </c>
       <c r="P544" s="9">
-        <v>2.4929347000000002</v>
+        <v>2.4932786999999998</v>
       </c>
       <c r="Q544" s="9">
-        <v>241.3456577</v>
+        <v>241.4479733</v>
       </c>
       <c r="R544" s="9">
-        <v>122.59886640000001</v>
+        <v>122.70111850000001</v>
       </c>
       <c r="S544" s="9">
-        <v>118.7467913</v>
+        <v>118.7468549</v>
       </c>
       <c r="T544" s="9">
-        <v>70.273019399999995</v>
+        <v>70.277027799999999</v>
       </c>
       <c r="U544" s="9">
-        <v>73.8899033</v>
+        <v>73.895859299999998</v>
       </c>
       <c r="V544" s="9">
-        <v>66.892440399999998</v>
+        <v>66.892099400000006</v>
+      </c>
+    </row>
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A545" s="10">
+        <v>44774</v>
+      </c>
+      <c r="B545" s="9">
+        <v>236.80610050000001</v>
+      </c>
+      <c r="C545" s="9">
+        <v>120.7532415</v>
+      </c>
+      <c r="D545" s="9">
+        <v>116.05285910000001</v>
+      </c>
+      <c r="E545" s="9">
+        <v>178.4231283</v>
+      </c>
+      <c r="F545" s="9">
+        <v>101.2373271</v>
+      </c>
+      <c r="G545" s="9">
+        <v>77.1858012</v>
+      </c>
+      <c r="H545" s="9">
+        <v>68.939385700000003</v>
+      </c>
+      <c r="I545" s="9">
+        <v>72.731524899999997</v>
+      </c>
+      <c r="J545" s="9">
+        <v>65.391839399999995</v>
+      </c>
+      <c r="K545" s="9">
+        <v>6.6007730999999996</v>
+      </c>
+      <c r="L545" s="9">
+        <v>4.1106655999999999</v>
+      </c>
+      <c r="M545" s="9">
+        <v>2.4901075000000001</v>
+      </c>
+      <c r="N545" s="9">
+        <v>2.7118269000000002</v>
+      </c>
+      <c r="O545" s="9">
+        <v>3.2921168000000001</v>
+      </c>
+      <c r="P545" s="9">
+        <v>2.1005948999999999</v>
+      </c>
+      <c r="Q545" s="9">
+        <v>243.40687360000001</v>
+      </c>
+      <c r="R545" s="9">
+        <v>124.86390710000001</v>
+      </c>
+      <c r="S545" s="9">
+        <v>118.5429666</v>
+      </c>
+      <c r="T545" s="9">
+        <v>70.861013799999995</v>
+      </c>
+      <c r="U545" s="9">
+        <v>75.207441599999996</v>
+      </c>
+      <c r="V545" s="9">
+        <v>66.794930300000004</v>
       </c>
     </row>
   </sheetData>
